--- a/MACLRN Final Output/MS1.xlsx
+++ b/MACLRN Final Output/MS1.xlsx
@@ -5,14 +5,15 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\markarevz18\Documents (D)\DLSU\DLSU AY1516 Term 2\MAC-LRN\Final Output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\markarevz18\Documents (D)\Github\BSLordz\MACLRN Final Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6036" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Spambase" sheetId="1" r:id="rId1"/>
+    <sheet name="Diabetes" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="21">
   <si>
     <t>Classifier</t>
   </si>
@@ -78,6 +79,15 @@
   </si>
   <si>
     <t>Kappa</t>
+  </si>
+  <si>
+    <t>precision</t>
+  </si>
+  <si>
+    <t>recall</t>
+  </si>
+  <si>
+    <t>fmeasure</t>
   </si>
 </sst>
 </file>
@@ -227,7 +237,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -253,6 +263,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -262,12 +278,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -276,6 +286,58 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -559,7 +621,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A14" sqref="A14:A19"/>
     </sheetView>
   </sheetViews>
@@ -588,7 +650,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="11" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -608,7 +670,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="10"/>
+      <c r="A3" s="12"/>
       <c r="B3" s="6" t="s">
         <v>13</v>
       </c>
@@ -626,7 +688,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="10"/>
+      <c r="A4" s="12"/>
       <c r="B4" s="6" t="s">
         <v>14</v>
       </c>
@@ -644,7 +706,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="10"/>
+      <c r="A5" s="12"/>
       <c r="B5" s="6" t="s">
         <v>15</v>
       </c>
@@ -662,7 +724,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="10"/>
+      <c r="A6" s="12"/>
       <c r="B6" s="6" t="s">
         <v>16</v>
       </c>
@@ -680,7 +742,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="11"/>
+      <c r="A7" s="13"/>
       <c r="B7" s="7" t="s">
         <v>17</v>
       </c>
@@ -698,7 +760,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="11" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="6" t="s">
@@ -707,7 +769,7 @@
       <c r="C8" s="5">
         <v>90.35</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="9">
         <v>91.92</v>
       </c>
       <c r="E8" s="5">
@@ -718,14 +780,14 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="10"/>
+      <c r="A9" s="12"/>
       <c r="B9" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="3">
         <v>0.91149999999999998</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="10">
         <v>0.92910000000000004</v>
       </c>
       <c r="E9" s="3">
@@ -736,14 +798,14 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="10"/>
+      <c r="A10" s="12"/>
       <c r="B10" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="3">
         <v>0.93149999999999999</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="10">
         <v>0.93830000000000002</v>
       </c>
       <c r="E10" s="3">
@@ -754,14 +816,14 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="10"/>
+      <c r="A11" s="12"/>
       <c r="B11" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="3">
         <v>0.92130000000000001</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D11" s="10">
         <v>0.93359999999999999</v>
       </c>
       <c r="E11" s="3">
@@ -772,14 +834,14 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="10"/>
+      <c r="A12" s="12"/>
       <c r="B12" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C12" s="5">
         <v>0.91900000000000004</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="9">
         <v>0.92500000000000004</v>
       </c>
       <c r="E12" s="5">
@@ -790,14 +852,14 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="11"/>
+      <c r="A13" s="13"/>
       <c r="B13" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C13" s="5">
         <v>0.79700000000000004</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D13" s="9">
         <v>0.83</v>
       </c>
       <c r="E13" s="5">
@@ -817,7 +879,7 @@
       <c r="C14" s="8">
         <v>89.94</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D14" s="9">
         <v>92.44</v>
       </c>
       <c r="E14" s="5">
@@ -826,7 +888,7 @@
       <c r="F14" s="5">
         <v>72.03</v>
       </c>
-      <c r="H14" s="12">
+      <c r="H14" s="9">
         <v>92.44</v>
       </c>
     </row>
@@ -838,7 +900,7 @@
       <c r="C15" s="3">
         <v>0.90810000000000002</v>
       </c>
-      <c r="D15" s="13">
+      <c r="D15" s="10">
         <v>0.93420000000000003</v>
       </c>
       <c r="E15" s="3">
@@ -856,7 +918,7 @@
       <c r="C16" s="3">
         <v>0.92830000000000001</v>
       </c>
-      <c r="D16" s="13">
+      <c r="D16" s="10">
         <v>0.94189999999999996</v>
       </c>
       <c r="E16" s="3">
@@ -865,7 +927,7 @@
       <c r="F16" s="3">
         <v>0.65529999999999999</v>
       </c>
-      <c r="J16" s="13">
+      <c r="J16" s="10">
         <v>0.94189999999999996</v>
       </c>
     </row>
@@ -877,7 +939,7 @@
       <c r="C17" s="3">
         <v>0.91790000000000005</v>
       </c>
-      <c r="D17" s="13">
+      <c r="D17" s="10">
         <v>0.93789999999999996</v>
       </c>
       <c r="E17" s="3">
@@ -886,7 +948,7 @@
       <c r="F17" s="3">
         <v>0.73929999999999996</v>
       </c>
-      <c r="K17" s="13">
+      <c r="K17" s="10">
         <v>0.93789999999999996</v>
       </c>
     </row>
@@ -898,7 +960,7 @@
       <c r="C18" s="5">
         <v>0.93600000000000005</v>
       </c>
-      <c r="D18" s="12">
+      <c r="D18" s="9">
         <v>0.94599999999999995</v>
       </c>
       <c r="E18" s="5">
@@ -916,7 +978,7 @@
       <c r="C19" s="5">
         <v>0.78800000000000003</v>
       </c>
-      <c r="D19" s="12">
+      <c r="D19" s="9">
         <v>0.84099999999999997</v>
       </c>
       <c r="E19" s="5">
@@ -925,12 +987,12 @@
       <c r="F19" s="5">
         <v>0.44800000000000001</v>
       </c>
-      <c r="M19" s="12">
+      <c r="M19" s="9">
         <v>0.84099999999999997</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="11" t="s">
         <v>8</v>
       </c>
       <c r="B20" s="6" t="s">
@@ -939,7 +1001,7 @@
       <c r="C20" s="5">
         <v>89.63</v>
       </c>
-      <c r="D20" s="12">
+      <c r="D20" s="9">
         <v>92.24</v>
       </c>
       <c r="E20" s="5">
@@ -950,14 +1012,14 @@
       </c>
     </row>
     <row r="21" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="10"/>
+      <c r="A21" s="12"/>
       <c r="B21" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C21" s="3">
         <v>0.90490000000000004</v>
       </c>
-      <c r="D21" s="13">
+      <c r="D21" s="10">
         <v>0.93479999999999996</v>
       </c>
       <c r="E21" s="3">
@@ -966,19 +1028,19 @@
       <c r="F21" s="3">
         <v>0.84370000000000001</v>
       </c>
-      <c r="I21" s="13">
+      <c r="I21" s="10">
         <v>0.93479999999999996</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="10"/>
+      <c r="A22" s="12"/>
       <c r="B22" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C22" s="3">
         <v>0.92649999999999999</v>
       </c>
-      <c r="D22" s="13">
+      <c r="D22" s="10">
         <v>0.93759999999999999</v>
       </c>
       <c r="E22" s="3">
@@ -989,14 +1051,14 @@
       </c>
     </row>
     <row r="23" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="10"/>
+      <c r="A23" s="12"/>
       <c r="B23" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C23" s="3">
         <v>0.91539999999999999</v>
       </c>
-      <c r="D23" s="13">
+      <c r="D23" s="10">
         <v>0.93610000000000004</v>
       </c>
       <c r="E23" s="3">
@@ -1007,14 +1069,14 @@
       </c>
     </row>
     <row r="24" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="10"/>
+      <c r="A24" s="12"/>
       <c r="B24" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C24" s="5">
         <v>0.95299999999999996</v>
       </c>
-      <c r="D24" s="12">
+      <c r="D24" s="9">
         <v>0.96899999999999997</v>
       </c>
       <c r="E24" s="5">
@@ -1023,19 +1085,19 @@
       <c r="F24" s="5">
         <v>0.77100000000000002</v>
       </c>
-      <c r="L24" s="12">
+      <c r="L24" s="9">
         <v>0.96899999999999997</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="11"/>
+      <c r="A25" s="13"/>
       <c r="B25" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C25" s="5">
         <v>0.78200000000000003</v>
       </c>
-      <c r="D25" s="12">
+      <c r="D25" s="9">
         <v>0.83699999999999997</v>
       </c>
       <c r="E25" s="5">
@@ -1046,7 +1108,7 @@
       </c>
     </row>
     <row r="26" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="9" t="s">
+      <c r="A26" s="11" t="s">
         <v>9</v>
       </c>
       <c r="B26" s="6" t="s">
@@ -1055,7 +1117,7 @@
       <c r="C26" s="5">
         <v>89.24</v>
       </c>
-      <c r="D26" s="12">
+      <c r="D26" s="9">
         <v>91.91</v>
       </c>
       <c r="E26" s="5">
@@ -1066,14 +1128,14 @@
       </c>
     </row>
     <row r="27" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="10"/>
+      <c r="A27" s="12"/>
       <c r="B27" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C27" s="3">
         <v>0.89629999999999999</v>
       </c>
-      <c r="D27" s="13">
+      <c r="D27" s="10">
         <v>0.92730000000000001</v>
       </c>
       <c r="E27" s="3">
@@ -1084,14 +1146,14 @@
       </c>
     </row>
     <row r="28" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="10"/>
+      <c r="A28" s="12"/>
       <c r="B28" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C28" s="3">
         <v>0.9304</v>
       </c>
-      <c r="D28" s="13">
+      <c r="D28" s="10">
         <v>0.9405</v>
       </c>
       <c r="E28" s="3">
@@ -1102,14 +1164,14 @@
       </c>
     </row>
     <row r="29" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="10"/>
+      <c r="A29" s="12"/>
       <c r="B29" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C29" s="3">
         <v>0.91290000000000004</v>
       </c>
-      <c r="D29" s="13">
+      <c r="D29" s="10">
         <v>0.93379999999999996</v>
       </c>
       <c r="E29" s="3">
@@ -1120,14 +1182,14 @@
       </c>
     </row>
     <row r="30" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="10"/>
+      <c r="A30" s="12"/>
       <c r="B30" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C30" s="5">
         <v>0.95399999999999996</v>
       </c>
-      <c r="D30" s="12">
+      <c r="D30" s="9">
         <v>0.95799999999999996</v>
       </c>
       <c r="E30" s="5">
@@ -1138,14 +1200,14 @@
       </c>
     </row>
     <row r="31" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="11"/>
+      <c r="A31" s="13"/>
       <c r="B31" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C31" s="5">
         <v>0.77200000000000002</v>
       </c>
-      <c r="D31" s="12">
+      <c r="D31" s="9">
         <v>0.83</v>
       </c>
       <c r="E31" s="5">
@@ -1156,7 +1218,7 @@
       </c>
     </row>
     <row r="32" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="9" t="s">
+      <c r="A32" s="11" t="s">
         <v>10</v>
       </c>
       <c r="B32" s="6" t="s">
@@ -1176,7 +1238,7 @@
       </c>
     </row>
     <row r="33" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="10"/>
+      <c r="A33" s="12"/>
       <c r="B33" s="6" t="s">
         <v>13</v>
       </c>
@@ -1194,7 +1256,7 @@
       </c>
     </row>
     <row r="34" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="10"/>
+      <c r="A34" s="12"/>
       <c r="B34" s="6" t="s">
         <v>14</v>
       </c>
@@ -1215,7 +1277,7 @@
       </c>
     </row>
     <row r="35" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="10"/>
+      <c r="A35" s="12"/>
       <c r="B35" s="6" t="s">
         <v>15</v>
       </c>
@@ -1233,7 +1295,7 @@
       </c>
     </row>
     <row r="36" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="10"/>
+      <c r="A36" s="12"/>
       <c r="B36" s="6" t="s">
         <v>16</v>
       </c>
@@ -1251,7 +1313,7 @@
       </c>
     </row>
     <row r="37" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="11"/>
+      <c r="A37" s="13"/>
       <c r="B37" s="7" t="s">
         <v>17</v>
       </c>
@@ -1269,7 +1331,7 @@
       </c>
     </row>
     <row r="38" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="9" t="s">
+      <c r="A38" s="11" t="s">
         <v>11</v>
       </c>
       <c r="B38" s="6" t="s">
@@ -1289,7 +1351,7 @@
       </c>
     </row>
     <row r="39" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="10"/>
+      <c r="A39" s="12"/>
       <c r="B39" s="6" t="s">
         <v>13</v>
       </c>
@@ -1307,7 +1369,7 @@
       </c>
     </row>
     <row r="40" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="10"/>
+      <c r="A40" s="12"/>
       <c r="B40" s="6" t="s">
         <v>14</v>
       </c>
@@ -1325,7 +1387,7 @@
       </c>
     </row>
     <row r="41" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="10"/>
+      <c r="A41" s="12"/>
       <c r="B41" s="6" t="s">
         <v>15</v>
       </c>
@@ -1343,7 +1405,7 @@
       </c>
     </row>
     <row r="42" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="10"/>
+      <c r="A42" s="12"/>
       <c r="B42" s="6" t="s">
         <v>16</v>
       </c>
@@ -1361,7 +1423,7 @@
       </c>
     </row>
     <row r="43" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="11"/>
+      <c r="A43" s="13"/>
       <c r="B43" s="7" t="s">
         <v>17</v>
       </c>
@@ -1376,6 +1438,896 @@
       </c>
       <c r="F43" s="5">
         <v>0.32400000000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A44" s="4"/>
+      <c r="B44" s="4"/>
+    </row>
+    <row r="45" spans="1:10" ht="157.80000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="56" ht="157.80000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="67" ht="157.80000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="78" ht="157.80000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="89" ht="157.80000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A38:A43"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="A8:A13"/>
+    <mergeCell ref="A14:A19"/>
+    <mergeCell ref="A20:A25"/>
+    <mergeCell ref="A26:A31"/>
+    <mergeCell ref="A32:A37"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N89"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="28.109375" customWidth="1"/>
+    <col min="2" max="2" width="9.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="102.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="24">
+        <v>0.61250000000000004</v>
+      </c>
+      <c r="D2" s="25">
+        <v>0.68200000000000005</v>
+      </c>
+      <c r="E2" s="25">
+        <v>0.63339999999999996</v>
+      </c>
+      <c r="F2" s="25">
+        <v>0.67159999999999997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="26"/>
+      <c r="B3" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="24">
+        <v>0.64400000000000002</v>
+      </c>
+      <c r="D3" s="25">
+        <v>0.71599999999999997</v>
+      </c>
+      <c r="E3" s="25">
+        <v>0.66669999999999996</v>
+      </c>
+      <c r="F3" s="25">
+        <v>0.69189999999999996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="26"/>
+      <c r="B4" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="24">
+        <v>0.60389999999999999</v>
+      </c>
+      <c r="D4" s="25">
+        <v>0.66449999999999998</v>
+      </c>
+      <c r="E4" s="25">
+        <v>0.61870000000000003</v>
+      </c>
+      <c r="F4" s="25">
+        <v>0.68740000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="26"/>
+      <c r="B5" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="24">
+        <v>0.62329999999999997</v>
+      </c>
+      <c r="D5" s="25">
+        <v>0.68930000000000002</v>
+      </c>
+      <c r="E5" s="25">
+        <v>0.64180000000000004</v>
+      </c>
+      <c r="F5" s="25">
+        <v>0.68969999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="26"/>
+      <c r="B6" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="27">
+        <v>0.5</v>
+      </c>
+      <c r="D6" s="28">
+        <v>0.5</v>
+      </c>
+      <c r="E6" s="28">
+        <v>0.5</v>
+      </c>
+      <c r="F6" s="28">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="29"/>
+      <c r="B7" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="27">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="D7" s="28">
+        <v>0.36499999999999999</v>
+      </c>
+      <c r="E7" s="28">
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="F7" s="28">
+        <v>0.34100000000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="31">
+        <v>0.62290000000000001</v>
+      </c>
+      <c r="D8" s="32">
+        <v>0.71419999999999995</v>
+      </c>
+      <c r="E8" s="32">
+        <v>0.64470000000000005</v>
+      </c>
+      <c r="F8" s="32">
+        <v>0.64639999999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="26"/>
+      <c r="B9" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="31">
+        <v>0.6583</v>
+      </c>
+      <c r="D9" s="32">
+        <v>0.75090000000000001</v>
+      </c>
+      <c r="E9" s="32">
+        <v>0.68230000000000002</v>
+      </c>
+      <c r="F9" s="32">
+        <v>0.67589999999999995</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="26"/>
+      <c r="B10" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="31">
+        <v>0.60229999999999995</v>
+      </c>
+      <c r="D10" s="32">
+        <v>0.69069999999999998</v>
+      </c>
+      <c r="E10" s="32">
+        <v>0.61870000000000003</v>
+      </c>
+      <c r="F10" s="32">
+        <v>0.64159999999999995</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="26"/>
+      <c r="B11" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="31">
+        <v>0.62909999999999999</v>
+      </c>
+      <c r="D11" s="32">
+        <v>0.71950000000000003</v>
+      </c>
+      <c r="E11" s="32">
+        <v>0.64890000000000003</v>
+      </c>
+      <c r="F11" s="32">
+        <v>0.6583</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="26"/>
+      <c r="B12" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="33">
+        <v>0.66</v>
+      </c>
+      <c r="D12" s="34">
+        <v>0.73599999999999999</v>
+      </c>
+      <c r="E12" s="34">
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="F12" s="34">
+        <v>0.68400000000000005</v>
+      </c>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+    </row>
+    <row r="13" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="29"/>
+      <c r="B13" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="33">
+        <v>0.247</v>
+      </c>
+      <c r="D13" s="34">
+        <v>0.42899999999999999</v>
+      </c>
+      <c r="E13" s="34">
+        <v>0.29099999999999998</v>
+      </c>
+      <c r="F13" s="34">
+        <v>0.29199999999999998</v>
+      </c>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+    </row>
+    <row r="14" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="31">
+        <v>0.63160000000000005</v>
+      </c>
+      <c r="D14" s="32">
+        <v>0.72199999999999998</v>
+      </c>
+      <c r="E14" s="32">
+        <v>0.66200000000000003</v>
+      </c>
+      <c r="F14" s="32">
+        <v>0.65680000000000005</v>
+      </c>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
+    </row>
+    <row r="15" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="26"/>
+      <c r="B15" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="31">
+        <v>0.66910000000000003</v>
+      </c>
+      <c r="D15" s="32">
+        <v>0.76890000000000003</v>
+      </c>
+      <c r="E15" s="32">
+        <v>0.70479999999999998</v>
+      </c>
+      <c r="F15" s="32">
+        <v>0.69220000000000004</v>
+      </c>
+      <c r="M15" s="17"/>
+      <c r="N15" s="17"/>
+    </row>
+    <row r="16" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="26"/>
+      <c r="B16" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="31">
+        <v>0.60560000000000003</v>
+      </c>
+      <c r="D16" s="32">
+        <v>0.68089999999999995</v>
+      </c>
+      <c r="E16" s="32">
+        <v>0.62519999999999998</v>
+      </c>
+      <c r="F16" s="32">
+        <v>0.63670000000000004</v>
+      </c>
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
+    </row>
+    <row r="17" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="26"/>
+      <c r="B17" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="31">
+        <v>0.63570000000000004</v>
+      </c>
+      <c r="D17" s="32">
+        <v>0.72219999999999995</v>
+      </c>
+      <c r="E17" s="32">
+        <v>0.66259999999999997</v>
+      </c>
+      <c r="F17" s="32">
+        <v>0.6633</v>
+      </c>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
+    </row>
+    <row r="18" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="26"/>
+      <c r="B18" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="33">
+        <v>0.68</v>
+      </c>
+      <c r="D18" s="34">
+        <v>0.77100000000000002</v>
+      </c>
+      <c r="E18" s="34">
+        <v>0.70299999999999996</v>
+      </c>
+      <c r="F18" s="34">
+        <v>0.71299999999999997</v>
+      </c>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+    </row>
+    <row r="19" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="29"/>
+      <c r="B19" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="33">
+        <v>0.26500000000000001</v>
+      </c>
+      <c r="D19" s="34">
+        <v>0.44600000000000001</v>
+      </c>
+      <c r="E19" s="34">
+        <v>0.32600000000000001</v>
+      </c>
+      <c r="F19" s="34">
+        <v>0.315</v>
+      </c>
+      <c r="M19" s="18"/>
+      <c r="N19" s="17"/>
+    </row>
+    <row r="20" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="31">
+        <v>0.64729999999999999</v>
+      </c>
+      <c r="D20" s="32">
+        <v>0.70889999999999997</v>
+      </c>
+      <c r="E20" s="32">
+        <v>0.68030000000000002</v>
+      </c>
+      <c r="F20" s="32">
+        <v>0.67330000000000001</v>
+      </c>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
+    </row>
+    <row r="21" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="26"/>
+      <c r="B21" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="31">
+        <v>0.68600000000000005</v>
+      </c>
+      <c r="D21" s="32">
+        <v>0.75749999999999995</v>
+      </c>
+      <c r="E21" s="32">
+        <v>0.71970000000000001</v>
+      </c>
+      <c r="F21" s="32">
+        <v>0.71099999999999997</v>
+      </c>
+      <c r="H21" s="17"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
+      <c r="N21" s="17"/>
+    </row>
+    <row r="22" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="26"/>
+      <c r="B22" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="31">
+        <v>0.61870000000000003</v>
+      </c>
+      <c r="D22" s="32">
+        <v>0.66449999999999998</v>
+      </c>
+      <c r="E22" s="32">
+        <v>0.65139999999999998</v>
+      </c>
+      <c r="F22" s="32">
+        <v>0.64810000000000001</v>
+      </c>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="17"/>
+    </row>
+    <row r="23" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="26"/>
+      <c r="B23" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="31">
+        <v>0.65059999999999996</v>
+      </c>
+      <c r="D23" s="32">
+        <v>0.70789999999999997</v>
+      </c>
+      <c r="E23" s="32">
+        <v>0.68379999999999996</v>
+      </c>
+      <c r="F23" s="32">
+        <v>0.67810000000000004</v>
+      </c>
+      <c r="H23" s="17"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="17"/>
+    </row>
+    <row r="24" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="26"/>
+      <c r="B24" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="33">
+        <v>0.69399999999999995</v>
+      </c>
+      <c r="D24" s="34">
+        <v>0.76100000000000001</v>
+      </c>
+      <c r="E24" s="34">
+        <v>0.71699999999999997</v>
+      </c>
+      <c r="F24" s="34">
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="H24" s="17"/>
+      <c r="M24" s="17"/>
+      <c r="N24" s="17"/>
+    </row>
+    <row r="25" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="29"/>
+      <c r="B25" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="33">
+        <v>0.29599999999999999</v>
+      </c>
+      <c r="D25" s="34">
+        <v>0.42</v>
+      </c>
+      <c r="E25" s="34">
+        <v>0.36199999999999999</v>
+      </c>
+      <c r="F25" s="34">
+        <v>0.34799999999999998</v>
+      </c>
+      <c r="H25" s="17"/>
+      <c r="I25" t="s">
+        <v>20</v>
+      </c>
+      <c r="M25" s="17"/>
+      <c r="N25" s="17"/>
+    </row>
+    <row r="26" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="31">
+        <v>0.63939999999999997</v>
+      </c>
+      <c r="D26" s="32">
+        <v>0.70889999999999997</v>
+      </c>
+      <c r="E26" s="32">
+        <v>0.65939999999999999</v>
+      </c>
+      <c r="F26" s="32">
+        <v>0.68200000000000005</v>
+      </c>
+      <c r="H26" s="17"/>
+      <c r="M26" s="17"/>
+      <c r="N26" s="17"/>
+    </row>
+    <row r="27" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="26"/>
+      <c r="B27" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" s="31">
+        <v>0.67879999999999996</v>
+      </c>
+      <c r="D27" s="32">
+        <v>0.76849999999999996</v>
+      </c>
+      <c r="E27" s="32">
+        <v>0.70020000000000004</v>
+      </c>
+      <c r="F27" s="32">
+        <v>0.72150000000000003</v>
+      </c>
+      <c r="H27" s="17"/>
+      <c r="M27" s="17"/>
+      <c r="N27" s="17"/>
+    </row>
+    <row r="28" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="26"/>
+      <c r="B28" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="31">
+        <v>0.60880000000000001</v>
+      </c>
+      <c r="D28" s="32">
+        <v>0.64649999999999996</v>
+      </c>
+      <c r="E28" s="32">
+        <v>0.62680000000000002</v>
+      </c>
+      <c r="F28" s="32">
+        <v>0.65200000000000002</v>
+      </c>
+      <c r="H28" s="17"/>
+      <c r="M28" s="17"/>
+      <c r="N28" s="17"/>
+    </row>
+    <row r="29" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="26"/>
+      <c r="B29" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" s="31">
+        <v>0.64190000000000003</v>
+      </c>
+      <c r="D29" s="32">
+        <v>0.70220000000000005</v>
+      </c>
+      <c r="E29" s="32">
+        <v>0.66149999999999998</v>
+      </c>
+      <c r="F29" s="32">
+        <v>0.68559999999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="26"/>
+      <c r="B30" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" s="33">
+        <v>0.69599999999999995</v>
+      </c>
+      <c r="D30" s="34">
+        <v>0.76700000000000002</v>
+      </c>
+      <c r="E30" s="34">
+        <v>0.70799999999999996</v>
+      </c>
+      <c r="F30" s="34">
+        <v>0.73099999999999998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="29"/>
+      <c r="B31" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C31" s="33">
+        <v>0.28100000000000003</v>
+      </c>
+      <c r="D31" s="34">
+        <v>0.42199999999999999</v>
+      </c>
+      <c r="E31" s="34">
+        <v>0.32100000000000001</v>
+      </c>
+      <c r="F31" s="34">
+        <v>0.36599999999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="31">
+        <v>0.53690000000000004</v>
+      </c>
+      <c r="D32" s="32">
+        <v>0.54390000000000005</v>
+      </c>
+      <c r="E32" s="32">
+        <v>0.54390000000000005</v>
+      </c>
+      <c r="F32" s="32">
+        <v>0.53259999999999996</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="26"/>
+      <c r="B33" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" s="31">
+        <v>0.56269999999999998</v>
+      </c>
+      <c r="D33" s="32">
+        <v>0.53800000000000003</v>
+      </c>
+      <c r="E33" s="32">
+        <v>0.58240000000000003</v>
+      </c>
+      <c r="F33" s="32">
+        <v>0.53539999999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="26"/>
+      <c r="B34" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" s="31">
+        <v>0.57279999999999998</v>
+      </c>
+      <c r="D34" s="32">
+        <v>0.99670000000000003</v>
+      </c>
+      <c r="E34" s="32">
+        <v>0.4975</v>
+      </c>
+      <c r="F34" s="32">
+        <v>0.90339999999999998</v>
+      </c>
+      <c r="J34" s="3"/>
+    </row>
+    <row r="35" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="26"/>
+      <c r="B35" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35" s="31">
+        <v>0.56769999999999998</v>
+      </c>
+      <c r="D35" s="32">
+        <v>0.69879999999999998</v>
+      </c>
+      <c r="E35" s="32">
+        <v>0.53659999999999997</v>
+      </c>
+      <c r="F35" s="32">
+        <v>0.67230000000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="26"/>
+      <c r="B36" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C36" s="33">
+        <v>0.54900000000000004</v>
+      </c>
+      <c r="D36" s="34">
+        <v>0.54800000000000004</v>
+      </c>
+      <c r="E36" s="34">
+        <v>0.56499999999999995</v>
+      </c>
+      <c r="F36" s="34">
+        <v>0.52900000000000003</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="29"/>
+      <c r="B37" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C37" s="33">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="D37" s="34">
+        <v>0.03</v>
+      </c>
+      <c r="E37" s="34">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="F37" s="34">
+        <v>1.7000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B38" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38" s="31">
+        <v>0.60299999999999998</v>
+      </c>
+      <c r="D38" s="32">
+        <v>0.65680000000000005</v>
+      </c>
+      <c r="E38" s="32">
+        <v>0.65069999999999995</v>
+      </c>
+      <c r="F38" s="32">
+        <v>0.59770000000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="26"/>
+      <c r="B39" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C39" s="31">
+        <v>0.81559999999999999</v>
+      </c>
+      <c r="D39" s="32">
+        <v>0.73280000000000001</v>
+      </c>
+      <c r="E39" s="32">
+        <v>0.74590000000000001</v>
+      </c>
+      <c r="F39" s="32">
+        <v>0.64449999999999996</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="26"/>
+      <c r="B40" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C40" s="31">
+        <v>0.32569999999999999</v>
+      </c>
+      <c r="D40" s="32">
+        <v>0.55649999999999999</v>
+      </c>
+      <c r="E40" s="32">
+        <v>0.51880000000000004</v>
+      </c>
+      <c r="F40" s="32">
+        <v>0.54010000000000002</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="26"/>
+      <c r="B41" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C41" s="31">
+        <v>0.46550000000000002</v>
+      </c>
+      <c r="D41" s="32">
+        <v>0.63260000000000005</v>
+      </c>
+      <c r="E41" s="32">
+        <v>0.61199999999999999</v>
+      </c>
+      <c r="F41" s="32">
+        <v>0.5877</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="26"/>
+      <c r="B42" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C42" s="33">
+        <v>0.68899999999999995</v>
+      </c>
+      <c r="D42" s="34">
+        <v>0.67800000000000005</v>
+      </c>
+      <c r="E42" s="34">
+        <v>0.7</v>
+      </c>
+      <c r="F42" s="34">
+        <v>0.65200000000000002</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="29"/>
+      <c r="B43" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C43" s="33">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="D43" s="34">
+        <v>0.32200000000000001</v>
+      </c>
+      <c r="E43" s="34">
+        <v>0.313</v>
+      </c>
+      <c r="F43" s="34">
+        <v>0.20100000000000001</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">

--- a/MACLRN Final Output/MS1.xlsx
+++ b/MACLRN Final Output/MS1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6036" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6036"/>
   </bookViews>
   <sheets>
     <sheet name="Spambase" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="22">
   <si>
     <t>Classifier</t>
   </si>
@@ -89,12 +89,15 @@
   <si>
     <t>fmeasure</t>
   </si>
+  <si>
+    <t>MLP (Training Cycles= 10)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -120,6 +123,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -237,7 +255,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -269,24 +287,6 @@
     <xf numFmtId="10" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -300,9 +300,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -312,18 +309,12 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -338,6 +329,60 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -621,8 +666,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M89"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:A19"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44:F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -650,7 +695,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="26" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -670,7 +715,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="12"/>
+      <c r="A3" s="27"/>
       <c r="B3" s="6" t="s">
         <v>13</v>
       </c>
@@ -688,7 +733,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="12"/>
+      <c r="A4" s="27"/>
       <c r="B4" s="6" t="s">
         <v>14</v>
       </c>
@@ -706,7 +751,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="12"/>
+      <c r="A5" s="27"/>
       <c r="B5" s="6" t="s">
         <v>15</v>
       </c>
@@ -724,7 +769,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="12"/>
+      <c r="A6" s="27"/>
       <c r="B6" s="6" t="s">
         <v>16</v>
       </c>
@@ -742,7 +787,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="13"/>
+      <c r="A7" s="28"/>
       <c r="B7" s="7" t="s">
         <v>17</v>
       </c>
@@ -760,7 +805,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="26" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="6" t="s">
@@ -780,7 +825,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="12"/>
+      <c r="A9" s="27"/>
       <c r="B9" s="6" t="s">
         <v>13</v>
       </c>
@@ -798,7 +843,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="12"/>
+      <c r="A10" s="27"/>
       <c r="B10" s="6" t="s">
         <v>14</v>
       </c>
@@ -816,7 +861,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="12"/>
+      <c r="A11" s="27"/>
       <c r="B11" s="6" t="s">
         <v>15</v>
       </c>
@@ -834,7 +879,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="12"/>
+      <c r="A12" s="27"/>
       <c r="B12" s="6" t="s">
         <v>16</v>
       </c>
@@ -852,7 +897,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="13"/>
+      <c r="A13" s="28"/>
       <c r="B13" s="7" t="s">
         <v>17</v>
       </c>
@@ -870,7 +915,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="29" t="s">
         <v>7</v>
       </c>
       <c r="B14" s="6" t="s">
@@ -893,7 +938,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="15"/>
+      <c r="A15" s="30"/>
       <c r="B15" s="6" t="s">
         <v>13</v>
       </c>
@@ -911,7 +956,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="15"/>
+      <c r="A16" s="30"/>
       <c r="B16" s="6" t="s">
         <v>14</v>
       </c>
@@ -932,7 +977,7 @@
       </c>
     </row>
     <row r="17" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="15"/>
+      <c r="A17" s="30"/>
       <c r="B17" s="6" t="s">
         <v>15</v>
       </c>
@@ -953,7 +998,7 @@
       </c>
     </row>
     <row r="18" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="15"/>
+      <c r="A18" s="30"/>
       <c r="B18" s="6" t="s">
         <v>16</v>
       </c>
@@ -971,7 +1016,7 @@
       </c>
     </row>
     <row r="19" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="16"/>
+      <c r="A19" s="31"/>
       <c r="B19" s="7" t="s">
         <v>17</v>
       </c>
@@ -992,7 +1037,7 @@
       </c>
     </row>
     <row r="20" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="26" t="s">
         <v>8</v>
       </c>
       <c r="B20" s="6" t="s">
@@ -1012,7 +1057,7 @@
       </c>
     </row>
     <row r="21" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="12"/>
+      <c r="A21" s="27"/>
       <c r="B21" s="6" t="s">
         <v>13</v>
       </c>
@@ -1033,7 +1078,7 @@
       </c>
     </row>
     <row r="22" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="12"/>
+      <c r="A22" s="27"/>
       <c r="B22" s="6" t="s">
         <v>14</v>
       </c>
@@ -1051,7 +1096,7 @@
       </c>
     </row>
     <row r="23" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="12"/>
+      <c r="A23" s="27"/>
       <c r="B23" s="6" t="s">
         <v>15</v>
       </c>
@@ -1069,7 +1114,7 @@
       </c>
     </row>
     <row r="24" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="12"/>
+      <c r="A24" s="27"/>
       <c r="B24" s="6" t="s">
         <v>16</v>
       </c>
@@ -1090,7 +1135,7 @@
       </c>
     </row>
     <row r="25" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="13"/>
+      <c r="A25" s="28"/>
       <c r="B25" s="7" t="s">
         <v>17</v>
       </c>
@@ -1108,7 +1153,7 @@
       </c>
     </row>
     <row r="26" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="11" t="s">
+      <c r="A26" s="26" t="s">
         <v>9</v>
       </c>
       <c r="B26" s="6" t="s">
@@ -1128,7 +1173,7 @@
       </c>
     </row>
     <row r="27" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="12"/>
+      <c r="A27" s="27"/>
       <c r="B27" s="6" t="s">
         <v>13</v>
       </c>
@@ -1146,7 +1191,7 @@
       </c>
     </row>
     <row r="28" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="12"/>
+      <c r="A28" s="27"/>
       <c r="B28" s="6" t="s">
         <v>14</v>
       </c>
@@ -1164,7 +1209,7 @@
       </c>
     </row>
     <row r="29" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="12"/>
+      <c r="A29" s="27"/>
       <c r="B29" s="6" t="s">
         <v>15</v>
       </c>
@@ -1182,7 +1227,7 @@
       </c>
     </row>
     <row r="30" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="12"/>
+      <c r="A30" s="27"/>
       <c r="B30" s="6" t="s">
         <v>16</v>
       </c>
@@ -1200,7 +1245,7 @@
       </c>
     </row>
     <row r="31" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="13"/>
+      <c r="A31" s="28"/>
       <c r="B31" s="7" t="s">
         <v>17</v>
       </c>
@@ -1218,7 +1263,7 @@
       </c>
     </row>
     <row r="32" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="11" t="s">
+      <c r="A32" s="26" t="s">
         <v>10</v>
       </c>
       <c r="B32" s="6" t="s">
@@ -1238,7 +1283,7 @@
       </c>
     </row>
     <row r="33" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="12"/>
+      <c r="A33" s="27"/>
       <c r="B33" s="6" t="s">
         <v>13</v>
       </c>
@@ -1256,7 +1301,7 @@
       </c>
     </row>
     <row r="34" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="12"/>
+      <c r="A34" s="27"/>
       <c r="B34" s="6" t="s">
         <v>14</v>
       </c>
@@ -1277,7 +1322,7 @@
       </c>
     </row>
     <row r="35" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="12"/>
+      <c r="A35" s="27"/>
       <c r="B35" s="6" t="s">
         <v>15</v>
       </c>
@@ -1295,7 +1340,7 @@
       </c>
     </row>
     <row r="36" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="12"/>
+      <c r="A36" s="27"/>
       <c r="B36" s="6" t="s">
         <v>16</v>
       </c>
@@ -1313,7 +1358,7 @@
       </c>
     </row>
     <row r="37" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="13"/>
+      <c r="A37" s="28"/>
       <c r="B37" s="7" t="s">
         <v>17</v>
       </c>
@@ -1331,7 +1376,7 @@
       </c>
     </row>
     <row r="38" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="11" t="s">
+      <c r="A38" s="26" t="s">
         <v>11</v>
       </c>
       <c r="B38" s="6" t="s">
@@ -1351,7 +1396,7 @@
       </c>
     </row>
     <row r="39" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="12"/>
+      <c r="A39" s="27"/>
       <c r="B39" s="6" t="s">
         <v>13</v>
       </c>
@@ -1369,7 +1414,7 @@
       </c>
     </row>
     <row r="40" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="12"/>
+      <c r="A40" s="27"/>
       <c r="B40" s="6" t="s">
         <v>14</v>
       </c>
@@ -1387,7 +1432,7 @@
       </c>
     </row>
     <row r="41" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="12"/>
+      <c r="A41" s="27"/>
       <c r="B41" s="6" t="s">
         <v>15</v>
       </c>
@@ -1405,7 +1450,7 @@
       </c>
     </row>
     <row r="42" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="12"/>
+      <c r="A42" s="27"/>
       <c r="B42" s="6" t="s">
         <v>16</v>
       </c>
@@ -1423,7 +1468,7 @@
       </c>
     </row>
     <row r="43" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="13"/>
+      <c r="A43" s="28"/>
       <c r="B43" s="7" t="s">
         <v>17</v>
       </c>
@@ -1440,17 +1485,99 @@
         <v>0.32400000000000001</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A44" s="4"/>
-      <c r="B44" s="4"/>
-    </row>
-    <row r="45" spans="1:10" ht="157.80000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="56" ht="157.80000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="44" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="B44" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="C44" s="36">
+        <v>0.91279999999999994</v>
+      </c>
+      <c r="D44" s="37"/>
+      <c r="E44" s="37"/>
+      <c r="F44" s="36">
+        <v>0.80720000000000003</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="42"/>
+      <c r="B45" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="C45" s="39">
+        <v>0.90710000000000002</v>
+      </c>
+      <c r="D45" s="40"/>
+      <c r="E45" s="40"/>
+      <c r="F45" s="39">
+        <v>0.82720000000000005</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="42"/>
+      <c r="B46" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="C46" s="39">
+        <v>0.872</v>
+      </c>
+      <c r="D46" s="40"/>
+      <c r="E46" s="40"/>
+      <c r="F46" s="39">
+        <v>0.86260000000000003</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="42"/>
+      <c r="B47" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="C47" s="39">
+        <v>0.88700000000000001</v>
+      </c>
+      <c r="D47" s="40"/>
+      <c r="E47" s="40"/>
+      <c r="F47" s="39">
+        <v>0.84419999999999995</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="42"/>
+      <c r="B48" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="C48" s="40">
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="D48" s="40"/>
+      <c r="E48" s="40"/>
+      <c r="F48" s="40">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="43"/>
+      <c r="B49" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="C49" s="40">
+        <v>0.81599999999999995</v>
+      </c>
+      <c r="D49" s="40"/>
+      <c r="E49" s="40"/>
+      <c r="F49" s="40">
+        <v>0.59199999999999997</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="157.80000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="67" ht="157.80000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="78" ht="157.80000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="89" ht="157.80000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="A44:A49"/>
     <mergeCell ref="A38:A43"/>
     <mergeCell ref="A2:A7"/>
     <mergeCell ref="A8:A13"/>
@@ -1468,8 +1595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N89"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1479,854 +1606,854 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="102.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="15" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="24">
+      <c r="C2" s="17">
         <v>0.61250000000000004</v>
       </c>
-      <c r="D2" s="25">
+      <c r="D2" s="18">
         <v>0.68200000000000005</v>
       </c>
-      <c r="E2" s="25">
+      <c r="E2" s="18">
         <v>0.63339999999999996</v>
       </c>
-      <c r="F2" s="25">
+      <c r="F2" s="18">
         <v>0.67159999999999997</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="26"/>
-      <c r="B3" s="23" t="s">
+      <c r="A3" s="33"/>
+      <c r="B3" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="24">
+      <c r="C3" s="17">
         <v>0.64400000000000002</v>
       </c>
-      <c r="D3" s="25">
+      <c r="D3" s="18">
         <v>0.71599999999999997</v>
       </c>
-      <c r="E3" s="25">
+      <c r="E3" s="18">
         <v>0.66669999999999996</v>
       </c>
-      <c r="F3" s="25">
+      <c r="F3" s="18">
         <v>0.69189999999999996</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="26"/>
-      <c r="B4" s="23" t="s">
+      <c r="A4" s="33"/>
+      <c r="B4" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="24">
+      <c r="C4" s="17">
         <v>0.60389999999999999</v>
       </c>
-      <c r="D4" s="25">
+      <c r="D4" s="18">
         <v>0.66449999999999998</v>
       </c>
-      <c r="E4" s="25">
+      <c r="E4" s="18">
         <v>0.61870000000000003</v>
       </c>
-      <c r="F4" s="25">
+      <c r="F4" s="18">
         <v>0.68740000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="26"/>
-      <c r="B5" s="23" t="s">
+      <c r="A5" s="33"/>
+      <c r="B5" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="24">
+      <c r="C5" s="17">
         <v>0.62329999999999997</v>
       </c>
-      <c r="D5" s="25">
+      <c r="D5" s="18">
         <v>0.68930000000000002</v>
       </c>
-      <c r="E5" s="25">
+      <c r="E5" s="18">
         <v>0.64180000000000004</v>
       </c>
-      <c r="F5" s="25">
+      <c r="F5" s="18">
         <v>0.68969999999999998</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="26"/>
-      <c r="B6" s="23" t="s">
+      <c r="A6" s="33"/>
+      <c r="B6" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="27">
+      <c r="C6" s="19">
         <v>0.5</v>
       </c>
-      <c r="D6" s="28">
+      <c r="D6" s="20">
         <v>0.5</v>
       </c>
-      <c r="E6" s="28">
+      <c r="E6" s="20">
         <v>0.5</v>
       </c>
-      <c r="F6" s="28">
+      <c r="F6" s="20">
         <v>0.3</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="29"/>
-      <c r="B7" s="30" t="s">
+      <c r="A7" s="34"/>
+      <c r="B7" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="27">
+      <c r="C7" s="19">
         <v>0.22500000000000001</v>
       </c>
-      <c r="D7" s="28">
+      <c r="D7" s="20">
         <v>0.36499999999999999</v>
       </c>
-      <c r="E7" s="28">
+      <c r="E7" s="20">
         <v>0.26700000000000002</v>
       </c>
-      <c r="F7" s="28">
+      <c r="F7" s="20">
         <v>0.34100000000000003</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="31">
+      <c r="C8" s="22">
         <v>0.62290000000000001</v>
       </c>
-      <c r="D8" s="32">
+      <c r="D8" s="23">
         <v>0.71419999999999995</v>
       </c>
-      <c r="E8" s="32">
+      <c r="E8" s="23">
         <v>0.64470000000000005</v>
       </c>
-      <c r="F8" s="32">
+      <c r="F8" s="23">
         <v>0.64639999999999997</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="26"/>
-      <c r="B9" s="23" t="s">
+      <c r="A9" s="33"/>
+      <c r="B9" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="31">
+      <c r="C9" s="22">
         <v>0.6583</v>
       </c>
-      <c r="D9" s="32">
+      <c r="D9" s="23">
         <v>0.75090000000000001</v>
       </c>
-      <c r="E9" s="32">
+      <c r="E9" s="23">
         <v>0.68230000000000002</v>
       </c>
-      <c r="F9" s="32">
+      <c r="F9" s="23">
         <v>0.67589999999999995</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="26"/>
-      <c r="B10" s="23" t="s">
+      <c r="A10" s="33"/>
+      <c r="B10" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="31">
+      <c r="C10" s="22">
         <v>0.60229999999999995</v>
       </c>
-      <c r="D10" s="32">
+      <c r="D10" s="23">
         <v>0.69069999999999998</v>
       </c>
-      <c r="E10" s="32">
+      <c r="E10" s="23">
         <v>0.61870000000000003</v>
       </c>
-      <c r="F10" s="32">
+      <c r="F10" s="23">
         <v>0.64159999999999995</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="26"/>
-      <c r="B11" s="23" t="s">
+      <c r="A11" s="33"/>
+      <c r="B11" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="31">
+      <c r="C11" s="22">
         <v>0.62909999999999999</v>
       </c>
-      <c r="D11" s="32">
+      <c r="D11" s="23">
         <v>0.71950000000000003</v>
       </c>
-      <c r="E11" s="32">
+      <c r="E11" s="23">
         <v>0.64890000000000003</v>
       </c>
-      <c r="F11" s="32">
+      <c r="F11" s="23">
         <v>0.6583</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="26"/>
-      <c r="B12" s="23" t="s">
+      <c r="A12" s="33"/>
+      <c r="B12" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="33">
+      <c r="C12" s="24">
         <v>0.66</v>
       </c>
-      <c r="D12" s="34">
+      <c r="D12" s="25">
         <v>0.73599999999999999</v>
       </c>
-      <c r="E12" s="34">
+      <c r="E12" s="25">
         <v>0.67500000000000004</v>
       </c>
-      <c r="F12" s="34">
+      <c r="F12" s="25">
         <v>0.68400000000000005</v>
       </c>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
     </row>
     <row r="13" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="29"/>
-      <c r="B13" s="30" t="s">
+      <c r="A13" s="34"/>
+      <c r="B13" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="33">
+      <c r="C13" s="24">
         <v>0.247</v>
       </c>
-      <c r="D13" s="34">
+      <c r="D13" s="25">
         <v>0.42899999999999999</v>
       </c>
-      <c r="E13" s="34">
+      <c r="E13" s="25">
         <v>0.29099999999999998</v>
       </c>
-      <c r="F13" s="34">
+      <c r="F13" s="25">
         <v>0.29199999999999998</v>
       </c>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17" t="s">
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
     </row>
     <row r="14" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="31">
+      <c r="C14" s="22">
         <v>0.63160000000000005</v>
       </c>
-      <c r="D14" s="32">
+      <c r="D14" s="23">
         <v>0.72199999999999998</v>
       </c>
-      <c r="E14" s="32">
+      <c r="E14" s="23">
         <v>0.66200000000000003</v>
       </c>
-      <c r="F14" s="32">
+      <c r="F14" s="23">
         <v>0.65680000000000005</v>
       </c>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
     </row>
     <row r="15" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="26"/>
-      <c r="B15" s="23" t="s">
+      <c r="A15" s="33"/>
+      <c r="B15" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="31">
+      <c r="C15" s="22">
         <v>0.66910000000000003</v>
       </c>
-      <c r="D15" s="32">
+      <c r="D15" s="23">
         <v>0.76890000000000003</v>
       </c>
-      <c r="E15" s="32">
+      <c r="E15" s="23">
         <v>0.70479999999999998</v>
       </c>
-      <c r="F15" s="32">
+      <c r="F15" s="23">
         <v>0.69220000000000004</v>
       </c>
-      <c r="M15" s="17"/>
-      <c r="N15" s="17"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
     </row>
     <row r="16" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="26"/>
-      <c r="B16" s="23" t="s">
+      <c r="A16" s="33"/>
+      <c r="B16" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="31">
+      <c r="C16" s="22">
         <v>0.60560000000000003</v>
       </c>
-      <c r="D16" s="32">
+      <c r="D16" s="23">
         <v>0.68089999999999995</v>
       </c>
-      <c r="E16" s="32">
+      <c r="E16" s="23">
         <v>0.62519999999999998</v>
       </c>
-      <c r="F16" s="32">
+      <c r="F16" s="23">
         <v>0.63670000000000004</v>
       </c>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
     </row>
     <row r="17" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="26"/>
-      <c r="B17" s="23" t="s">
+      <c r="A17" s="33"/>
+      <c r="B17" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="31">
+      <c r="C17" s="22">
         <v>0.63570000000000004</v>
       </c>
-      <c r="D17" s="32">
+      <c r="D17" s="23">
         <v>0.72219999999999995</v>
       </c>
-      <c r="E17" s="32">
+      <c r="E17" s="23">
         <v>0.66259999999999997</v>
       </c>
-      <c r="F17" s="32">
+      <c r="F17" s="23">
         <v>0.6633</v>
       </c>
-      <c r="M17" s="17"/>
-      <c r="N17" s="17"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
     </row>
     <row r="18" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="26"/>
-      <c r="B18" s="23" t="s">
+      <c r="A18" s="33"/>
+      <c r="B18" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="33">
+      <c r="C18" s="24">
         <v>0.68</v>
       </c>
-      <c r="D18" s="34">
+      <c r="D18" s="25">
         <v>0.77100000000000002</v>
       </c>
-      <c r="E18" s="34">
+      <c r="E18" s="25">
         <v>0.70299999999999996</v>
       </c>
-      <c r="F18" s="34">
+      <c r="F18" s="25">
         <v>0.71299999999999997</v>
       </c>
-      <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
     </row>
     <row r="19" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="29"/>
-      <c r="B19" s="30" t="s">
+      <c r="A19" s="34"/>
+      <c r="B19" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="33">
+      <c r="C19" s="24">
         <v>0.26500000000000001</v>
       </c>
-      <c r="D19" s="34">
+      <c r="D19" s="25">
         <v>0.44600000000000001</v>
       </c>
-      <c r="E19" s="34">
+      <c r="E19" s="25">
         <v>0.32600000000000001</v>
       </c>
-      <c r="F19" s="34">
+      <c r="F19" s="25">
         <v>0.315</v>
       </c>
-      <c r="M19" s="18"/>
-      <c r="N19" s="17"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="11"/>
     </row>
     <row r="20" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="22" t="s">
+      <c r="A20" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="23" t="s">
+      <c r="B20" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="31">
+      <c r="C20" s="22">
         <v>0.64729999999999999</v>
       </c>
-      <c r="D20" s="32">
+      <c r="D20" s="23">
         <v>0.70889999999999997</v>
       </c>
-      <c r="E20" s="32">
+      <c r="E20" s="23">
         <v>0.68030000000000002</v>
       </c>
-      <c r="F20" s="32">
+      <c r="F20" s="23">
         <v>0.67330000000000001</v>
       </c>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
     </row>
     <row r="21" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="26"/>
-      <c r="B21" s="23" t="s">
+      <c r="A21" s="33"/>
+      <c r="B21" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="31">
+      <c r="C21" s="22">
         <v>0.68600000000000005</v>
       </c>
-      <c r="D21" s="32">
+      <c r="D21" s="23">
         <v>0.75749999999999995</v>
       </c>
-      <c r="E21" s="32">
+      <c r="E21" s="23">
         <v>0.71970000000000001</v>
       </c>
-      <c r="F21" s="32">
+      <c r="F21" s="23">
         <v>0.71099999999999997</v>
       </c>
-      <c r="H21" s="17"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="17"/>
-      <c r="L21" s="17"/>
-      <c r="M21" s="17"/>
-      <c r="N21" s="17"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
     </row>
     <row r="22" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="26"/>
-      <c r="B22" s="23" t="s">
+      <c r="A22" s="33"/>
+      <c r="B22" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="31">
+      <c r="C22" s="22">
         <v>0.61870000000000003</v>
       </c>
-      <c r="D22" s="32">
+      <c r="D22" s="23">
         <v>0.66449999999999998</v>
       </c>
-      <c r="E22" s="32">
+      <c r="E22" s="23">
         <v>0.65139999999999998</v>
       </c>
-      <c r="F22" s="32">
+      <c r="F22" s="23">
         <v>0.64810000000000001</v>
       </c>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17" t="s">
+      <c r="H22" s="11"/>
+      <c r="I22" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="J22" s="17"/>
-      <c r="K22" s="17"/>
-      <c r="L22" s="17"/>
-      <c r="M22" s="17"/>
-      <c r="N22" s="17"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
     </row>
     <row r="23" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="26"/>
-      <c r="B23" s="23" t="s">
+      <c r="A23" s="33"/>
+      <c r="B23" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="31">
+      <c r="C23" s="22">
         <v>0.65059999999999996</v>
       </c>
-      <c r="D23" s="32">
+      <c r="D23" s="23">
         <v>0.70789999999999997</v>
       </c>
-      <c r="E23" s="32">
+      <c r="E23" s="23">
         <v>0.68379999999999996</v>
       </c>
-      <c r="F23" s="32">
+      <c r="F23" s="23">
         <v>0.67810000000000004</v>
       </c>
-      <c r="H23" s="17"/>
-      <c r="M23" s="17"/>
-      <c r="N23" s="17"/>
+      <c r="H23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
     </row>
     <row r="24" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="26"/>
-      <c r="B24" s="23" t="s">
+      <c r="A24" s="33"/>
+      <c r="B24" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="33">
+      <c r="C24" s="24">
         <v>0.69399999999999995</v>
       </c>
-      <c r="D24" s="34">
+      <c r="D24" s="25">
         <v>0.76100000000000001</v>
       </c>
-      <c r="E24" s="34">
+      <c r="E24" s="25">
         <v>0.71699999999999997</v>
       </c>
-      <c r="F24" s="34">
+      <c r="F24" s="25">
         <v>0.72499999999999998</v>
       </c>
-      <c r="H24" s="17"/>
-      <c r="M24" s="17"/>
-      <c r="N24" s="17"/>
+      <c r="H24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
     </row>
     <row r="25" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="29"/>
-      <c r="B25" s="30" t="s">
+      <c r="A25" s="34"/>
+      <c r="B25" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="33">
+      <c r="C25" s="24">
         <v>0.29599999999999999</v>
       </c>
-      <c r="D25" s="34">
+      <c r="D25" s="25">
         <v>0.42</v>
       </c>
-      <c r="E25" s="34">
+      <c r="E25" s="25">
         <v>0.36199999999999999</v>
       </c>
-      <c r="F25" s="34">
+      <c r="F25" s="25">
         <v>0.34799999999999998</v>
       </c>
-      <c r="H25" s="17"/>
+      <c r="H25" s="11"/>
       <c r="I25" t="s">
         <v>20</v>
       </c>
-      <c r="M25" s="17"/>
-      <c r="N25" s="17"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
     </row>
     <row r="26" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="22" t="s">
+      <c r="A26" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="B26" s="23" t="s">
+      <c r="B26" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C26" s="31">
+      <c r="C26" s="22">
         <v>0.63939999999999997</v>
       </c>
-      <c r="D26" s="32">
+      <c r="D26" s="23">
         <v>0.70889999999999997</v>
       </c>
-      <c r="E26" s="32">
+      <c r="E26" s="23">
         <v>0.65939999999999999</v>
       </c>
-      <c r="F26" s="32">
+      <c r="F26" s="23">
         <v>0.68200000000000005</v>
       </c>
-      <c r="H26" s="17"/>
-      <c r="M26" s="17"/>
-      <c r="N26" s="17"/>
+      <c r="H26" s="11"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="11"/>
     </row>
     <row r="27" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="26"/>
-      <c r="B27" s="23" t="s">
+      <c r="A27" s="33"/>
+      <c r="B27" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C27" s="31">
+      <c r="C27" s="22">
         <v>0.67879999999999996</v>
       </c>
-      <c r="D27" s="32">
+      <c r="D27" s="23">
         <v>0.76849999999999996</v>
       </c>
-      <c r="E27" s="32">
+      <c r="E27" s="23">
         <v>0.70020000000000004</v>
       </c>
-      <c r="F27" s="32">
+      <c r="F27" s="23">
         <v>0.72150000000000003</v>
       </c>
-      <c r="H27" s="17"/>
-      <c r="M27" s="17"/>
-      <c r="N27" s="17"/>
+      <c r="H27" s="11"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="11"/>
     </row>
     <row r="28" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="26"/>
-      <c r="B28" s="23" t="s">
+      <c r="A28" s="33"/>
+      <c r="B28" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C28" s="31">
+      <c r="C28" s="22">
         <v>0.60880000000000001</v>
       </c>
-      <c r="D28" s="32">
+      <c r="D28" s="23">
         <v>0.64649999999999996</v>
       </c>
-      <c r="E28" s="32">
+      <c r="E28" s="23">
         <v>0.62680000000000002</v>
       </c>
-      <c r="F28" s="32">
+      <c r="F28" s="23">
         <v>0.65200000000000002</v>
       </c>
-      <c r="H28" s="17"/>
-      <c r="M28" s="17"/>
-      <c r="N28" s="17"/>
+      <c r="H28" s="11"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="11"/>
     </row>
     <row r="29" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="26"/>
-      <c r="B29" s="23" t="s">
+      <c r="A29" s="33"/>
+      <c r="B29" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C29" s="31">
+      <c r="C29" s="22">
         <v>0.64190000000000003</v>
       </c>
-      <c r="D29" s="32">
+      <c r="D29" s="23">
         <v>0.70220000000000005</v>
       </c>
-      <c r="E29" s="32">
+      <c r="E29" s="23">
         <v>0.66149999999999998</v>
       </c>
-      <c r="F29" s="32">
+      <c r="F29" s="23">
         <v>0.68559999999999999</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="26"/>
-      <c r="B30" s="23" t="s">
+      <c r="A30" s="33"/>
+      <c r="B30" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C30" s="33">
+      <c r="C30" s="24">
         <v>0.69599999999999995</v>
       </c>
-      <c r="D30" s="34">
+      <c r="D30" s="25">
         <v>0.76700000000000002</v>
       </c>
-      <c r="E30" s="34">
+      <c r="E30" s="25">
         <v>0.70799999999999996</v>
       </c>
-      <c r="F30" s="34">
+      <c r="F30" s="25">
         <v>0.73099999999999998</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="29"/>
-      <c r="B31" s="30" t="s">
+      <c r="A31" s="34"/>
+      <c r="B31" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C31" s="33">
+      <c r="C31" s="24">
         <v>0.28100000000000003</v>
       </c>
-      <c r="D31" s="34">
+      <c r="D31" s="25">
         <v>0.42199999999999999</v>
       </c>
-      <c r="E31" s="34">
+      <c r="E31" s="25">
         <v>0.32100000000000001</v>
       </c>
-      <c r="F31" s="34">
+      <c r="F31" s="25">
         <v>0.36599999999999999</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="22" t="s">
+      <c r="A32" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="B32" s="23" t="s">
+      <c r="B32" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C32" s="31">
+      <c r="C32" s="22">
         <v>0.53690000000000004</v>
       </c>
-      <c r="D32" s="32">
+      <c r="D32" s="23">
         <v>0.54390000000000005</v>
       </c>
-      <c r="E32" s="32">
+      <c r="E32" s="23">
         <v>0.54390000000000005</v>
       </c>
-      <c r="F32" s="32">
+      <c r="F32" s="23">
         <v>0.53259999999999996</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="26"/>
-      <c r="B33" s="23" t="s">
+      <c r="A33" s="33"/>
+      <c r="B33" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C33" s="31">
+      <c r="C33" s="22">
         <v>0.56269999999999998</v>
       </c>
-      <c r="D33" s="32">
+      <c r="D33" s="23">
         <v>0.53800000000000003</v>
       </c>
-      <c r="E33" s="32">
+      <c r="E33" s="23">
         <v>0.58240000000000003</v>
       </c>
-      <c r="F33" s="32">
+      <c r="F33" s="23">
         <v>0.53539999999999999</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="26"/>
-      <c r="B34" s="23" t="s">
+      <c r="A34" s="33"/>
+      <c r="B34" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C34" s="31">
+      <c r="C34" s="22">
         <v>0.57279999999999998</v>
       </c>
-      <c r="D34" s="32">
+      <c r="D34" s="23">
         <v>0.99670000000000003</v>
       </c>
-      <c r="E34" s="32">
+      <c r="E34" s="23">
         <v>0.4975</v>
       </c>
-      <c r="F34" s="32">
+      <c r="F34" s="23">
         <v>0.90339999999999998</v>
       </c>
       <c r="J34" s="3"/>
     </row>
     <row r="35" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="26"/>
-      <c r="B35" s="23" t="s">
+      <c r="A35" s="33"/>
+      <c r="B35" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C35" s="31">
+      <c r="C35" s="22">
         <v>0.56769999999999998</v>
       </c>
-      <c r="D35" s="32">
+      <c r="D35" s="23">
         <v>0.69879999999999998</v>
       </c>
-      <c r="E35" s="32">
+      <c r="E35" s="23">
         <v>0.53659999999999997</v>
       </c>
-      <c r="F35" s="32">
+      <c r="F35" s="23">
         <v>0.67230000000000001</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="26"/>
-      <c r="B36" s="23" t="s">
+      <c r="A36" s="33"/>
+      <c r="B36" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C36" s="33">
+      <c r="C36" s="24">
         <v>0.54900000000000004</v>
       </c>
-      <c r="D36" s="34">
+      <c r="D36" s="25">
         <v>0.54800000000000004</v>
       </c>
-      <c r="E36" s="34">
+      <c r="E36" s="25">
         <v>0.56499999999999995</v>
       </c>
-      <c r="F36" s="34">
+      <c r="F36" s="25">
         <v>0.52900000000000003</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="29"/>
-      <c r="B37" s="30" t="s">
+      <c r="A37" s="34"/>
+      <c r="B37" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C37" s="33">
+      <c r="C37" s="24">
         <v>6.9000000000000006E-2</v>
       </c>
-      <c r="D37" s="34">
+      <c r="D37" s="25">
         <v>0.03</v>
       </c>
-      <c r="E37" s="34">
+      <c r="E37" s="25">
         <v>9.2999999999999999E-2</v>
       </c>
-      <c r="F37" s="34">
+      <c r="F37" s="25">
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="22" t="s">
+      <c r="A38" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="B38" s="23" t="s">
+      <c r="B38" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C38" s="31">
+      <c r="C38" s="22">
         <v>0.60299999999999998</v>
       </c>
-      <c r="D38" s="32">
+      <c r="D38" s="23">
         <v>0.65680000000000005</v>
       </c>
-      <c r="E38" s="32">
+      <c r="E38" s="23">
         <v>0.65069999999999995</v>
       </c>
-      <c r="F38" s="32">
+      <c r="F38" s="23">
         <v>0.59770000000000001</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="26"/>
-      <c r="B39" s="23" t="s">
+      <c r="A39" s="33"/>
+      <c r="B39" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C39" s="31">
+      <c r="C39" s="22">
         <v>0.81559999999999999</v>
       </c>
-      <c r="D39" s="32">
+      <c r="D39" s="23">
         <v>0.73280000000000001</v>
       </c>
-      <c r="E39" s="32">
+      <c r="E39" s="23">
         <v>0.74590000000000001</v>
       </c>
-      <c r="F39" s="32">
+      <c r="F39" s="23">
         <v>0.64449999999999996</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="26"/>
-      <c r="B40" s="23" t="s">
+      <c r="A40" s="33"/>
+      <c r="B40" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C40" s="31">
+      <c r="C40" s="22">
         <v>0.32569999999999999</v>
       </c>
-      <c r="D40" s="32">
+      <c r="D40" s="23">
         <v>0.55649999999999999</v>
       </c>
-      <c r="E40" s="32">
+      <c r="E40" s="23">
         <v>0.51880000000000004</v>
       </c>
-      <c r="F40" s="32">
+      <c r="F40" s="23">
         <v>0.54010000000000002</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="26"/>
-      <c r="B41" s="23" t="s">
+      <c r="A41" s="33"/>
+      <c r="B41" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C41" s="31">
+      <c r="C41" s="22">
         <v>0.46550000000000002</v>
       </c>
-      <c r="D41" s="32">
+      <c r="D41" s="23">
         <v>0.63260000000000005</v>
       </c>
-      <c r="E41" s="32">
+      <c r="E41" s="23">
         <v>0.61199999999999999</v>
       </c>
-      <c r="F41" s="32">
+      <c r="F41" s="23">
         <v>0.5877</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="26"/>
-      <c r="B42" s="23" t="s">
+      <c r="A42" s="33"/>
+      <c r="B42" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C42" s="33">
+      <c r="C42" s="24">
         <v>0.68899999999999995</v>
       </c>
-      <c r="D42" s="34">
+      <c r="D42" s="25">
         <v>0.67800000000000005</v>
       </c>
-      <c r="E42" s="34">
+      <c r="E42" s="25">
         <v>0.7</v>
       </c>
-      <c r="F42" s="34">
+      <c r="F42" s="25">
         <v>0.65200000000000002</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="29"/>
-      <c r="B43" s="30" t="s">
+      <c r="A43" s="34"/>
+      <c r="B43" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C43" s="33">
+      <c r="C43" s="24">
         <v>0.23300000000000001</v>
       </c>
-      <c r="D43" s="34">
+      <c r="D43" s="25">
         <v>0.32200000000000001</v>
       </c>
-      <c r="E43" s="34">
+      <c r="E43" s="25">
         <v>0.313</v>
       </c>
-      <c r="F43" s="34">
+      <c r="F43" s="25">
         <v>0.20100000000000001</v>
       </c>
     </row>

--- a/MACLRN Final Output/MS1.xlsx
+++ b/MACLRN Final Output/MS1.xlsx
@@ -9,11 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6036" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Spambase" sheetId="1" r:id="rId1"/>
-    <sheet name="Diabetes" sheetId="2" r:id="rId2"/>
+    <sheet name="Spambase MS Results" sheetId="3" r:id="rId2"/>
+    <sheet name="Diabetes" sheetId="2" r:id="rId3"/>
+    <sheet name="Diabetes MS1 Results" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="30">
   <si>
     <t>Classifier</t>
   </si>
@@ -92,12 +94,36 @@
   <si>
     <t>MLP (Training Cycles= 10)</t>
   </si>
+  <si>
+    <t>MLP (Training Cycles = 10)</t>
+  </si>
+  <si>
+    <t>SVM</t>
+  </si>
+  <si>
+    <t>CFS</t>
+  </si>
+  <si>
+    <t>Forward</t>
+  </si>
+  <si>
+    <t>Backward</t>
+  </si>
+  <si>
+    <t>PCA</t>
+  </si>
+  <si>
+    <t>Performance Measures</t>
+  </si>
+  <si>
+    <t> Performance Measures</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -143,6 +169,40 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -158,7 +218,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -251,11 +311,52 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -288,9 +389,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -330,6 +428,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -357,32 +482,125 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -664,19 +882,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M89"/>
+  <dimension ref="A1:V89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44:F49"/>
+    <sheetView topLeftCell="C40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="V50" sqref="V50:V55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="28.109375" customWidth="1"/>
     <col min="2" max="2" width="9.5546875" customWidth="1"/>
+    <col min="9" max="9" width="8.88671875" customWidth="1"/>
+    <col min="10" max="10" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="102.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:22" ht="198.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -693,9 +913,33 @@
       <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="26" t="s">
+      <c r="I1" s="1"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="Q1" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="R1" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="S1" s="58" t="s">
+        <v>1</v>
+      </c>
+      <c r="T1" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="U1" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="V1" s="58" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="34" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -713,9 +957,32 @@
       <c r="F2" s="5">
         <v>72.09</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="27"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="Q2" s="63" t="s">
+        <v>5</v>
+      </c>
+      <c r="R2" s="59" t="s">
+        <v>12</v>
+      </c>
+      <c r="S2" s="60">
+        <v>0.90310000000000001</v>
+      </c>
+      <c r="T2" s="60">
+        <v>0.89570000000000005</v>
+      </c>
+      <c r="U2" s="60">
+        <v>0.91090000000000004</v>
+      </c>
+      <c r="V2" s="60">
+        <v>0.72089999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="35"/>
       <c r="B3" s="6" t="s">
         <v>13</v>
       </c>
@@ -731,9 +998,30 @@
       <c r="F3" s="3">
         <v>0.86029999999999995</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="27"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="Q3" s="62"/>
+      <c r="R3" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="S3" s="60">
+        <v>0.91920000000000002</v>
+      </c>
+      <c r="T3" s="60">
+        <v>0.93010000000000004</v>
+      </c>
+      <c r="U3" s="60">
+        <v>0.92659999999999998</v>
+      </c>
+      <c r="V3" s="60">
+        <v>0.86029999999999995</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="35"/>
       <c r="B4" s="6" t="s">
         <v>14</v>
       </c>
@@ -749,9 +1037,30 @@
       <c r="F4" s="3">
         <v>0.64419999999999999</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="27"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="Q4" s="62"/>
+      <c r="R4" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="S4" s="60">
+        <v>0.9214</v>
+      </c>
+      <c r="T4" s="60">
+        <v>0.89529999999999998</v>
+      </c>
+      <c r="U4" s="60">
+        <v>0.92649999999999999</v>
+      </c>
+      <c r="V4" s="60">
+        <v>0.64419999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="35"/>
       <c r="B5" s="6" t="s">
         <v>15</v>
       </c>
@@ -767,9 +1076,30 @@
       <c r="F5" s="3">
         <v>0.73660000000000003</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="27"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="Q5" s="62"/>
+      <c r="R5" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="S5" s="60">
+        <v>0.92020000000000002</v>
+      </c>
+      <c r="T5" s="60">
+        <v>0.91220000000000001</v>
+      </c>
+      <c r="U5" s="60">
+        <v>0.9264</v>
+      </c>
+      <c r="V5" s="60">
+        <v>0.73660000000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="35"/>
       <c r="B6" s="6" t="s">
         <v>16</v>
       </c>
@@ -785,9 +1115,30 @@
       <c r="F6" s="5">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="28"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="Q6" s="62"/>
+      <c r="R6" s="59" t="s">
+        <v>16</v>
+      </c>
+      <c r="S6" s="61">
+        <v>0.5</v>
+      </c>
+      <c r="T6" s="61">
+        <v>0.5</v>
+      </c>
+      <c r="U6" s="61">
+        <v>0.5</v>
+      </c>
+      <c r="V6" s="61">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="36"/>
       <c r="B7" s="7" t="s">
         <v>17</v>
       </c>
@@ -803,9 +1154,30 @@
       <c r="F7" s="5">
         <v>0.45300000000000001</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="26" t="s">
+      <c r="I7" s="36"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="Q7" s="64"/>
+      <c r="R7" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="S7" s="61">
+        <v>0.79700000000000004</v>
+      </c>
+      <c r="T7" s="61">
+        <v>0.78400000000000003</v>
+      </c>
+      <c r="U7" s="61">
+        <v>0.81299999999999994</v>
+      </c>
+      <c r="V7" s="61">
+        <v>0.45300000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="34" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="6" t="s">
@@ -823,9 +1195,27 @@
       <c r="F8" s="5">
         <v>71.849999999999994</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="27"/>
+      <c r="Q8" s="65" t="s">
+        <v>6</v>
+      </c>
+      <c r="R8" s="59" t="s">
+        <v>12</v>
+      </c>
+      <c r="S8" s="60">
+        <v>0.90349999999999997</v>
+      </c>
+      <c r="T8" s="60">
+        <v>0.91920000000000002</v>
+      </c>
+      <c r="U8" s="60">
+        <v>0.9133</v>
+      </c>
+      <c r="V8" s="60">
+        <v>0.71850000000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="35"/>
       <c r="B9" s="6" t="s">
         <v>13</v>
       </c>
@@ -841,9 +1231,25 @@
       <c r="F9" s="3">
         <v>0.85140000000000005</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="27"/>
+      <c r="Q9" s="62"/>
+      <c r="R9" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="S9" s="60">
+        <v>0.91149999999999998</v>
+      </c>
+      <c r="T9" s="60">
+        <v>0.92910000000000004</v>
+      </c>
+      <c r="U9" s="60">
+        <v>0.91910000000000003</v>
+      </c>
+      <c r="V9" s="60">
+        <v>0.85140000000000005</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="35"/>
       <c r="B10" s="6" t="s">
         <v>14</v>
       </c>
@@ -859,9 +1265,25 @@
       <c r="F10" s="3">
         <v>0.64890000000000003</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="27"/>
+      <c r="Q10" s="62"/>
+      <c r="R10" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="S10" s="60">
+        <v>0.93149999999999999</v>
+      </c>
+      <c r="T10" s="60">
+        <v>0.93830000000000002</v>
+      </c>
+      <c r="U10" s="60">
+        <v>0.93969999999999998</v>
+      </c>
+      <c r="V10" s="60">
+        <v>0.64890000000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="35"/>
       <c r="B11" s="6" t="s">
         <v>15</v>
       </c>
@@ -877,9 +1299,25 @@
       <c r="F11" s="3">
         <v>0.73629999999999995</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="27"/>
+      <c r="Q11" s="62"/>
+      <c r="R11" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="S11" s="60">
+        <v>0.92130000000000001</v>
+      </c>
+      <c r="T11" s="60">
+        <v>0.93359999999999999</v>
+      </c>
+      <c r="U11" s="60">
+        <v>0.92920000000000003</v>
+      </c>
+      <c r="V11" s="60">
+        <v>0.73629999999999995</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="35"/>
       <c r="B12" s="6" t="s">
         <v>16</v>
       </c>
@@ -895,9 +1333,25 @@
       <c r="F12" s="5">
         <v>0.75600000000000001</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="28"/>
+      <c r="Q12" s="62"/>
+      <c r="R12" s="59" t="s">
+        <v>16</v>
+      </c>
+      <c r="S12" s="61">
+        <v>0.91900000000000004</v>
+      </c>
+      <c r="T12" s="61">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="U12" s="61">
+        <v>0.91900000000000004</v>
+      </c>
+      <c r="V12" s="61">
+        <v>0.75600000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="36"/>
       <c r="B13" s="7" t="s">
         <v>17</v>
       </c>
@@ -913,9 +1367,25 @@
       <c r="F13" s="5">
         <v>0.44600000000000001</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="29" t="s">
+      <c r="Q13" s="64"/>
+      <c r="R13" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="S13" s="61">
+        <v>0.79700000000000004</v>
+      </c>
+      <c r="T13" s="61">
+        <v>0.83</v>
+      </c>
+      <c r="U13" s="61">
+        <v>0.81699999999999995</v>
+      </c>
+      <c r="V13" s="61">
+        <v>0.44600000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="37" t="s">
         <v>7</v>
       </c>
       <c r="B14" s="6" t="s">
@@ -936,9 +1406,27 @@
       <c r="H14" s="9">
         <v>92.44</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="30"/>
+      <c r="Q14" s="65" t="s">
+        <v>7</v>
+      </c>
+      <c r="R14" s="59" t="s">
+        <v>12</v>
+      </c>
+      <c r="S14" s="60">
+        <v>0.89939999999999998</v>
+      </c>
+      <c r="T14" s="60">
+        <v>0.9244</v>
+      </c>
+      <c r="U14" s="60">
+        <v>0.90869999999999995</v>
+      </c>
+      <c r="V14" s="60">
+        <v>0.72030000000000005</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="38"/>
       <c r="B15" s="6" t="s">
         <v>13</v>
       </c>
@@ -954,9 +1442,25 @@
       <c r="F15" s="3">
         <v>0.8488</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="30"/>
+      <c r="Q15" s="62"/>
+      <c r="R15" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="S15" s="60">
+        <v>0.90810000000000002</v>
+      </c>
+      <c r="T15" s="60">
+        <v>0.93420000000000003</v>
+      </c>
+      <c r="U15" s="60">
+        <v>0.91639999999999999</v>
+      </c>
+      <c r="V15" s="60">
+        <v>0.8488</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="38"/>
       <c r="B16" s="6" t="s">
         <v>14</v>
       </c>
@@ -975,9 +1479,25 @@
       <c r="J16" s="10">
         <v>0.94189999999999996</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="30"/>
+      <c r="Q16" s="62"/>
+      <c r="R16" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="S16" s="60">
+        <v>0.92830000000000001</v>
+      </c>
+      <c r="T16" s="60">
+        <v>0.94189999999999996</v>
+      </c>
+      <c r="U16" s="60">
+        <v>0.93469999999999998</v>
+      </c>
+      <c r="V16" s="60">
+        <v>0.65529999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="38"/>
       <c r="B17" s="6" t="s">
         <v>15</v>
       </c>
@@ -996,9 +1516,25 @@
       <c r="K17" s="10">
         <v>0.93789999999999996</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="30"/>
+      <c r="Q17" s="62"/>
+      <c r="R17" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="S17" s="60">
+        <v>0.91790000000000005</v>
+      </c>
+      <c r="T17" s="60">
+        <v>0.93789999999999996</v>
+      </c>
+      <c r="U17" s="60">
+        <v>0.9254</v>
+      </c>
+      <c r="V17" s="60">
+        <v>0.73929999999999996</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="38"/>
       <c r="B18" s="6" t="s">
         <v>16</v>
       </c>
@@ -1014,9 +1550,25 @@
       <c r="F18" s="5">
         <v>0.76600000000000001</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="31"/>
+      <c r="Q18" s="62"/>
+      <c r="R18" s="59" t="s">
+        <v>16</v>
+      </c>
+      <c r="S18" s="61">
+        <v>0.93600000000000005</v>
+      </c>
+      <c r="T18" s="61">
+        <v>0.94599999999999995</v>
+      </c>
+      <c r="U18" s="61">
+        <v>0.93500000000000005</v>
+      </c>
+      <c r="V18" s="61">
+        <v>0.76600000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="39"/>
       <c r="B19" s="7" t="s">
         <v>17</v>
       </c>
@@ -1035,9 +1587,25 @@
       <c r="M19" s="9">
         <v>0.84099999999999997</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="26" t="s">
+      <c r="Q19" s="64"/>
+      <c r="R19" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="S19" s="61">
+        <v>0.78800000000000003</v>
+      </c>
+      <c r="T19" s="61">
+        <v>0.84099999999999997</v>
+      </c>
+      <c r="U19" s="61">
+        <v>0.80800000000000005</v>
+      </c>
+      <c r="V19" s="61">
+        <v>0.44800000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="34" t="s">
         <v>8</v>
       </c>
       <c r="B20" s="6" t="s">
@@ -1055,9 +1623,27 @@
       <c r="F20" s="5">
         <v>71.72</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="27"/>
+      <c r="Q20" s="65" t="s">
+        <v>8</v>
+      </c>
+      <c r="R20" s="59" t="s">
+        <v>12</v>
+      </c>
+      <c r="S20" s="60">
+        <v>0.89629999999999999</v>
+      </c>
+      <c r="T20" s="60">
+        <v>0.9224</v>
+      </c>
+      <c r="U20" s="60">
+        <v>0.91369999999999996</v>
+      </c>
+      <c r="V20" s="60">
+        <v>0.71719999999999995</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="35"/>
       <c r="B21" s="6" t="s">
         <v>13</v>
       </c>
@@ -1076,9 +1662,25 @@
       <c r="I21" s="10">
         <v>0.93479999999999996</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="27"/>
+      <c r="Q21" s="62"/>
+      <c r="R21" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="S21" s="60">
+        <v>0.90490000000000004</v>
+      </c>
+      <c r="T21" s="60">
+        <v>0.93479999999999996</v>
+      </c>
+      <c r="U21" s="60">
+        <v>0.91979999999999995</v>
+      </c>
+      <c r="V21" s="60">
+        <v>0.84370000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="35"/>
       <c r="B22" s="6" t="s">
         <v>14</v>
       </c>
@@ -1094,9 +1696,25 @@
       <c r="F22" s="3">
         <v>0.65459999999999996</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="27"/>
+      <c r="Q22" s="62"/>
+      <c r="R22" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="S22" s="60">
+        <v>0.92649999999999999</v>
+      </c>
+      <c r="T22" s="60">
+        <v>0.93759999999999999</v>
+      </c>
+      <c r="U22" s="60">
+        <v>0.93969999999999998</v>
+      </c>
+      <c r="V22" s="60">
+        <v>0.65459999999999996</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="35"/>
       <c r="B23" s="6" t="s">
         <v>15</v>
       </c>
@@ -1112,9 +1730,25 @@
       <c r="F23" s="3">
         <v>0.7369</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="27"/>
+      <c r="Q23" s="62"/>
+      <c r="R23" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="S23" s="60">
+        <v>0.91539999999999999</v>
+      </c>
+      <c r="T23" s="60">
+        <v>0.93610000000000004</v>
+      </c>
+      <c r="U23" s="60">
+        <v>0.92949999999999999</v>
+      </c>
+      <c r="V23" s="60">
+        <v>0.7369</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="35"/>
       <c r="B24" s="6" t="s">
         <v>16</v>
       </c>
@@ -1133,9 +1767,25 @@
       <c r="L24" s="9">
         <v>0.96899999999999997</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="28"/>
+      <c r="Q24" s="62"/>
+      <c r="R24" s="59" t="s">
+        <v>16</v>
+      </c>
+      <c r="S24" s="61">
+        <v>0.95299999999999996</v>
+      </c>
+      <c r="T24" s="61">
+        <v>0.96899999999999997</v>
+      </c>
+      <c r="U24" s="61">
+        <v>0.95499999999999996</v>
+      </c>
+      <c r="V24" s="61">
+        <v>0.77100000000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="36"/>
       <c r="B25" s="7" t="s">
         <v>17</v>
       </c>
@@ -1151,9 +1801,25 @@
       <c r="F25" s="5">
         <v>0.442</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="26" t="s">
+      <c r="Q25" s="64"/>
+      <c r="R25" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="S25" s="61">
+        <v>0.78200000000000003</v>
+      </c>
+      <c r="T25" s="61">
+        <v>0.83699999999999997</v>
+      </c>
+      <c r="U25" s="61">
+        <v>0.81799999999999995</v>
+      </c>
+      <c r="V25" s="61">
+        <v>0.442</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="34" t="s">
         <v>9</v>
       </c>
       <c r="B26" s="6" t="s">
@@ -1171,9 +1837,27 @@
       <c r="F26" s="5">
         <v>72.03</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="27"/>
+      <c r="Q26" s="65" t="s">
+        <v>9</v>
+      </c>
+      <c r="R26" s="59" t="s">
+        <v>12</v>
+      </c>
+      <c r="S26" s="60">
+        <v>0.89239999999999997</v>
+      </c>
+      <c r="T26" s="60">
+        <v>0.91910000000000003</v>
+      </c>
+      <c r="U26" s="60">
+        <v>0.90849999999999997</v>
+      </c>
+      <c r="V26" s="60">
+        <v>0.72030000000000005</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="35"/>
       <c r="B27" s="6" t="s">
         <v>13</v>
       </c>
@@ -1189,9 +1873,25 @@
       <c r="F27" s="3">
         <v>0.84440000000000004</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="27"/>
+      <c r="Q27" s="62"/>
+      <c r="R27" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="S27" s="60">
+        <v>0.89629999999999999</v>
+      </c>
+      <c r="T27" s="60">
+        <v>0.92730000000000001</v>
+      </c>
+      <c r="U27" s="60">
+        <v>0.91310000000000002</v>
+      </c>
+      <c r="V27" s="60">
+        <v>0.84440000000000004</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="35"/>
       <c r="B28" s="6" t="s">
         <v>14</v>
       </c>
@@ -1207,9 +1907,25 @@
       <c r="F28" s="3">
         <v>0.6603</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="27"/>
+      <c r="Q28" s="62"/>
+      <c r="R28" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="S28" s="60">
+        <v>0.9304</v>
+      </c>
+      <c r="T28" s="60">
+        <v>0.9405</v>
+      </c>
+      <c r="U28" s="60">
+        <v>0.93869999999999998</v>
+      </c>
+      <c r="V28" s="60">
+        <v>0.6603</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="35"/>
       <c r="B29" s="6" t="s">
         <v>15</v>
       </c>
@@ -1225,9 +1941,25 @@
       <c r="F29" s="3">
         <v>0.7409</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="27"/>
+      <c r="Q29" s="62"/>
+      <c r="R29" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="S29" s="60">
+        <v>0.91290000000000004</v>
+      </c>
+      <c r="T29" s="60">
+        <v>0.93379999999999996</v>
+      </c>
+      <c r="U29" s="60">
+        <v>0.92559999999999998</v>
+      </c>
+      <c r="V29" s="60">
+        <v>0.7409</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="35"/>
       <c r="B30" s="6" t="s">
         <v>16</v>
       </c>
@@ -1243,9 +1975,25 @@
       <c r="F30" s="5">
         <v>0.76900000000000002</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="28"/>
+      <c r="Q30" s="62"/>
+      <c r="R30" s="59" t="s">
+        <v>16</v>
+      </c>
+      <c r="S30" s="61">
+        <v>0.95399999999999996</v>
+      </c>
+      <c r="T30" s="61">
+        <v>0.95799999999999996</v>
+      </c>
+      <c r="U30" s="61">
+        <v>0.95799999999999996</v>
+      </c>
+      <c r="V30" s="61">
+        <v>0.76900000000000002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="36"/>
       <c r="B31" s="7" t="s">
         <v>17</v>
       </c>
@@ -1261,9 +2009,25 @@
       <c r="F31" s="5">
         <v>0.44700000000000001</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="26" t="s">
+      <c r="Q31" s="64"/>
+      <c r="R31" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="S31" s="61">
+        <v>0.77200000000000002</v>
+      </c>
+      <c r="T31" s="61">
+        <v>0.83</v>
+      </c>
+      <c r="U31" s="61">
+        <v>0.80700000000000005</v>
+      </c>
+      <c r="V31" s="61">
+        <v>0.44700000000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="34" t="s">
         <v>10</v>
       </c>
       <c r="B32" s="6" t="s">
@@ -1281,9 +2045,27 @@
       <c r="F32" s="5">
         <v>82.03</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="27"/>
+      <c r="Q32" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="R32" s="59" t="s">
+        <v>12</v>
+      </c>
+      <c r="S32" s="60">
+        <v>0.88349999999999995</v>
+      </c>
+      <c r="T32" s="60">
+        <v>0.90590000000000004</v>
+      </c>
+      <c r="U32" s="60">
+        <v>0.90549999999999997</v>
+      </c>
+      <c r="V32" s="60">
+        <v>0.82030000000000003</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="35"/>
       <c r="B33" s="6" t="s">
         <v>13</v>
       </c>
@@ -1299,9 +2081,25 @@
       <c r="F33" s="3">
         <v>0.84209999999999996</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="27"/>
+      <c r="Q33" s="62"/>
+      <c r="R33" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="S33" s="60">
+        <v>0.85809999999999997</v>
+      </c>
+      <c r="T33" s="60">
+        <v>0.89129999999999998</v>
+      </c>
+      <c r="U33" s="60">
+        <v>0.90139999999999998</v>
+      </c>
+      <c r="V33" s="60">
+        <v>0.84209999999999996</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="35"/>
       <c r="B34" s="6" t="s">
         <v>14</v>
       </c>
@@ -1320,9 +2118,25 @@
       <c r="J34" s="3">
         <v>0.96230000000000004</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="27"/>
+      <c r="Q34" s="62"/>
+      <c r="R34" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="S34" s="60">
+        <v>0.96879999999999999</v>
+      </c>
+      <c r="T34" s="60">
+        <v>0.96230000000000004</v>
+      </c>
+      <c r="U34" s="60">
+        <v>0.94840000000000002</v>
+      </c>
+      <c r="V34" s="60">
+        <v>0.86619999999999997</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="35"/>
       <c r="B35" s="6" t="s">
         <v>15</v>
       </c>
@@ -1338,9 +2152,25 @@
       <c r="F35" s="3">
         <v>0.85370000000000001</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="27"/>
+      <c r="Q35" s="62"/>
+      <c r="R35" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="S35" s="60">
+        <v>0.90990000000000004</v>
+      </c>
+      <c r="T35" s="60">
+        <v>0.9254</v>
+      </c>
+      <c r="U35" s="60">
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="V35" s="60">
+        <v>0.85370000000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="35"/>
       <c r="B36" s="6" t="s">
         <v>16</v>
       </c>
@@ -1356,9 +2186,25 @@
       <c r="F36" s="5">
         <v>0.85299999999999998</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="28"/>
+      <c r="Q36" s="62"/>
+      <c r="R36" s="59" t="s">
+        <v>16</v>
+      </c>
+      <c r="S36" s="61">
+        <v>0.86399999999999999</v>
+      </c>
+      <c r="T36" s="61">
+        <v>0.89100000000000001</v>
+      </c>
+      <c r="U36" s="61">
+        <v>0.90700000000000003</v>
+      </c>
+      <c r="V36" s="61">
+        <v>0.85299999999999998</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="36"/>
       <c r="B37" s="7" t="s">
         <v>17</v>
       </c>
@@ -1374,9 +2220,25 @@
       <c r="F37" s="5">
         <v>0.621</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="26" t="s">
+      <c r="Q37" s="64"/>
+      <c r="R37" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="S37" s="61">
+        <v>0.747</v>
+      </c>
+      <c r="T37" s="61">
+        <v>0.79800000000000004</v>
+      </c>
+      <c r="U37" s="61">
+        <v>0.79900000000000004</v>
+      </c>
+      <c r="V37" s="61">
+        <v>0.621</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="34" t="s">
         <v>11</v>
       </c>
       <c r="B38" s="6" t="s">
@@ -1394,9 +2256,27 @@
       <c r="F38" s="5">
         <v>62.51</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="27"/>
+      <c r="Q38" s="65" t="s">
+        <v>11</v>
+      </c>
+      <c r="R38" s="59" t="s">
+        <v>12</v>
+      </c>
+      <c r="S38" s="60">
+        <v>0.79790000000000005</v>
+      </c>
+      <c r="T38" s="60">
+        <v>0.81789999999999996</v>
+      </c>
+      <c r="U38" s="60">
+        <v>0.82809999999999995</v>
+      </c>
+      <c r="V38" s="60">
+        <v>0.62509999999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="35"/>
       <c r="B39" s="6" t="s">
         <v>13</v>
       </c>
@@ -1412,9 +2292,25 @@
       <c r="F39" s="3">
         <v>0.97360000000000002</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="27"/>
+      <c r="Q39" s="62"/>
+      <c r="R39" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="S39" s="60">
+        <v>0.96740000000000004</v>
+      </c>
+      <c r="T39" s="60">
+        <v>0.79649999999999999</v>
+      </c>
+      <c r="U39" s="60">
+        <v>0.95940000000000003</v>
+      </c>
+      <c r="V39" s="60">
+        <v>0.97360000000000002</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="35"/>
       <c r="B40" s="6" t="s">
         <v>14</v>
       </c>
@@ -1430,9 +2326,25 @@
       <c r="F40" s="3">
         <v>0.39200000000000002</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="27"/>
+      <c r="Q40" s="62"/>
+      <c r="R40" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="S40" s="60">
+        <v>0.68969999999999998</v>
+      </c>
+      <c r="T40" s="60">
+        <v>0.94010000000000005</v>
+      </c>
+      <c r="U40" s="60">
+        <v>0.74819999999999998</v>
+      </c>
+      <c r="V40" s="60">
+        <v>0.39200000000000002</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="35"/>
       <c r="B41" s="6" t="s">
         <v>15</v>
       </c>
@@ -1448,9 +2360,25 @@
       <c r="F41" s="3">
         <v>0.5585</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="27"/>
+      <c r="Q41" s="62"/>
+      <c r="R41" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="S41" s="60">
+        <v>0.80510000000000004</v>
+      </c>
+      <c r="T41" s="60">
+        <v>0.86219999999999997</v>
+      </c>
+      <c r="U41" s="60">
+        <v>0.84050000000000002</v>
+      </c>
+      <c r="V41" s="60">
+        <v>0.5585</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="35"/>
       <c r="B42" s="6" t="s">
         <v>16</v>
       </c>
@@ -1466,9 +2394,25 @@
       <c r="F42" s="5">
         <v>0.84599999999999997</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="28"/>
+      <c r="Q42" s="62"/>
+      <c r="R42" s="59" t="s">
+        <v>16</v>
+      </c>
+      <c r="S42" s="61">
+        <v>0.93400000000000005</v>
+      </c>
+      <c r="T42" s="61">
+        <v>0.872</v>
+      </c>
+      <c r="U42" s="61">
+        <v>0.93600000000000005</v>
+      </c>
+      <c r="V42" s="61">
+        <v>0.84599999999999997</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="36"/>
       <c r="B43" s="7" t="s">
         <v>17</v>
       </c>
@@ -1484,99 +2428,309 @@
       <c r="F43" s="5">
         <v>0.32400000000000001</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="41" t="s">
+      <c r="Q43" s="66"/>
+      <c r="R43" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="S43" s="61">
+        <v>0.60699999999999998</v>
+      </c>
+      <c r="T43" s="61">
+        <v>0.59899999999999998</v>
+      </c>
+      <c r="U43" s="61">
+        <v>0.66</v>
+      </c>
+      <c r="V43" s="61">
+        <v>0.32400000000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="B44" s="35" t="s">
+      <c r="B44" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="C44" s="36">
+      <c r="C44" s="26">
         <v>0.91279999999999994</v>
       </c>
-      <c r="D44" s="37"/>
-      <c r="E44" s="37"/>
-      <c r="F44" s="36">
+      <c r="D44" s="27"/>
+      <c r="E44" s="27"/>
+      <c r="F44" s="26">
         <v>0.80720000000000003</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="42"/>
-      <c r="B45" s="38" t="s">
+      <c r="Q44" s="63" t="s">
+        <v>21</v>
+      </c>
+      <c r="R44" s="59" t="s">
+        <v>12</v>
+      </c>
+      <c r="S44" s="60">
+        <v>0.91279999999999994</v>
+      </c>
+      <c r="T44" s="61"/>
+      <c r="U44" s="61"/>
+      <c r="V44" s="60">
+        <v>0.80720000000000003</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="32"/>
+      <c r="B45" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="C45" s="39">
+      <c r="C45" s="29">
         <v>0.90710000000000002</v>
       </c>
-      <c r="D45" s="40"/>
-      <c r="E45" s="40"/>
-      <c r="F45" s="39">
+      <c r="D45" s="30"/>
+      <c r="E45" s="30"/>
+      <c r="F45" s="29">
         <v>0.82720000000000005</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="42"/>
-      <c r="B46" s="38" t="s">
+      <c r="Q45" s="62"/>
+      <c r="R45" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="S45" s="60">
+        <v>0.90710000000000002</v>
+      </c>
+      <c r="T45" s="61"/>
+      <c r="U45" s="61"/>
+      <c r="V45" s="60">
+        <v>0.82720000000000005</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="32"/>
+      <c r="B46" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="C46" s="39">
+      <c r="C46" s="29">
         <v>0.872</v>
       </c>
-      <c r="D46" s="40"/>
-      <c r="E46" s="40"/>
-      <c r="F46" s="39">
+      <c r="D46" s="30"/>
+      <c r="E46" s="30"/>
+      <c r="F46" s="29">
         <v>0.86260000000000003</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="42"/>
-      <c r="B47" s="38" t="s">
+      <c r="Q46" s="62"/>
+      <c r="R46" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="S46" s="60">
+        <v>0.872</v>
+      </c>
+      <c r="T46" s="61"/>
+      <c r="U46" s="61"/>
+      <c r="V46" s="60">
+        <v>0.86260000000000003</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="32"/>
+      <c r="B47" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="C47" s="39">
+      <c r="C47" s="29">
         <v>0.88700000000000001</v>
       </c>
-      <c r="D47" s="40"/>
-      <c r="E47" s="40"/>
-      <c r="F47" s="39">
+      <c r="D47" s="30"/>
+      <c r="E47" s="30"/>
+      <c r="F47" s="29">
         <v>0.84419999999999995</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="42"/>
-      <c r="B48" s="38" t="s">
+      <c r="Q47" s="62"/>
+      <c r="R47" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="S47" s="60">
+        <v>0.88700000000000001</v>
+      </c>
+      <c r="T47" s="61"/>
+      <c r="U47" s="61"/>
+      <c r="V47" s="60">
+        <v>0.84419999999999995</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="32"/>
+      <c r="B48" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="C48" s="40">
+      <c r="C48" s="30">
         <v>0.95899999999999996</v>
       </c>
-      <c r="D48" s="40"/>
-      <c r="E48" s="40"/>
-      <c r="F48" s="40">
+      <c r="D48" s="30"/>
+      <c r="E48" s="30"/>
+      <c r="F48" s="30">
         <v>0.875</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="43"/>
-      <c r="B49" s="38" t="s">
+      <c r="Q48" s="62"/>
+      <c r="R48" s="59" t="s">
+        <v>16</v>
+      </c>
+      <c r="S48" s="61">
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="T48" s="61"/>
+      <c r="U48" s="61"/>
+      <c r="V48" s="61">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="33"/>
+      <c r="B49" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C49" s="40">
+      <c r="C49" s="30">
         <v>0.81599999999999995</v>
       </c>
-      <c r="D49" s="40"/>
-      <c r="E49" s="40"/>
-      <c r="F49" s="40">
+      <c r="D49" s="30"/>
+      <c r="E49" s="30"/>
+      <c r="F49" s="30">
         <v>0.59199999999999997</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" ht="157.80000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+      <c r="Q49" s="66"/>
+      <c r="R49" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="S49" s="61">
+        <v>0.81599999999999995</v>
+      </c>
+      <c r="T49" s="61"/>
+      <c r="U49" s="61"/>
+      <c r="V49" s="61">
+        <v>0.59199999999999997</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q50" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="R50" s="59" t="s">
+        <v>12</v>
+      </c>
+      <c r="S50" s="60">
+        <v>0.89780000000000004</v>
+      </c>
+      <c r="T50" s="60">
+        <v>0.89219999999999999</v>
+      </c>
+      <c r="U50" s="60">
+        <v>0.91279999999999994</v>
+      </c>
+      <c r="V50" s="60">
+        <v>0.68459999999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q51" s="62"/>
+      <c r="R51" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="S51" s="60">
+        <v>0.93089999999999995</v>
+      </c>
+      <c r="T51" s="60">
+        <v>0.89400000000000002</v>
+      </c>
+      <c r="U51" s="60">
+        <v>0.9103</v>
+      </c>
+      <c r="V51" s="60">
+        <v>0.77990000000000004</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q52" s="62"/>
+      <c r="R52" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="S52" s="60">
+        <v>0.80079999999999996</v>
+      </c>
+      <c r="T52" s="60">
+        <v>0.93289999999999995</v>
+      </c>
+      <c r="U52" s="60">
+        <v>0.94979999999999998</v>
+      </c>
+      <c r="V52" s="60">
+        <v>0.56620000000000004</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q53" s="62"/>
+      <c r="R53" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="S53" s="60">
+        <v>0.86040000000000005</v>
+      </c>
+      <c r="T53" s="60">
+        <v>0.91290000000000004</v>
+      </c>
+      <c r="U53" s="60">
+        <v>0.92959999999999998</v>
+      </c>
+      <c r="V53" s="60">
+        <v>0.65349999999999997</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q54" s="62"/>
+      <c r="R54" s="59" t="s">
+        <v>16</v>
+      </c>
+      <c r="S54" s="61">
+        <v>0.96199999999999997</v>
+      </c>
+      <c r="T54" s="61">
+        <v>0.95299999999999996</v>
+      </c>
+      <c r="U54" s="61">
+        <v>0.81499999999999995</v>
+      </c>
+      <c r="V54" s="61">
+        <v>0.75700000000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q55" s="66"/>
+      <c r="R55" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="S55" s="61">
+        <v>0.78100000000000003</v>
+      </c>
+      <c r="T55" s="61">
+        <v>0.77200000000000002</v>
+      </c>
+      <c r="U55" s="61">
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="V55" s="61">
+        <v>0.378</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22" ht="157.80000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="67" ht="157.80000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="78" ht="157.80000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="89" ht="157.80000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="18">
+    <mergeCell ref="Q2:Q7"/>
+    <mergeCell ref="Q8:Q13"/>
+    <mergeCell ref="Q14:Q19"/>
+    <mergeCell ref="Q20:Q25"/>
+    <mergeCell ref="Q26:Q31"/>
+    <mergeCell ref="Q32:Q37"/>
+    <mergeCell ref="Q38:Q43"/>
+    <mergeCell ref="Q44:Q49"/>
+    <mergeCell ref="Q50:Q55"/>
+    <mergeCell ref="I2:I7"/>
     <mergeCell ref="A44:A49"/>
     <mergeCell ref="A38:A43"/>
     <mergeCell ref="A2:A7"/>
@@ -1593,10 +2747,915 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N89"/>
+  <dimension ref="A1:AE11"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="Y1" sqref="Y1:AE11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.77734375" style="47" customWidth="1"/>
+    <col min="2" max="4" width="8.88671875" style="47"/>
+    <col min="5" max="5" width="10.6640625" style="47" customWidth="1"/>
+    <col min="6" max="8" width="8.88671875" style="47"/>
+    <col min="9" max="9" width="17.77734375" style="47" customWidth="1"/>
+    <col min="10" max="12" width="8.88671875" style="47"/>
+    <col min="13" max="13" width="10.5546875" style="47" customWidth="1"/>
+    <col min="14" max="16" width="8.88671875" style="47"/>
+    <col min="17" max="17" width="17.77734375" style="47" customWidth="1"/>
+    <col min="18" max="20" width="8.88671875" style="47"/>
+    <col min="21" max="21" width="10.5546875" style="47" customWidth="1"/>
+    <col min="22" max="24" width="8.88671875" style="47"/>
+    <col min="25" max="25" width="17.77734375" style="47" customWidth="1"/>
+    <col min="26" max="28" width="8.88671875" style="47"/>
+    <col min="29" max="29" width="10.5546875" style="47" customWidth="1"/>
+    <col min="30" max="16384" width="8.88671875" style="47"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A1" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
+      <c r="O1" s="46"/>
+      <c r="P1" s="45"/>
+      <c r="Q1" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="R1" s="44"/>
+      <c r="S1" s="44"/>
+      <c r="T1" s="44"/>
+      <c r="U1" s="44"/>
+      <c r="V1" s="44"/>
+      <c r="W1" s="44"/>
+      <c r="X1" s="45"/>
+      <c r="Y1" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z1" s="44"/>
+      <c r="AA1" s="44"/>
+      <c r="AB1" s="44"/>
+      <c r="AC1" s="44"/>
+      <c r="AD1" s="44"/>
+      <c r="AE1" s="44"/>
+    </row>
+    <row r="2" spans="1:31" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A2" s="44"/>
+      <c r="B2" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="45"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="O2" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="P2" s="45"/>
+      <c r="Q2" s="44"/>
+      <c r="R2" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="S2" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="T2" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="U2" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="V2" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="W2" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="X2" s="45"/>
+      <c r="Y2" s="44"/>
+      <c r="Z2" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA2" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB2" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC2" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD2" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE2" s="44" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A3" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="49">
+        <v>90.31</v>
+      </c>
+      <c r="C3" s="50">
+        <v>0.91920000000000002</v>
+      </c>
+      <c r="D3" s="50">
+        <v>0.9214</v>
+      </c>
+      <c r="E3" s="50">
+        <v>0.92020000000000002</v>
+      </c>
+      <c r="F3" s="49">
+        <v>0.5</v>
+      </c>
+      <c r="G3" s="49">
+        <v>0.79700000000000004</v>
+      </c>
+      <c r="I3" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" s="51">
+        <v>89.57</v>
+      </c>
+      <c r="K3" s="52">
+        <v>0.93010000000000004</v>
+      </c>
+      <c r="L3" s="52">
+        <v>0.89529999999999998</v>
+      </c>
+      <c r="M3" s="52">
+        <v>0.91220000000000001</v>
+      </c>
+      <c r="N3" s="51">
+        <v>0.5</v>
+      </c>
+      <c r="O3" s="51">
+        <v>0.78400000000000003</v>
+      </c>
+      <c r="Q3" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="R3" s="49">
+        <v>91.09</v>
+      </c>
+      <c r="S3" s="50">
+        <v>0.92659999999999998</v>
+      </c>
+      <c r="T3" s="50">
+        <v>0.92649999999999999</v>
+      </c>
+      <c r="U3" s="50">
+        <v>0.9264</v>
+      </c>
+      <c r="V3" s="49">
+        <v>0.5</v>
+      </c>
+      <c r="W3" s="49">
+        <v>0.81299999999999994</v>
+      </c>
+      <c r="Y3" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z3" s="49">
+        <v>72.09</v>
+      </c>
+      <c r="AA3" s="50">
+        <v>0.86029999999999995</v>
+      </c>
+      <c r="AB3" s="50">
+        <v>0.64419999999999999</v>
+      </c>
+      <c r="AC3" s="50">
+        <v>0.73660000000000003</v>
+      </c>
+      <c r="AD3" s="49">
+        <v>0.5</v>
+      </c>
+      <c r="AE3" s="49">
+        <v>0.45300000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A4" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="49">
+        <v>90.35</v>
+      </c>
+      <c r="C4" s="50">
+        <v>0.91149999999999998</v>
+      </c>
+      <c r="D4" s="50">
+        <v>0.93149999999999999</v>
+      </c>
+      <c r="E4" s="50">
+        <v>0.92130000000000001</v>
+      </c>
+      <c r="F4" s="49">
+        <v>0.91900000000000004</v>
+      </c>
+      <c r="G4" s="49">
+        <v>0.79700000000000004</v>
+      </c>
+      <c r="I4" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" s="51">
+        <v>91.92</v>
+      </c>
+      <c r="K4" s="52">
+        <v>0.92910000000000004</v>
+      </c>
+      <c r="L4" s="52">
+        <v>0.93830000000000002</v>
+      </c>
+      <c r="M4" s="52">
+        <v>0.93359999999999999</v>
+      </c>
+      <c r="N4" s="51">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="O4" s="51">
+        <v>0.83</v>
+      </c>
+      <c r="Q4" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="R4" s="49">
+        <v>91.33</v>
+      </c>
+      <c r="S4" s="50">
+        <v>0.91910000000000003</v>
+      </c>
+      <c r="T4" s="50">
+        <v>0.93969999999999998</v>
+      </c>
+      <c r="U4" s="50">
+        <v>0.92920000000000003</v>
+      </c>
+      <c r="V4" s="49">
+        <v>0.91900000000000004</v>
+      </c>
+      <c r="W4" s="49">
+        <v>0.81699999999999995</v>
+      </c>
+      <c r="Y4" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z4" s="49">
+        <v>71.849999999999994</v>
+      </c>
+      <c r="AA4" s="50">
+        <v>0.85140000000000005</v>
+      </c>
+      <c r="AB4" s="50">
+        <v>0.64890000000000003</v>
+      </c>
+      <c r="AC4" s="50">
+        <v>0.73629999999999995</v>
+      </c>
+      <c r="AD4" s="49">
+        <v>0.75600000000000001</v>
+      </c>
+      <c r="AE4" s="49">
+        <v>0.44600000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A5" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="53">
+        <v>89.94</v>
+      </c>
+      <c r="C5" s="50">
+        <v>0.90810000000000002</v>
+      </c>
+      <c r="D5" s="50">
+        <v>0.92830000000000001</v>
+      </c>
+      <c r="E5" s="50">
+        <v>0.91790000000000005</v>
+      </c>
+      <c r="F5" s="49">
+        <v>0.93600000000000005</v>
+      </c>
+      <c r="G5" s="49">
+        <v>0.78800000000000003</v>
+      </c>
+      <c r="I5" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="J5" s="51">
+        <v>92.44</v>
+      </c>
+      <c r="K5" s="52">
+        <v>0.93420000000000003</v>
+      </c>
+      <c r="L5" s="52">
+        <v>0.94189999999999996</v>
+      </c>
+      <c r="M5" s="52">
+        <v>0.93789999999999996</v>
+      </c>
+      <c r="N5" s="51">
+        <v>0.94599999999999995</v>
+      </c>
+      <c r="O5" s="51">
+        <v>0.84099999999999997</v>
+      </c>
+      <c r="Q5" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="R5" s="49">
+        <v>90.87</v>
+      </c>
+      <c r="S5" s="50">
+        <v>0.91639999999999999</v>
+      </c>
+      <c r="T5" s="50">
+        <v>0.93469999999999998</v>
+      </c>
+      <c r="U5" s="50">
+        <v>0.9254</v>
+      </c>
+      <c r="V5" s="49">
+        <v>0.93500000000000005</v>
+      </c>
+      <c r="W5" s="49">
+        <v>0.80800000000000005</v>
+      </c>
+      <c r="Y5" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z5" s="49">
+        <v>72.03</v>
+      </c>
+      <c r="AA5" s="50">
+        <v>0.8488</v>
+      </c>
+      <c r="AB5" s="50">
+        <v>0.65529999999999999</v>
+      </c>
+      <c r="AC5" s="50">
+        <v>0.73929999999999996</v>
+      </c>
+      <c r="AD5" s="49">
+        <v>0.76600000000000001</v>
+      </c>
+      <c r="AE5" s="49">
+        <v>0.44800000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A6" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="49">
+        <v>89.63</v>
+      </c>
+      <c r="C6" s="50">
+        <v>0.90490000000000004</v>
+      </c>
+      <c r="D6" s="50">
+        <v>0.92649999999999999</v>
+      </c>
+      <c r="E6" s="50">
+        <v>0.91539999999999999</v>
+      </c>
+      <c r="F6" s="49">
+        <v>0.95299999999999996</v>
+      </c>
+      <c r="G6" s="49">
+        <v>0.78200000000000003</v>
+      </c>
+      <c r="I6" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="J6" s="51">
+        <v>92.24</v>
+      </c>
+      <c r="K6" s="52">
+        <v>0.93479999999999996</v>
+      </c>
+      <c r="L6" s="52">
+        <v>0.93759999999999999</v>
+      </c>
+      <c r="M6" s="52">
+        <v>0.93610000000000004</v>
+      </c>
+      <c r="N6" s="51">
+        <v>0.96899999999999997</v>
+      </c>
+      <c r="O6" s="51">
+        <v>0.83699999999999997</v>
+      </c>
+      <c r="Q6" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="R6" s="49">
+        <v>91.37</v>
+      </c>
+      <c r="S6" s="50">
+        <v>0.91979999999999995</v>
+      </c>
+      <c r="T6" s="50">
+        <v>0.93969999999999998</v>
+      </c>
+      <c r="U6" s="50">
+        <v>0.92949999999999999</v>
+      </c>
+      <c r="V6" s="49">
+        <v>0.95499999999999996</v>
+      </c>
+      <c r="W6" s="49">
+        <v>0.81799999999999995</v>
+      </c>
+      <c r="Y6" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z6" s="49">
+        <v>71.72</v>
+      </c>
+      <c r="AA6" s="50">
+        <v>0.84370000000000001</v>
+      </c>
+      <c r="AB6" s="50">
+        <v>0.65459999999999996</v>
+      </c>
+      <c r="AC6" s="50">
+        <v>0.7369</v>
+      </c>
+      <c r="AD6" s="49">
+        <v>0.77100000000000002</v>
+      </c>
+      <c r="AE6" s="49">
+        <v>0.442</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A7" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="49">
+        <v>89.24</v>
+      </c>
+      <c r="C7" s="50">
+        <v>0.89629999999999999</v>
+      </c>
+      <c r="D7" s="50">
+        <v>0.9304</v>
+      </c>
+      <c r="E7" s="50">
+        <v>0.91290000000000004</v>
+      </c>
+      <c r="F7" s="49">
+        <v>0.95399999999999996</v>
+      </c>
+      <c r="G7" s="49">
+        <v>0.77200000000000002</v>
+      </c>
+      <c r="I7" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="J7" s="51">
+        <v>91.91</v>
+      </c>
+      <c r="K7" s="52">
+        <v>0.92730000000000001</v>
+      </c>
+      <c r="L7" s="52">
+        <v>0.9405</v>
+      </c>
+      <c r="M7" s="52">
+        <v>0.93379999999999996</v>
+      </c>
+      <c r="N7" s="51">
+        <v>0.95799999999999996</v>
+      </c>
+      <c r="O7" s="51">
+        <v>0.83</v>
+      </c>
+      <c r="Q7" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="R7" s="49">
+        <v>90.85</v>
+      </c>
+      <c r="S7" s="50">
+        <v>0.91310000000000002</v>
+      </c>
+      <c r="T7" s="50">
+        <v>0.93869999999999998</v>
+      </c>
+      <c r="U7" s="50">
+        <v>0.92559999999999998</v>
+      </c>
+      <c r="V7" s="49">
+        <v>0.95799999999999996</v>
+      </c>
+      <c r="W7" s="49">
+        <v>0.80700000000000005</v>
+      </c>
+      <c r="Y7" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z7" s="49">
+        <v>72.03</v>
+      </c>
+      <c r="AA7" s="50">
+        <v>0.84440000000000004</v>
+      </c>
+      <c r="AB7" s="50">
+        <v>0.6603</v>
+      </c>
+      <c r="AC7" s="50">
+        <v>0.7409</v>
+      </c>
+      <c r="AD7" s="49">
+        <v>0.76900000000000002</v>
+      </c>
+      <c r="AE7" s="49">
+        <v>0.44700000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A8" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="49">
+        <v>88.35</v>
+      </c>
+      <c r="C8" s="50">
+        <v>0.85809999999999997</v>
+      </c>
+      <c r="D8" s="50">
+        <v>0.96879999999999999</v>
+      </c>
+      <c r="E8" s="50">
+        <v>0.90990000000000004</v>
+      </c>
+      <c r="F8" s="49">
+        <v>0.86399999999999999</v>
+      </c>
+      <c r="G8" s="49">
+        <v>0.747</v>
+      </c>
+      <c r="I8" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="51">
+        <v>90.59</v>
+      </c>
+      <c r="K8" s="52">
+        <v>0.89129999999999998</v>
+      </c>
+      <c r="L8" s="52">
+        <v>0.96230000000000004</v>
+      </c>
+      <c r="M8" s="52">
+        <v>0.9254</v>
+      </c>
+      <c r="N8" s="51">
+        <v>0.89100000000000001</v>
+      </c>
+      <c r="O8" s="51">
+        <v>0.79800000000000004</v>
+      </c>
+      <c r="Q8" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="R8" s="49">
+        <v>90.55</v>
+      </c>
+      <c r="S8" s="50">
+        <v>0.90139999999999998</v>
+      </c>
+      <c r="T8" s="50">
+        <v>0.94840000000000002</v>
+      </c>
+      <c r="U8" s="50">
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="V8" s="49">
+        <v>0.90700000000000003</v>
+      </c>
+      <c r="W8" s="49">
+        <v>0.79900000000000004</v>
+      </c>
+      <c r="Y8" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z8" s="49">
+        <v>82.03</v>
+      </c>
+      <c r="AA8" s="50">
+        <v>0.84209999999999996</v>
+      </c>
+      <c r="AB8" s="50">
+        <v>0.86619999999999997</v>
+      </c>
+      <c r="AC8" s="50">
+        <v>0.85370000000000001</v>
+      </c>
+      <c r="AD8" s="49">
+        <v>0.85299999999999998</v>
+      </c>
+      <c r="AE8" s="49">
+        <v>0.621</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A9" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="49">
+        <v>79.790000000000006</v>
+      </c>
+      <c r="C9" s="50">
+        <v>0.96740000000000004</v>
+      </c>
+      <c r="D9" s="50">
+        <v>0.68969999999999998</v>
+      </c>
+      <c r="E9" s="50">
+        <v>0.80510000000000004</v>
+      </c>
+      <c r="F9" s="49">
+        <v>0.93400000000000005</v>
+      </c>
+      <c r="G9" s="49">
+        <v>0.60699999999999998</v>
+      </c>
+      <c r="I9" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="J9" s="51">
+        <v>81.790000000000006</v>
+      </c>
+      <c r="K9" s="52">
+        <v>0.79649999999999999</v>
+      </c>
+      <c r="L9" s="52">
+        <v>0.94010000000000005</v>
+      </c>
+      <c r="M9" s="52">
+        <v>0.86219999999999997</v>
+      </c>
+      <c r="N9" s="51">
+        <v>0.872</v>
+      </c>
+      <c r="O9" s="51">
+        <v>0.59899999999999998</v>
+      </c>
+      <c r="Q9" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="R9" s="49">
+        <v>82.81</v>
+      </c>
+      <c r="S9" s="50">
+        <v>0.95940000000000003</v>
+      </c>
+      <c r="T9" s="50">
+        <v>0.74819999999999998</v>
+      </c>
+      <c r="U9" s="50">
+        <v>0.84050000000000002</v>
+      </c>
+      <c r="V9" s="49">
+        <v>0.93600000000000005</v>
+      </c>
+      <c r="W9" s="49">
+        <v>0.66</v>
+      </c>
+      <c r="Y9" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z9" s="49">
+        <v>62.51</v>
+      </c>
+      <c r="AA9" s="50">
+        <v>0.97360000000000002</v>
+      </c>
+      <c r="AB9" s="50">
+        <v>0.39200000000000002</v>
+      </c>
+      <c r="AC9" s="50">
+        <v>0.5585</v>
+      </c>
+      <c r="AD9" s="49">
+        <v>0.84599999999999997</v>
+      </c>
+      <c r="AE9" s="49">
+        <v>0.32400000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A10" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="54">
+        <v>0.91279999999999994</v>
+      </c>
+      <c r="C10" s="54">
+        <v>0.90710000000000002</v>
+      </c>
+      <c r="D10" s="54">
+        <v>0.872</v>
+      </c>
+      <c r="E10" s="54">
+        <v>0.88700000000000001</v>
+      </c>
+      <c r="F10" s="53">
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="G10" s="53">
+        <v>0.81599999999999995</v>
+      </c>
+      <c r="I10" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="J10" s="55"/>
+      <c r="K10" s="55"/>
+      <c r="L10" s="55"/>
+      <c r="M10" s="55"/>
+      <c r="N10" s="55"/>
+      <c r="O10" s="55"/>
+      <c r="Q10" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="R10" s="56"/>
+      <c r="S10" s="56"/>
+      <c r="T10" s="56"/>
+      <c r="U10" s="56"/>
+      <c r="V10" s="56"/>
+      <c r="W10" s="56"/>
+      <c r="Y10" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z10" s="54">
+        <v>0.80720000000000003</v>
+      </c>
+      <c r="AA10" s="54">
+        <v>0.82720000000000005</v>
+      </c>
+      <c r="AB10" s="54">
+        <v>0.86260000000000003</v>
+      </c>
+      <c r="AC10" s="54">
+        <v>0.84419999999999995</v>
+      </c>
+      <c r="AD10" s="53">
+        <v>0.875</v>
+      </c>
+      <c r="AE10" s="53">
+        <v>0.59199999999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="60">
+        <v>0.89780000000000004</v>
+      </c>
+      <c r="C11" s="60">
+        <v>0.93089999999999995</v>
+      </c>
+      <c r="D11" s="60">
+        <v>0.80079999999999996</v>
+      </c>
+      <c r="E11" s="60">
+        <v>0.86040000000000005</v>
+      </c>
+      <c r="F11" s="61">
+        <v>0.96199999999999997</v>
+      </c>
+      <c r="G11" s="61">
+        <v>0.78100000000000003</v>
+      </c>
+      <c r="I11" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="J11" s="60">
+        <v>0.89219999999999999</v>
+      </c>
+      <c r="K11" s="60">
+        <v>0.89400000000000002</v>
+      </c>
+      <c r="L11" s="60">
+        <v>0.93289999999999995</v>
+      </c>
+      <c r="M11" s="60">
+        <v>0.91290000000000004</v>
+      </c>
+      <c r="N11" s="61">
+        <v>0.95299999999999996</v>
+      </c>
+      <c r="O11" s="61">
+        <v>0.77200000000000002</v>
+      </c>
+      <c r="Q11" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="R11" s="60">
+        <v>0.91279999999999994</v>
+      </c>
+      <c r="S11" s="60">
+        <v>0.9103</v>
+      </c>
+      <c r="T11" s="60">
+        <v>0.94979999999999998</v>
+      </c>
+      <c r="U11" s="60">
+        <v>0.92959999999999998</v>
+      </c>
+      <c r="V11" s="61">
+        <v>0.81499999999999995</v>
+      </c>
+      <c r="W11" s="61">
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="Y11" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z11" s="60">
+        <v>0.68459999999999999</v>
+      </c>
+      <c r="AA11" s="60">
+        <v>0.77990000000000004</v>
+      </c>
+      <c r="AB11" s="60">
+        <v>0.56620000000000004</v>
+      </c>
+      <c r="AC11" s="60">
+        <v>0.65349999999999997</v>
+      </c>
+      <c r="AD11" s="61">
+        <v>0.75700000000000001</v>
+      </c>
+      <c r="AE11" s="61">
+        <v>0.378</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q89"/>
+  <sheetViews>
+    <sheetView topLeftCell="A47" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1:Q49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1605,244 +3664,439 @@
     <col min="2" max="2" width="9.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="102.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:17" ht="216.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="14" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="32" t="s">
+      <c r="L1" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1" s="68" t="s">
+        <v>29</v>
+      </c>
+      <c r="N1" s="68" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1" s="68" t="s">
+        <v>2</v>
+      </c>
+      <c r="P1" s="68" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q1" s="68" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="17">
+      <c r="C2" s="16">
         <v>0.61250000000000004</v>
       </c>
-      <c r="D2" s="18">
+      <c r="D2" s="17">
         <v>0.68200000000000005</v>
       </c>
-      <c r="E2" s="18">
+      <c r="E2" s="17">
         <v>0.63339999999999996</v>
       </c>
-      <c r="F2" s="18">
+      <c r="F2" s="17">
         <v>0.67159999999999997</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="33"/>
-      <c r="B3" s="16" t="s">
+      <c r="L2" s="73" t="s">
+        <v>5</v>
+      </c>
+      <c r="M2" s="69" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" s="70">
+        <v>0.61250000000000004</v>
+      </c>
+      <c r="O2" s="70">
+        <v>0.68200000000000005</v>
+      </c>
+      <c r="P2" s="70">
+        <v>0.63339999999999996</v>
+      </c>
+      <c r="Q2" s="70">
+        <v>0.67159999999999997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="41"/>
+      <c r="B3" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="17">
+      <c r="C3" s="16">
         <v>0.64400000000000002</v>
       </c>
-      <c r="D3" s="18">
+      <c r="D3" s="17">
         <v>0.71599999999999997</v>
       </c>
-      <c r="E3" s="18">
+      <c r="E3" s="17">
         <v>0.66669999999999996</v>
       </c>
-      <c r="F3" s="18">
+      <c r="F3" s="17">
         <v>0.69189999999999996</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="33"/>
-      <c r="B4" s="16" t="s">
+      <c r="L3" s="72"/>
+      <c r="M3" s="69" t="s">
+        <v>13</v>
+      </c>
+      <c r="N3" s="70">
+        <v>0.64400000000000002</v>
+      </c>
+      <c r="O3" s="70">
+        <v>0.71599999999999997</v>
+      </c>
+      <c r="P3" s="70">
+        <v>0.66669999999999996</v>
+      </c>
+      <c r="Q3" s="70">
+        <v>0.69189999999999996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="41"/>
+      <c r="B4" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="17">
+      <c r="C4" s="16">
         <v>0.60389999999999999</v>
       </c>
-      <c r="D4" s="18">
+      <c r="D4" s="17">
         <v>0.66449999999999998</v>
       </c>
-      <c r="E4" s="18">
+      <c r="E4" s="17">
         <v>0.61870000000000003</v>
       </c>
-      <c r="F4" s="18">
+      <c r="F4" s="17">
         <v>0.68740000000000001</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="33"/>
-      <c r="B5" s="16" t="s">
+      <c r="L4" s="72"/>
+      <c r="M4" s="69" t="s">
+        <v>14</v>
+      </c>
+      <c r="N4" s="70">
+        <v>0.60389999999999999</v>
+      </c>
+      <c r="O4" s="70">
+        <v>0.66449999999999998</v>
+      </c>
+      <c r="P4" s="70">
+        <v>0.61870000000000003</v>
+      </c>
+      <c r="Q4" s="70">
+        <v>0.68740000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="41"/>
+      <c r="B5" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C5" s="16">
         <v>0.62329999999999997</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D5" s="17">
         <v>0.68930000000000002</v>
       </c>
-      <c r="E5" s="18">
+      <c r="E5" s="17">
         <v>0.64180000000000004</v>
       </c>
-      <c r="F5" s="18">
+      <c r="F5" s="17">
         <v>0.68969999999999998</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="33"/>
-      <c r="B6" s="16" t="s">
+      <c r="L5" s="72"/>
+      <c r="M5" s="69" t="s">
+        <v>15</v>
+      </c>
+      <c r="N5" s="70">
+        <v>0.62329999999999997</v>
+      </c>
+      <c r="O5" s="70">
+        <v>0.68930000000000002</v>
+      </c>
+      <c r="P5" s="70">
+        <v>0.64180000000000004</v>
+      </c>
+      <c r="Q5" s="70">
+        <v>0.68969999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="41"/>
+      <c r="B6" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="19">
+      <c r="C6" s="18">
         <v>0.5</v>
       </c>
-      <c r="D6" s="20">
+      <c r="D6" s="19">
         <v>0.5</v>
       </c>
-      <c r="E6" s="20">
+      <c r="E6" s="19">
         <v>0.5</v>
       </c>
-      <c r="F6" s="20">
+      <c r="F6" s="19">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="34"/>
-      <c r="B7" s="21" t="s">
+      <c r="L6" s="72"/>
+      <c r="M6" s="69" t="s">
+        <v>16</v>
+      </c>
+      <c r="N6" s="71">
+        <v>0.5</v>
+      </c>
+      <c r="O6" s="71">
+        <v>0.5</v>
+      </c>
+      <c r="P6" s="71">
+        <v>0.5</v>
+      </c>
+      <c r="Q6" s="71">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="42"/>
+      <c r="B7" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="19">
+      <c r="C7" s="18">
         <v>0.22500000000000001</v>
       </c>
-      <c r="D7" s="20">
+      <c r="D7" s="19">
         <v>0.36499999999999999</v>
       </c>
-      <c r="E7" s="20">
+      <c r="E7" s="19">
         <v>0.26700000000000002</v>
       </c>
-      <c r="F7" s="20">
+      <c r="F7" s="19">
         <v>0.34100000000000003</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="32" t="s">
+      <c r="L7" s="74"/>
+      <c r="M7" s="69" t="s">
+        <v>17</v>
+      </c>
+      <c r="N7" s="71">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="O7" s="71">
+        <v>0.36499999999999999</v>
+      </c>
+      <c r="P7" s="71">
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="Q7" s="71">
+        <v>0.34100000000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="22">
+      <c r="C8" s="21">
         <v>0.62290000000000001</v>
       </c>
-      <c r="D8" s="23">
+      <c r="D8" s="22">
         <v>0.71419999999999995</v>
       </c>
-      <c r="E8" s="23">
+      <c r="E8" s="22">
         <v>0.64470000000000005</v>
       </c>
-      <c r="F8" s="23">
+      <c r="F8" s="22">
         <v>0.64639999999999997</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="33"/>
-      <c r="B9" s="16" t="s">
+      <c r="L8" s="75" t="s">
+        <v>6</v>
+      </c>
+      <c r="M8" s="69" t="s">
+        <v>12</v>
+      </c>
+      <c r="N8" s="70">
+        <v>0.62290000000000001</v>
+      </c>
+      <c r="O8" s="70">
+        <v>0.71419999999999995</v>
+      </c>
+      <c r="P8" s="70">
+        <v>0.64470000000000005</v>
+      </c>
+      <c r="Q8" s="70">
+        <v>0.64639999999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="41"/>
+      <c r="B9" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="22">
+      <c r="C9" s="21">
         <v>0.6583</v>
       </c>
-      <c r="D9" s="23">
+      <c r="D9" s="22">
         <v>0.75090000000000001</v>
       </c>
-      <c r="E9" s="23">
+      <c r="E9" s="22">
         <v>0.68230000000000002</v>
       </c>
-      <c r="F9" s="23">
+      <c r="F9" s="22">
         <v>0.67589999999999995</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="33"/>
-      <c r="B10" s="16" t="s">
+      <c r="L9" s="72"/>
+      <c r="M9" s="69" t="s">
+        <v>13</v>
+      </c>
+      <c r="N9" s="70">
+        <v>0.6583</v>
+      </c>
+      <c r="O9" s="70">
+        <v>0.75090000000000001</v>
+      </c>
+      <c r="P9" s="70">
+        <v>0.68230000000000002</v>
+      </c>
+      <c r="Q9" s="70">
+        <v>0.67589999999999995</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="41"/>
+      <c r="B10" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="22">
+      <c r="C10" s="21">
         <v>0.60229999999999995</v>
       </c>
-      <c r="D10" s="23">
+      <c r="D10" s="22">
         <v>0.69069999999999998</v>
       </c>
-      <c r="E10" s="23">
+      <c r="E10" s="22">
         <v>0.61870000000000003</v>
       </c>
-      <c r="F10" s="23">
+      <c r="F10" s="22">
         <v>0.64159999999999995</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="33"/>
-      <c r="B11" s="16" t="s">
+      <c r="L10" s="72"/>
+      <c r="M10" s="69" t="s">
+        <v>14</v>
+      </c>
+      <c r="N10" s="70">
+        <v>0.60229999999999995</v>
+      </c>
+      <c r="O10" s="70">
+        <v>0.69069999999999998</v>
+      </c>
+      <c r="P10" s="70">
+        <v>0.61870000000000003</v>
+      </c>
+      <c r="Q10" s="70">
+        <v>0.64159999999999995</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="41"/>
+      <c r="B11" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="22">
+      <c r="C11" s="21">
         <v>0.62909999999999999</v>
       </c>
-      <c r="D11" s="23">
+      <c r="D11" s="22">
         <v>0.71950000000000003</v>
       </c>
-      <c r="E11" s="23">
+      <c r="E11" s="22">
         <v>0.64890000000000003</v>
       </c>
-      <c r="F11" s="23">
+      <c r="F11" s="22">
         <v>0.6583</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="33"/>
-      <c r="B12" s="16" t="s">
+      <c r="L11" s="72"/>
+      <c r="M11" s="69" t="s">
+        <v>15</v>
+      </c>
+      <c r="N11" s="70">
+        <v>0.62909999999999999</v>
+      </c>
+      <c r="O11" s="70">
+        <v>0.71950000000000003</v>
+      </c>
+      <c r="P11" s="70">
+        <v>0.64890000000000003</v>
+      </c>
+      <c r="Q11" s="70">
+        <v>0.6583</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="41"/>
+      <c r="B12" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="24">
+      <c r="C12" s="23">
         <v>0.66</v>
       </c>
-      <c r="D12" s="25">
+      <c r="D12" s="24">
         <v>0.73599999999999999</v>
       </c>
-      <c r="E12" s="25">
+      <c r="E12" s="24">
         <v>0.67500000000000004</v>
       </c>
-      <c r="F12" s="25">
+      <c r="F12" s="24">
         <v>0.68400000000000005</v>
       </c>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
-    </row>
-    <row r="13" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="34"/>
-      <c r="B13" s="21" t="s">
+      <c r="L12" s="72"/>
+      <c r="M12" s="69" t="s">
+        <v>16</v>
+      </c>
+      <c r="N12" s="71">
+        <v>0.66</v>
+      </c>
+      <c r="O12" s="71">
+        <v>0.73599999999999999</v>
+      </c>
+      <c r="P12" s="71">
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="Q12" s="71">
+        <v>0.68400000000000005</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="42"/>
+      <c r="B13" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="24">
+      <c r="C13" s="23">
         <v>0.247</v>
       </c>
-      <c r="D13" s="25">
+      <c r="D13" s="24">
         <v>0.42899999999999999</v>
       </c>
-      <c r="E13" s="25">
+      <c r="E13" s="24">
         <v>0.29099999999999998</v>
       </c>
-      <c r="F13" s="25">
+      <c r="F13" s="24">
         <v>0.29199999999999998</v>
       </c>
       <c r="H13" s="11"/>
@@ -1851,194 +4105,322 @@
         <v>18</v>
       </c>
       <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="11"/>
-    </row>
-    <row r="14" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="32" t="s">
+      <c r="L13" s="74"/>
+      <c r="M13" s="69" t="s">
+        <v>17</v>
+      </c>
+      <c r="N13" s="71">
+        <v>0.247</v>
+      </c>
+      <c r="O13" s="71">
+        <v>0.42899999999999999</v>
+      </c>
+      <c r="P13" s="71">
+        <v>0.29099999999999998</v>
+      </c>
+      <c r="Q13" s="71">
+        <v>0.29199999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="22">
+      <c r="C14" s="21">
         <v>0.63160000000000005</v>
       </c>
-      <c r="D14" s="23">
+      <c r="D14" s="22">
         <v>0.72199999999999998</v>
       </c>
-      <c r="E14" s="23">
+      <c r="E14" s="22">
         <v>0.66200000000000003</v>
       </c>
-      <c r="F14" s="23">
+      <c r="F14" s="22">
         <v>0.65680000000000005</v>
       </c>
-      <c r="M14" s="11"/>
-      <c r="N14" s="11"/>
-    </row>
-    <row r="15" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="33"/>
-      <c r="B15" s="16" t="s">
+      <c r="L14" s="75" t="s">
+        <v>7</v>
+      </c>
+      <c r="M14" s="69" t="s">
+        <v>12</v>
+      </c>
+      <c r="N14" s="70">
+        <v>0.63160000000000005</v>
+      </c>
+      <c r="O14" s="70">
+        <v>0.72199999999999998</v>
+      </c>
+      <c r="P14" s="70">
+        <v>0.66200000000000003</v>
+      </c>
+      <c r="Q14" s="70">
+        <v>0.65680000000000005</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="41"/>
+      <c r="B15" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="22">
+      <c r="C15" s="21">
         <v>0.66910000000000003</v>
       </c>
-      <c r="D15" s="23">
+      <c r="D15" s="22">
         <v>0.76890000000000003</v>
       </c>
-      <c r="E15" s="23">
+      <c r="E15" s="22">
         <v>0.70479999999999998</v>
       </c>
-      <c r="F15" s="23">
+      <c r="F15" s="22">
         <v>0.69220000000000004</v>
       </c>
-      <c r="M15" s="11"/>
-      <c r="N15" s="11"/>
-    </row>
-    <row r="16" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="33"/>
-      <c r="B16" s="16" t="s">
+      <c r="L15" s="72"/>
+      <c r="M15" s="69" t="s">
+        <v>13</v>
+      </c>
+      <c r="N15" s="70">
+        <v>0.66910000000000003</v>
+      </c>
+      <c r="O15" s="70">
+        <v>0.76890000000000003</v>
+      </c>
+      <c r="P15" s="70">
+        <v>0.70479999999999998</v>
+      </c>
+      <c r="Q15" s="70">
+        <v>0.69220000000000004</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="41"/>
+      <c r="B16" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="22">
+      <c r="C16" s="21">
         <v>0.60560000000000003</v>
       </c>
-      <c r="D16" s="23">
+      <c r="D16" s="22">
         <v>0.68089999999999995</v>
       </c>
-      <c r="E16" s="23">
+      <c r="E16" s="22">
         <v>0.62519999999999998</v>
       </c>
-      <c r="F16" s="23">
+      <c r="F16" s="22">
         <v>0.63670000000000004</v>
       </c>
-      <c r="M16" s="11"/>
-      <c r="N16" s="11"/>
-    </row>
-    <row r="17" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="33"/>
-      <c r="B17" s="16" t="s">
+      <c r="L16" s="72"/>
+      <c r="M16" s="69" t="s">
+        <v>14</v>
+      </c>
+      <c r="N16" s="70">
+        <v>0.60560000000000003</v>
+      </c>
+      <c r="O16" s="70">
+        <v>0.68089999999999995</v>
+      </c>
+      <c r="P16" s="70">
+        <v>0.62519999999999998</v>
+      </c>
+      <c r="Q16" s="70">
+        <v>0.63670000000000004</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="41"/>
+      <c r="B17" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="22">
+      <c r="C17" s="21">
         <v>0.63570000000000004</v>
       </c>
-      <c r="D17" s="23">
+      <c r="D17" s="22">
         <v>0.72219999999999995</v>
       </c>
-      <c r="E17" s="23">
+      <c r="E17" s="22">
         <v>0.66259999999999997</v>
       </c>
-      <c r="F17" s="23">
+      <c r="F17" s="22">
         <v>0.6633</v>
       </c>
-      <c r="M17" s="11"/>
-      <c r="N17" s="11"/>
-    </row>
-    <row r="18" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="33"/>
-      <c r="B18" s="16" t="s">
+      <c r="L17" s="72"/>
+      <c r="M17" s="69" t="s">
+        <v>15</v>
+      </c>
+      <c r="N17" s="70">
+        <v>0.63570000000000004</v>
+      </c>
+      <c r="O17" s="70">
+        <v>0.72219999999999995</v>
+      </c>
+      <c r="P17" s="70">
+        <v>0.66259999999999997</v>
+      </c>
+      <c r="Q17" s="70">
+        <v>0.6633</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="41"/>
+      <c r="B18" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="24">
+      <c r="C18" s="23">
         <v>0.68</v>
       </c>
-      <c r="D18" s="25">
+      <c r="D18" s="24">
         <v>0.77100000000000002</v>
       </c>
-      <c r="E18" s="25">
+      <c r="E18" s="24">
         <v>0.70299999999999996</v>
       </c>
-      <c r="F18" s="25">
+      <c r="F18" s="24">
         <v>0.71299999999999997</v>
       </c>
-      <c r="M18" s="11"/>
-      <c r="N18" s="11"/>
-    </row>
-    <row r="19" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="34"/>
-      <c r="B19" s="21" t="s">
+      <c r="L18" s="72"/>
+      <c r="M18" s="69" t="s">
+        <v>16</v>
+      </c>
+      <c r="N18" s="71">
+        <v>0.68</v>
+      </c>
+      <c r="O18" s="71">
+        <v>0.77100000000000002</v>
+      </c>
+      <c r="P18" s="71">
+        <v>0.70299999999999996</v>
+      </c>
+      <c r="Q18" s="71">
+        <v>0.71299999999999997</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="42"/>
+      <c r="B19" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="24">
+      <c r="C19" s="23">
         <v>0.26500000000000001</v>
       </c>
-      <c r="D19" s="25">
+      <c r="D19" s="24">
         <v>0.44600000000000001</v>
       </c>
-      <c r="E19" s="25">
+      <c r="E19" s="24">
         <v>0.32600000000000001</v>
       </c>
-      <c r="F19" s="25">
+      <c r="F19" s="24">
         <v>0.315</v>
       </c>
-      <c r="M19" s="12"/>
-      <c r="N19" s="11"/>
-    </row>
-    <row r="20" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="32" t="s">
+      <c r="L19" s="74"/>
+      <c r="M19" s="69" t="s">
+        <v>17</v>
+      </c>
+      <c r="N19" s="71">
+        <v>0.26500000000000001</v>
+      </c>
+      <c r="O19" s="71">
+        <v>0.44600000000000001</v>
+      </c>
+      <c r="P19" s="71">
+        <v>0.32600000000000001</v>
+      </c>
+      <c r="Q19" s="71">
+        <v>0.315</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="22">
+      <c r="C20" s="21">
         <v>0.64729999999999999</v>
       </c>
-      <c r="D20" s="23">
+      <c r="D20" s="22">
         <v>0.70889999999999997</v>
       </c>
-      <c r="E20" s="23">
+      <c r="E20" s="22">
         <v>0.68030000000000002</v>
       </c>
-      <c r="F20" s="23">
+      <c r="F20" s="22">
         <v>0.67330000000000001</v>
       </c>
-      <c r="M20" s="11"/>
-      <c r="N20" s="11"/>
-    </row>
-    <row r="21" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="33"/>
-      <c r="B21" s="16" t="s">
+      <c r="L20" s="75" t="s">
+        <v>8</v>
+      </c>
+      <c r="M20" s="69" t="s">
+        <v>12</v>
+      </c>
+      <c r="N20" s="70">
+        <v>0.64729999999999999</v>
+      </c>
+      <c r="O20" s="70">
+        <v>0.70889999999999997</v>
+      </c>
+      <c r="P20" s="70">
+        <v>0.68030000000000002</v>
+      </c>
+      <c r="Q20" s="70">
+        <v>0.67330000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="41"/>
+      <c r="B21" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="22">
+      <c r="C21" s="21">
         <v>0.68600000000000005</v>
       </c>
-      <c r="D21" s="23">
+      <c r="D21" s="22">
         <v>0.75749999999999995</v>
       </c>
-      <c r="E21" s="23">
+      <c r="E21" s="22">
         <v>0.71970000000000001</v>
       </c>
-      <c r="F21" s="23">
+      <c r="F21" s="22">
         <v>0.71099999999999997</v>
       </c>
       <c r="H21" s="11"/>
-      <c r="I21" s="13"/>
+      <c r="I21" s="12"/>
       <c r="J21" s="11"/>
       <c r="K21" s="11"/>
-      <c r="L21" s="11"/>
-      <c r="M21" s="11"/>
-      <c r="N21" s="11"/>
-    </row>
-    <row r="22" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="33"/>
-      <c r="B22" s="16" t="s">
+      <c r="L21" s="72"/>
+      <c r="M21" s="69" t="s">
+        <v>13</v>
+      </c>
+      <c r="N21" s="70">
+        <v>0.68600000000000005</v>
+      </c>
+      <c r="O21" s="70">
+        <v>0.75749999999999995</v>
+      </c>
+      <c r="P21" s="70">
+        <v>0.71970000000000001</v>
+      </c>
+      <c r="Q21" s="70">
+        <v>0.71099999999999997</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="41"/>
+      <c r="B22" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="22">
+      <c r="C22" s="21">
         <v>0.61870000000000003</v>
       </c>
-      <c r="D22" s="23">
+      <c r="D22" s="22">
         <v>0.66449999999999998</v>
       </c>
-      <c r="E22" s="23">
+      <c r="E22" s="22">
         <v>0.65139999999999998</v>
       </c>
-      <c r="F22" s="23">
+      <c r="F22" s="22">
         <v>0.64810000000000001</v>
       </c>
       <c r="H22" s="11"/>
@@ -2047,427 +4429,873 @@
       </c>
       <c r="J22" s="11"/>
       <c r="K22" s="11"/>
-      <c r="L22" s="11"/>
-      <c r="M22" s="11"/>
-      <c r="N22" s="11"/>
-    </row>
-    <row r="23" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="33"/>
-      <c r="B23" s="16" t="s">
+      <c r="L22" s="72"/>
+      <c r="M22" s="69" t="s">
+        <v>14</v>
+      </c>
+      <c r="N22" s="70">
+        <v>0.61870000000000003</v>
+      </c>
+      <c r="O22" s="70">
+        <v>0.66449999999999998</v>
+      </c>
+      <c r="P22" s="70">
+        <v>0.65139999999999998</v>
+      </c>
+      <c r="Q22" s="70">
+        <v>0.64810000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="41"/>
+      <c r="B23" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="22">
+      <c r="C23" s="21">
         <v>0.65059999999999996</v>
       </c>
-      <c r="D23" s="23">
+      <c r="D23" s="22">
         <v>0.70789999999999997</v>
       </c>
-      <c r="E23" s="23">
+      <c r="E23" s="22">
         <v>0.68379999999999996</v>
       </c>
-      <c r="F23" s="23">
+      <c r="F23" s="22">
         <v>0.67810000000000004</v>
       </c>
       <c r="H23" s="11"/>
-      <c r="M23" s="11"/>
-      <c r="N23" s="11"/>
-    </row>
-    <row r="24" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="33"/>
-      <c r="B24" s="16" t="s">
+      <c r="L23" s="72"/>
+      <c r="M23" s="69" t="s">
+        <v>15</v>
+      </c>
+      <c r="N23" s="70">
+        <v>0.65059999999999996</v>
+      </c>
+      <c r="O23" s="70">
+        <v>0.70789999999999997</v>
+      </c>
+      <c r="P23" s="70">
+        <v>0.68379999999999996</v>
+      </c>
+      <c r="Q23" s="70">
+        <v>0.67810000000000004</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="41"/>
+      <c r="B24" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="24">
+      <c r="C24" s="23">
         <v>0.69399999999999995</v>
       </c>
-      <c r="D24" s="25">
+      <c r="D24" s="24">
         <v>0.76100000000000001</v>
       </c>
-      <c r="E24" s="25">
+      <c r="E24" s="24">
         <v>0.71699999999999997</v>
       </c>
-      <c r="F24" s="25">
+      <c r="F24" s="24">
         <v>0.72499999999999998</v>
       </c>
       <c r="H24" s="11"/>
-      <c r="M24" s="11"/>
-      <c r="N24" s="11"/>
-    </row>
-    <row r="25" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="34"/>
-      <c r="B25" s="21" t="s">
+      <c r="L24" s="72"/>
+      <c r="M24" s="69" t="s">
+        <v>16</v>
+      </c>
+      <c r="N24" s="71">
+        <v>0.69399999999999995</v>
+      </c>
+      <c r="O24" s="71">
+        <v>0.76100000000000001</v>
+      </c>
+      <c r="P24" s="71">
+        <v>0.71699999999999997</v>
+      </c>
+      <c r="Q24" s="71">
+        <v>0.72499999999999998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="42"/>
+      <c r="B25" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="24">
+      <c r="C25" s="23">
         <v>0.29599999999999999</v>
       </c>
-      <c r="D25" s="25">
+      <c r="D25" s="24">
         <v>0.42</v>
       </c>
-      <c r="E25" s="25">
+      <c r="E25" s="24">
         <v>0.36199999999999999</v>
       </c>
-      <c r="F25" s="25">
+      <c r="F25" s="24">
         <v>0.34799999999999998</v>
       </c>
       <c r="H25" s="11"/>
       <c r="I25" t="s">
         <v>20</v>
       </c>
-      <c r="M25" s="11"/>
-      <c r="N25" s="11"/>
-    </row>
-    <row r="26" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="32" t="s">
+      <c r="L25" s="74"/>
+      <c r="M25" s="69" t="s">
+        <v>17</v>
+      </c>
+      <c r="N25" s="71">
+        <v>0.29599999999999999</v>
+      </c>
+      <c r="O25" s="71">
+        <v>0.42</v>
+      </c>
+      <c r="P25" s="71">
+        <v>0.36199999999999999</v>
+      </c>
+      <c r="Q25" s="71">
+        <v>0.34799999999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="B26" s="16" t="s">
+      <c r="B26" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C26" s="22">
+      <c r="C26" s="21">
         <v>0.63939999999999997</v>
       </c>
-      <c r="D26" s="23">
+      <c r="D26" s="22">
         <v>0.70889999999999997</v>
       </c>
-      <c r="E26" s="23">
+      <c r="E26" s="22">
         <v>0.65939999999999999</v>
       </c>
-      <c r="F26" s="23">
+      <c r="F26" s="22">
         <v>0.68200000000000005</v>
       </c>
       <c r="H26" s="11"/>
-      <c r="M26" s="11"/>
-      <c r="N26" s="11"/>
-    </row>
-    <row r="27" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="33"/>
-      <c r="B27" s="16" t="s">
+      <c r="L26" s="75" t="s">
+        <v>9</v>
+      </c>
+      <c r="M26" s="69" t="s">
+        <v>12</v>
+      </c>
+      <c r="N26" s="70">
+        <v>0.63939999999999997</v>
+      </c>
+      <c r="O26" s="70">
+        <v>0.70889999999999997</v>
+      </c>
+      <c r="P26" s="70">
+        <v>0.65939999999999999</v>
+      </c>
+      <c r="Q26" s="70">
+        <v>0.68200000000000005</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="41"/>
+      <c r="B27" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C27" s="22">
+      <c r="C27" s="21">
         <v>0.67879999999999996</v>
       </c>
-      <c r="D27" s="23">
+      <c r="D27" s="22">
         <v>0.76849999999999996</v>
       </c>
-      <c r="E27" s="23">
+      <c r="E27" s="22">
         <v>0.70020000000000004</v>
       </c>
-      <c r="F27" s="23">
+      <c r="F27" s="22">
         <v>0.72150000000000003</v>
       </c>
       <c r="H27" s="11"/>
-      <c r="M27" s="11"/>
-      <c r="N27" s="11"/>
-    </row>
-    <row r="28" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="33"/>
-      <c r="B28" s="16" t="s">
+      <c r="L27" s="72"/>
+      <c r="M27" s="69" t="s">
+        <v>13</v>
+      </c>
+      <c r="N27" s="70">
+        <v>0.67879999999999996</v>
+      </c>
+      <c r="O27" s="70">
+        <v>0.76849999999999996</v>
+      </c>
+      <c r="P27" s="70">
+        <v>0.70020000000000004</v>
+      </c>
+      <c r="Q27" s="70">
+        <v>0.72150000000000003</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="41"/>
+      <c r="B28" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C28" s="22">
+      <c r="C28" s="21">
         <v>0.60880000000000001</v>
       </c>
-      <c r="D28" s="23">
+      <c r="D28" s="22">
         <v>0.64649999999999996</v>
       </c>
-      <c r="E28" s="23">
+      <c r="E28" s="22">
         <v>0.62680000000000002</v>
       </c>
-      <c r="F28" s="23">
+      <c r="F28" s="22">
         <v>0.65200000000000002</v>
       </c>
       <c r="H28" s="11"/>
-      <c r="M28" s="11"/>
-      <c r="N28" s="11"/>
-    </row>
-    <row r="29" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="33"/>
-      <c r="B29" s="16" t="s">
+      <c r="L28" s="72"/>
+      <c r="M28" s="69" t="s">
+        <v>14</v>
+      </c>
+      <c r="N28" s="70">
+        <v>0.60880000000000001</v>
+      </c>
+      <c r="O28" s="70">
+        <v>0.64649999999999996</v>
+      </c>
+      <c r="P28" s="70">
+        <v>0.62680000000000002</v>
+      </c>
+      <c r="Q28" s="70">
+        <v>0.65200000000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="41"/>
+      <c r="B29" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C29" s="22">
+      <c r="C29" s="21">
         <v>0.64190000000000003</v>
       </c>
-      <c r="D29" s="23">
+      <c r="D29" s="22">
         <v>0.70220000000000005</v>
       </c>
-      <c r="E29" s="23">
+      <c r="E29" s="22">
         <v>0.66149999999999998</v>
       </c>
-      <c r="F29" s="23">
+      <c r="F29" s="22">
         <v>0.68559999999999999</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="33"/>
-      <c r="B30" s="16" t="s">
+      <c r="L29" s="72"/>
+      <c r="M29" s="69" t="s">
+        <v>15</v>
+      </c>
+      <c r="N29" s="70">
+        <v>0.64190000000000003</v>
+      </c>
+      <c r="O29" s="70">
+        <v>0.70220000000000005</v>
+      </c>
+      <c r="P29" s="70">
+        <v>0.66149999999999998</v>
+      </c>
+      <c r="Q29" s="70">
+        <v>0.68559999999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="41"/>
+      <c r="B30" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C30" s="24">
+      <c r="C30" s="23">
         <v>0.69599999999999995</v>
       </c>
-      <c r="D30" s="25">
+      <c r="D30" s="24">
         <v>0.76700000000000002</v>
       </c>
-      <c r="E30" s="25">
+      <c r="E30" s="24">
         <v>0.70799999999999996</v>
       </c>
-      <c r="F30" s="25">
+      <c r="F30" s="24">
         <v>0.73099999999999998</v>
       </c>
-    </row>
-    <row r="31" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="34"/>
-      <c r="B31" s="21" t="s">
+      <c r="L30" s="72"/>
+      <c r="M30" s="69" t="s">
+        <v>16</v>
+      </c>
+      <c r="N30" s="71">
+        <v>0.69599999999999995</v>
+      </c>
+      <c r="O30" s="71">
+        <v>0.76700000000000002</v>
+      </c>
+      <c r="P30" s="71">
+        <v>0.70799999999999996</v>
+      </c>
+      <c r="Q30" s="71">
+        <v>0.73099999999999998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="42"/>
+      <c r="B31" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C31" s="24">
+      <c r="C31" s="23">
         <v>0.28100000000000003</v>
       </c>
-      <c r="D31" s="25">
+      <c r="D31" s="24">
         <v>0.42199999999999999</v>
       </c>
-      <c r="E31" s="25">
+      <c r="E31" s="24">
         <v>0.32100000000000001</v>
       </c>
-      <c r="F31" s="25">
+      <c r="F31" s="24">
         <v>0.36599999999999999</v>
       </c>
-    </row>
-    <row r="32" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="32" t="s">
+      <c r="L31" s="74"/>
+      <c r="M31" s="69" t="s">
+        <v>17</v>
+      </c>
+      <c r="N31" s="71">
+        <v>0.28100000000000003</v>
+      </c>
+      <c r="O31" s="71">
+        <v>0.42199999999999999</v>
+      </c>
+      <c r="P31" s="71">
+        <v>0.32100000000000001</v>
+      </c>
+      <c r="Q31" s="71">
+        <v>0.36599999999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="B32" s="16" t="s">
+      <c r="B32" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C32" s="22">
+      <c r="C32" s="21">
         <v>0.53690000000000004</v>
       </c>
-      <c r="D32" s="23">
+      <c r="D32" s="22">
         <v>0.54390000000000005</v>
       </c>
-      <c r="E32" s="23">
+      <c r="E32" s="22">
         <v>0.54390000000000005</v>
       </c>
-      <c r="F32" s="23">
+      <c r="F32" s="22">
         <v>0.53259999999999996</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="33"/>
-      <c r="B33" s="16" t="s">
+      <c r="L32" s="75" t="s">
+        <v>10</v>
+      </c>
+      <c r="M32" s="69" t="s">
+        <v>12</v>
+      </c>
+      <c r="N32" s="70">
+        <v>0.53690000000000004</v>
+      </c>
+      <c r="O32" s="70">
+        <v>0.54390000000000005</v>
+      </c>
+      <c r="P32" s="70">
+        <v>0.54390000000000005</v>
+      </c>
+      <c r="Q32" s="70">
+        <v>0.53259999999999996</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="41"/>
+      <c r="B33" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C33" s="22">
+      <c r="C33" s="21">
         <v>0.56269999999999998</v>
       </c>
-      <c r="D33" s="23">
+      <c r="D33" s="22">
         <v>0.53800000000000003</v>
       </c>
-      <c r="E33" s="23">
+      <c r="E33" s="22">
         <v>0.58240000000000003</v>
       </c>
-      <c r="F33" s="23">
+      <c r="F33" s="22">
         <v>0.53539999999999999</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="33"/>
-      <c r="B34" s="16" t="s">
+      <c r="L33" s="72"/>
+      <c r="M33" s="69" t="s">
+        <v>13</v>
+      </c>
+      <c r="N33" s="70">
+        <v>0.56269999999999998</v>
+      </c>
+      <c r="O33" s="70">
+        <v>0.53800000000000003</v>
+      </c>
+      <c r="P33" s="70">
+        <v>0.58240000000000003</v>
+      </c>
+      <c r="Q33" s="70">
+        <v>0.53539999999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="41"/>
+      <c r="B34" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C34" s="22">
+      <c r="C34" s="21">
         <v>0.57279999999999998</v>
       </c>
-      <c r="D34" s="23">
+      <c r="D34" s="22">
         <v>0.99670000000000003</v>
       </c>
-      <c r="E34" s="23">
+      <c r="E34" s="22">
         <v>0.4975</v>
       </c>
-      <c r="F34" s="23">
+      <c r="F34" s="22">
         <v>0.90339999999999998</v>
       </c>
       <c r="J34" s="3"/>
-    </row>
-    <row r="35" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="33"/>
-      <c r="B35" s="16" t="s">
+      <c r="L34" s="72"/>
+      <c r="M34" s="69" t="s">
+        <v>14</v>
+      </c>
+      <c r="N34" s="70">
+        <v>0.57279999999999998</v>
+      </c>
+      <c r="O34" s="70">
+        <v>0.99670000000000003</v>
+      </c>
+      <c r="P34" s="70">
+        <v>0.4975</v>
+      </c>
+      <c r="Q34" s="70">
+        <v>0.90339999999999998</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="41"/>
+      <c r="B35" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C35" s="22">
+      <c r="C35" s="21">
         <v>0.56769999999999998</v>
       </c>
-      <c r="D35" s="23">
+      <c r="D35" s="22">
         <v>0.69879999999999998</v>
       </c>
-      <c r="E35" s="23">
+      <c r="E35" s="22">
         <v>0.53659999999999997</v>
       </c>
-      <c r="F35" s="23">
+      <c r="F35" s="22">
         <v>0.67230000000000001</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="33"/>
-      <c r="B36" s="16" t="s">
+      <c r="L35" s="72"/>
+      <c r="M35" s="69" t="s">
+        <v>15</v>
+      </c>
+      <c r="N35" s="70">
+        <v>0.56769999999999998</v>
+      </c>
+      <c r="O35" s="70">
+        <v>0.69879999999999998</v>
+      </c>
+      <c r="P35" s="70">
+        <v>0.53659999999999997</v>
+      </c>
+      <c r="Q35" s="70">
+        <v>0.67230000000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="41"/>
+      <c r="B36" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C36" s="24">
+      <c r="C36" s="23">
         <v>0.54900000000000004</v>
       </c>
-      <c r="D36" s="25">
+      <c r="D36" s="24">
         <v>0.54800000000000004</v>
       </c>
-      <c r="E36" s="25">
+      <c r="E36" s="24">
         <v>0.56499999999999995</v>
       </c>
-      <c r="F36" s="25">
+      <c r="F36" s="24">
         <v>0.52900000000000003</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="34"/>
-      <c r="B37" s="21" t="s">
+      <c r="L36" s="72"/>
+      <c r="M36" s="69" t="s">
+        <v>16</v>
+      </c>
+      <c r="N36" s="71">
+        <v>0.54900000000000004</v>
+      </c>
+      <c r="O36" s="71">
+        <v>0.54800000000000004</v>
+      </c>
+      <c r="P36" s="71">
+        <v>0.56499999999999995</v>
+      </c>
+      <c r="Q36" s="71">
+        <v>0.52900000000000003</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="42"/>
+      <c r="B37" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C37" s="24">
+      <c r="C37" s="23">
         <v>6.9000000000000006E-2</v>
       </c>
-      <c r="D37" s="25">
+      <c r="D37" s="24">
         <v>0.03</v>
       </c>
-      <c r="E37" s="25">
+      <c r="E37" s="24">
         <v>9.2999999999999999E-2</v>
       </c>
-      <c r="F37" s="25">
+      <c r="F37" s="24">
         <v>1.7000000000000001E-2</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="32" t="s">
+      <c r="L37" s="74"/>
+      <c r="M37" s="69" t="s">
+        <v>17</v>
+      </c>
+      <c r="N37" s="71">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="O37" s="71">
+        <v>0.03</v>
+      </c>
+      <c r="P37" s="71">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="Q37" s="71">
+        <v>1.7000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="B38" s="16" t="s">
+      <c r="B38" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C38" s="22">
+      <c r="C38" s="21">
         <v>0.60299999999999998</v>
       </c>
-      <c r="D38" s="23">
+      <c r="D38" s="22">
         <v>0.65680000000000005</v>
       </c>
-      <c r="E38" s="23">
+      <c r="E38" s="22">
         <v>0.65069999999999995</v>
       </c>
-      <c r="F38" s="23">
+      <c r="F38" s="22">
         <v>0.59770000000000001</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="33"/>
-      <c r="B39" s="16" t="s">
+      <c r="L38" s="75" t="s">
+        <v>11</v>
+      </c>
+      <c r="M38" s="69" t="s">
+        <v>12</v>
+      </c>
+      <c r="N38" s="70">
+        <v>0.60299999999999998</v>
+      </c>
+      <c r="O38" s="70">
+        <v>0.65680000000000005</v>
+      </c>
+      <c r="P38" s="70">
+        <v>0.65069999999999995</v>
+      </c>
+      <c r="Q38" s="70">
+        <v>0.59770000000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="41"/>
+      <c r="B39" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C39" s="22">
+      <c r="C39" s="21">
         <v>0.81559999999999999</v>
       </c>
-      <c r="D39" s="23">
+      <c r="D39" s="22">
         <v>0.73280000000000001</v>
       </c>
-      <c r="E39" s="23">
+      <c r="E39" s="22">
         <v>0.74590000000000001</v>
       </c>
-      <c r="F39" s="23">
+      <c r="F39" s="22">
         <v>0.64449999999999996</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="33"/>
-      <c r="B40" s="16" t="s">
+      <c r="L39" s="72"/>
+      <c r="M39" s="69" t="s">
+        <v>13</v>
+      </c>
+      <c r="N39" s="70">
+        <v>0.81559999999999999</v>
+      </c>
+      <c r="O39" s="70">
+        <v>0.73280000000000001</v>
+      </c>
+      <c r="P39" s="70">
+        <v>0.74590000000000001</v>
+      </c>
+      <c r="Q39" s="70">
+        <v>0.64449999999999996</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="41"/>
+      <c r="B40" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C40" s="22">
+      <c r="C40" s="21">
         <v>0.32569999999999999</v>
       </c>
-      <c r="D40" s="23">
+      <c r="D40" s="22">
         <v>0.55649999999999999</v>
       </c>
-      <c r="E40" s="23">
+      <c r="E40" s="22">
         <v>0.51880000000000004</v>
       </c>
-      <c r="F40" s="23">
+      <c r="F40" s="22">
         <v>0.54010000000000002</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="33"/>
-      <c r="B41" s="16" t="s">
+      <c r="L40" s="72"/>
+      <c r="M40" s="69" t="s">
+        <v>14</v>
+      </c>
+      <c r="N40" s="70">
+        <v>0.32569999999999999</v>
+      </c>
+      <c r="O40" s="70">
+        <v>0.55649999999999999</v>
+      </c>
+      <c r="P40" s="70">
+        <v>0.51880000000000004</v>
+      </c>
+      <c r="Q40" s="70">
+        <v>0.54010000000000002</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="41"/>
+      <c r="B41" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C41" s="22">
+      <c r="C41" s="21">
         <v>0.46550000000000002</v>
       </c>
-      <c r="D41" s="23">
+      <c r="D41" s="22">
         <v>0.63260000000000005</v>
       </c>
-      <c r="E41" s="23">
+      <c r="E41" s="22">
         <v>0.61199999999999999</v>
       </c>
-      <c r="F41" s="23">
+      <c r="F41" s="22">
         <v>0.5877</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="33"/>
-      <c r="B42" s="16" t="s">
+      <c r="L41" s="72"/>
+      <c r="M41" s="69" t="s">
+        <v>15</v>
+      </c>
+      <c r="N41" s="70">
+        <v>0.46550000000000002</v>
+      </c>
+      <c r="O41" s="70">
+        <v>0.63260000000000005</v>
+      </c>
+      <c r="P41" s="70">
+        <v>0.61199999999999999</v>
+      </c>
+      <c r="Q41" s="70">
+        <v>0.5877</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="41"/>
+      <c r="B42" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C42" s="24">
+      <c r="C42" s="23">
         <v>0.68899999999999995</v>
       </c>
-      <c r="D42" s="25">
+      <c r="D42" s="24">
         <v>0.67800000000000005</v>
       </c>
-      <c r="E42" s="25">
+      <c r="E42" s="24">
         <v>0.7</v>
       </c>
-      <c r="F42" s="25">
+      <c r="F42" s="24">
         <v>0.65200000000000002</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="34"/>
-      <c r="B43" s="21" t="s">
+      <c r="L42" s="72"/>
+      <c r="M42" s="69" t="s">
+        <v>16</v>
+      </c>
+      <c r="N42" s="71">
+        <v>0.68899999999999995</v>
+      </c>
+      <c r="O42" s="71">
+        <v>0.67800000000000005</v>
+      </c>
+      <c r="P42" s="71">
+        <v>0.7</v>
+      </c>
+      <c r="Q42" s="71">
+        <v>0.65200000000000002</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="42"/>
+      <c r="B43" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C43" s="24">
+      <c r="C43" s="23">
         <v>0.23300000000000001</v>
       </c>
-      <c r="D43" s="25">
+      <c r="D43" s="24">
         <v>0.32200000000000001</v>
       </c>
-      <c r="E43" s="25">
+      <c r="E43" s="24">
         <v>0.313</v>
       </c>
-      <c r="F43" s="25">
+      <c r="F43" s="24">
         <v>0.20100000000000001</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L43" s="76"/>
+      <c r="M43" s="69" t="s">
+        <v>17</v>
+      </c>
+      <c r="N43" s="71">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="O43" s="71">
+        <v>0.32200000000000001</v>
+      </c>
+      <c r="P43" s="71">
+        <v>0.313</v>
+      </c>
+      <c r="Q43" s="71">
+        <v>0.20100000000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
-    </row>
-    <row r="45" spans="1:10" ht="157.80000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="56" ht="157.80000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+      <c r="L44" s="73" t="s">
+        <v>21</v>
+      </c>
+      <c r="M44" s="69" t="s">
+        <v>12</v>
+      </c>
+      <c r="N44" s="70">
+        <v>0.7046</v>
+      </c>
+      <c r="O44" s="70">
+        <v>0.73409999999999997</v>
+      </c>
+      <c r="P44" s="71"/>
+      <c r="Q44" s="70">
+        <v>0.69499999999999995</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" ht="41.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L45" s="72"/>
+      <c r="M45" s="69" t="s">
+        <v>13</v>
+      </c>
+      <c r="N45" s="70">
+        <v>0.79900000000000004</v>
+      </c>
+      <c r="O45" s="70">
+        <v>0.80979999999999996</v>
+      </c>
+      <c r="P45" s="71"/>
+      <c r="Q45" s="70">
+        <v>0.79090000000000005</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L46" s="72"/>
+      <c r="M46" s="69" t="s">
+        <v>14</v>
+      </c>
+      <c r="N46" s="70">
+        <v>0.60240000000000005</v>
+      </c>
+      <c r="O46" s="70">
+        <v>0.67100000000000004</v>
+      </c>
+      <c r="P46" s="71"/>
+      <c r="Q46" s="70">
+        <v>0.59230000000000005</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L47" s="72"/>
+      <c r="M47" s="69" t="s">
+        <v>15</v>
+      </c>
+      <c r="N47" s="70">
+        <v>0.68210000000000004</v>
+      </c>
+      <c r="O47" s="71">
+        <v>72.66</v>
+      </c>
+      <c r="P47" s="71"/>
+      <c r="Q47" s="70">
+        <v>0.66659999999999997</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L48" s="72"/>
+      <c r="M48" s="69" t="s">
+        <v>16</v>
+      </c>
+      <c r="N48" s="71">
+        <v>0.79700000000000004</v>
+      </c>
+      <c r="O48" s="71">
+        <v>0.8</v>
+      </c>
+      <c r="P48" s="71"/>
+      <c r="Q48" s="71">
+        <v>0.77600000000000002</v>
+      </c>
+    </row>
+    <row r="49" spans="12:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L49" s="76"/>
+      <c r="M49" s="69" t="s">
+        <v>17</v>
+      </c>
+      <c r="N49" s="71">
+        <v>0.41599999999999998</v>
+      </c>
+      <c r="O49" s="71">
+        <v>0.47</v>
+      </c>
+      <c r="P49" s="71"/>
+      <c r="Q49" s="71">
+        <v>0.39600000000000002</v>
+      </c>
+    </row>
+    <row r="56" spans="12:17" ht="157.80000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="67" ht="157.80000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="78" ht="157.80000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="89" ht="157.80000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="15">
+    <mergeCell ref="L20:L25"/>
+    <mergeCell ref="L26:L31"/>
+    <mergeCell ref="L32:L37"/>
+    <mergeCell ref="L38:L43"/>
+    <mergeCell ref="L44:L49"/>
+    <mergeCell ref="L2:L7"/>
+    <mergeCell ref="L8:L13"/>
+    <mergeCell ref="L14:L19"/>
     <mergeCell ref="A38:A43"/>
     <mergeCell ref="A2:A7"/>
     <mergeCell ref="A8:A13"/>
@@ -2479,4 +5307,1791 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AE61"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="Y1" sqref="Y1:AE11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.88671875" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" customWidth="1"/>
+    <col min="9" max="9" width="18" customWidth="1"/>
+    <col min="13" max="13" width="10.44140625" customWidth="1"/>
+    <col min="17" max="17" width="17.77734375" customWidth="1"/>
+    <col min="21" max="21" width="10.21875" customWidth="1"/>
+    <col min="25" max="25" width="17.77734375" customWidth="1"/>
+    <col min="29" max="29" width="10.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A1" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
+      <c r="O1" s="46"/>
+      <c r="P1" s="45"/>
+      <c r="Q1" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="R1" s="44"/>
+      <c r="S1" s="44"/>
+      <c r="T1" s="44"/>
+      <c r="U1" s="44"/>
+      <c r="V1" s="44"/>
+      <c r="W1" s="44"/>
+      <c r="X1" s="45"/>
+      <c r="Y1" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z1" s="44"/>
+      <c r="AA1" s="44"/>
+      <c r="AB1" s="44"/>
+      <c r="AC1" s="44"/>
+      <c r="AD1" s="44"/>
+      <c r="AE1" s="44"/>
+    </row>
+    <row r="2" spans="1:31" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="44"/>
+      <c r="B2" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="45"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="O2" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="P2" s="45"/>
+      <c r="Q2" s="44"/>
+      <c r="R2" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="S2" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="T2" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="U2" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="V2" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="W2" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="X2" s="45"/>
+      <c r="Y2" s="44"/>
+      <c r="Z2" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA2" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB2" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC2" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD2" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE2" s="44" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="77">
+        <v>0.61250000000000004</v>
+      </c>
+      <c r="C3" s="77">
+        <v>0.64400000000000002</v>
+      </c>
+      <c r="D3" s="77">
+        <v>0.60389999999999999</v>
+      </c>
+      <c r="E3" s="77">
+        <v>0.62329999999999997</v>
+      </c>
+      <c r="F3" s="78">
+        <v>0.5</v>
+      </c>
+      <c r="G3" s="78">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="H3" s="47"/>
+      <c r="I3" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" s="79">
+        <v>0.68200000000000005</v>
+      </c>
+      <c r="K3" s="79">
+        <v>0.71599999999999997</v>
+      </c>
+      <c r="L3" s="79">
+        <v>0.66449999999999998</v>
+      </c>
+      <c r="M3" s="79">
+        <v>0.68930000000000002</v>
+      </c>
+      <c r="N3" s="80">
+        <v>0.5</v>
+      </c>
+      <c r="O3" s="80">
+        <v>0.36499999999999999</v>
+      </c>
+      <c r="P3" s="47"/>
+      <c r="Q3" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="R3" s="79">
+        <v>0.63339999999999996</v>
+      </c>
+      <c r="S3" s="79">
+        <v>0.66669999999999996</v>
+      </c>
+      <c r="T3" s="79">
+        <v>0.61870000000000003</v>
+      </c>
+      <c r="U3" s="79">
+        <v>0.64180000000000004</v>
+      </c>
+      <c r="V3" s="80">
+        <v>0.5</v>
+      </c>
+      <c r="W3" s="80">
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="X3" s="47"/>
+      <c r="Y3" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z3" s="79">
+        <v>0.67159999999999997</v>
+      </c>
+      <c r="AA3" s="79">
+        <v>0.69189999999999996</v>
+      </c>
+      <c r="AB3" s="79">
+        <v>0.68740000000000001</v>
+      </c>
+      <c r="AC3" s="79">
+        <v>0.68969999999999998</v>
+      </c>
+      <c r="AD3" s="80">
+        <v>0.3</v>
+      </c>
+      <c r="AE3" s="80">
+        <v>0.34100000000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="81">
+        <v>0.62290000000000001</v>
+      </c>
+      <c r="C4" s="81">
+        <v>0.6583</v>
+      </c>
+      <c r="D4" s="81">
+        <v>0.60229999999999995</v>
+      </c>
+      <c r="E4" s="81">
+        <v>0.62909999999999999</v>
+      </c>
+      <c r="F4" s="82">
+        <v>0.66</v>
+      </c>
+      <c r="G4" s="82">
+        <v>0.247</v>
+      </c>
+      <c r="H4" s="47"/>
+      <c r="I4" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" s="79">
+        <v>0.71419999999999995</v>
+      </c>
+      <c r="K4" s="79">
+        <v>0.75090000000000001</v>
+      </c>
+      <c r="L4" s="79">
+        <v>0.69069999999999998</v>
+      </c>
+      <c r="M4" s="79">
+        <v>0.71950000000000003</v>
+      </c>
+      <c r="N4" s="80">
+        <v>0.73599999999999999</v>
+      </c>
+      <c r="O4" s="80">
+        <v>0.42899999999999999</v>
+      </c>
+      <c r="P4" s="47"/>
+      <c r="Q4" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="R4" s="79">
+        <v>0.64470000000000005</v>
+      </c>
+      <c r="S4" s="79">
+        <v>0.68230000000000002</v>
+      </c>
+      <c r="T4" s="79">
+        <v>0.61870000000000003</v>
+      </c>
+      <c r="U4" s="79">
+        <v>0.64890000000000003</v>
+      </c>
+      <c r="V4" s="80">
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="W4" s="80">
+        <v>0.29099999999999998</v>
+      </c>
+      <c r="X4" s="47"/>
+      <c r="Y4" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z4" s="79">
+        <v>0.64639999999999997</v>
+      </c>
+      <c r="AA4" s="79">
+        <v>0.67589999999999995</v>
+      </c>
+      <c r="AB4" s="79">
+        <v>0.64159999999999995</v>
+      </c>
+      <c r="AC4" s="79">
+        <v>0.6583</v>
+      </c>
+      <c r="AD4" s="80">
+        <v>0.68400000000000005</v>
+      </c>
+      <c r="AE4" s="80">
+        <v>0.29199999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="81">
+        <v>0.63160000000000005</v>
+      </c>
+      <c r="C5" s="81">
+        <v>0.66910000000000003</v>
+      </c>
+      <c r="D5" s="81">
+        <v>0.60560000000000003</v>
+      </c>
+      <c r="E5" s="81">
+        <v>0.63570000000000004</v>
+      </c>
+      <c r="F5" s="82">
+        <v>0.68</v>
+      </c>
+      <c r="G5" s="82">
+        <v>0.26500000000000001</v>
+      </c>
+      <c r="H5" s="47"/>
+      <c r="I5" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="J5" s="79">
+        <v>0.72199999999999998</v>
+      </c>
+      <c r="K5" s="79">
+        <v>0.76890000000000003</v>
+      </c>
+      <c r="L5" s="79">
+        <v>0.68089999999999995</v>
+      </c>
+      <c r="M5" s="79">
+        <v>0.72219999999999995</v>
+      </c>
+      <c r="N5" s="80">
+        <v>0.77100000000000002</v>
+      </c>
+      <c r="O5" s="80">
+        <v>0.44600000000000001</v>
+      </c>
+      <c r="P5" s="47"/>
+      <c r="Q5" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="R5" s="79">
+        <v>0.66200000000000003</v>
+      </c>
+      <c r="S5" s="79">
+        <v>0.70479999999999998</v>
+      </c>
+      <c r="T5" s="79">
+        <v>0.62519999999999998</v>
+      </c>
+      <c r="U5" s="79">
+        <v>0.66259999999999997</v>
+      </c>
+      <c r="V5" s="80">
+        <v>0.70299999999999996</v>
+      </c>
+      <c r="W5" s="80">
+        <v>0.32600000000000001</v>
+      </c>
+      <c r="X5" s="47"/>
+      <c r="Y5" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z5" s="79">
+        <v>0.65680000000000005</v>
+      </c>
+      <c r="AA5" s="79">
+        <v>0.69220000000000004</v>
+      </c>
+      <c r="AB5" s="79">
+        <v>0.63670000000000004</v>
+      </c>
+      <c r="AC5" s="79">
+        <v>0.6633</v>
+      </c>
+      <c r="AD5" s="80">
+        <v>0.71299999999999997</v>
+      </c>
+      <c r="AE5" s="80">
+        <v>0.315</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="81">
+        <v>0.64729999999999999</v>
+      </c>
+      <c r="C6" s="81">
+        <v>0.68600000000000005</v>
+      </c>
+      <c r="D6" s="81">
+        <v>0.61870000000000003</v>
+      </c>
+      <c r="E6" s="81">
+        <v>0.65059999999999996</v>
+      </c>
+      <c r="F6" s="82">
+        <v>0.69399999999999995</v>
+      </c>
+      <c r="G6" s="82">
+        <v>0.29599999999999999</v>
+      </c>
+      <c r="H6" s="47"/>
+      <c r="I6" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="J6" s="79">
+        <v>0.70889999999999997</v>
+      </c>
+      <c r="K6" s="79">
+        <v>0.75749999999999995</v>
+      </c>
+      <c r="L6" s="79">
+        <v>0.66449999999999998</v>
+      </c>
+      <c r="M6" s="79">
+        <v>0.70789999999999997</v>
+      </c>
+      <c r="N6" s="80">
+        <v>0.76100000000000001</v>
+      </c>
+      <c r="O6" s="80">
+        <v>0.42</v>
+      </c>
+      <c r="P6" s="47"/>
+      <c r="Q6" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="R6" s="79">
+        <v>0.68030000000000002</v>
+      </c>
+      <c r="S6" s="79">
+        <v>0.71970000000000001</v>
+      </c>
+      <c r="T6" s="79">
+        <v>0.65139999999999998</v>
+      </c>
+      <c r="U6" s="79">
+        <v>0.68379999999999996</v>
+      </c>
+      <c r="V6" s="80">
+        <v>0.71699999999999997</v>
+      </c>
+      <c r="W6" s="80">
+        <v>0.36199999999999999</v>
+      </c>
+      <c r="X6" s="47"/>
+      <c r="Y6" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z6" s="79">
+        <v>0.67330000000000001</v>
+      </c>
+      <c r="AA6" s="79">
+        <v>0.71099999999999997</v>
+      </c>
+      <c r="AB6" s="79">
+        <v>0.64810000000000001</v>
+      </c>
+      <c r="AC6" s="79">
+        <v>0.67810000000000004</v>
+      </c>
+      <c r="AD6" s="80">
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="AE6" s="80">
+        <v>0.34799999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="81">
+        <v>0.63939999999999997</v>
+      </c>
+      <c r="C7" s="81">
+        <v>0.67879999999999996</v>
+      </c>
+      <c r="D7" s="81">
+        <v>0.60880000000000001</v>
+      </c>
+      <c r="E7" s="81">
+        <v>0.64190000000000003</v>
+      </c>
+      <c r="F7" s="82">
+        <v>0.69599999999999995</v>
+      </c>
+      <c r="G7" s="82">
+        <v>0.28100000000000003</v>
+      </c>
+      <c r="H7" s="47"/>
+      <c r="I7" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="J7" s="79">
+        <v>0.70889999999999997</v>
+      </c>
+      <c r="K7" s="79">
+        <v>0.76849999999999996</v>
+      </c>
+      <c r="L7" s="79">
+        <v>0.64649999999999996</v>
+      </c>
+      <c r="M7" s="79">
+        <v>0.70220000000000005</v>
+      </c>
+      <c r="N7" s="80">
+        <v>0.76700000000000002</v>
+      </c>
+      <c r="O7" s="80">
+        <v>0.42199999999999999</v>
+      </c>
+      <c r="P7" s="47"/>
+      <c r="Q7" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="R7" s="79">
+        <v>0.65939999999999999</v>
+      </c>
+      <c r="S7" s="79">
+        <v>0.70020000000000004</v>
+      </c>
+      <c r="T7" s="79">
+        <v>0.62680000000000002</v>
+      </c>
+      <c r="U7" s="79">
+        <v>0.66149999999999998</v>
+      </c>
+      <c r="V7" s="80">
+        <v>0.70799999999999996</v>
+      </c>
+      <c r="W7" s="80">
+        <v>0.32100000000000001</v>
+      </c>
+      <c r="X7" s="47"/>
+      <c r="Y7" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z7" s="79">
+        <v>0.68200000000000005</v>
+      </c>
+      <c r="AA7" s="79">
+        <v>0.72150000000000003</v>
+      </c>
+      <c r="AB7" s="79">
+        <v>0.65200000000000002</v>
+      </c>
+      <c r="AC7" s="79">
+        <v>0.68559999999999999</v>
+      </c>
+      <c r="AD7" s="80">
+        <v>0.73099999999999998</v>
+      </c>
+      <c r="AE7" s="80">
+        <v>0.36599999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="81">
+        <v>0.53690000000000004</v>
+      </c>
+      <c r="C8" s="81">
+        <v>0.56269999999999998</v>
+      </c>
+      <c r="D8" s="81">
+        <v>0.57279999999999998</v>
+      </c>
+      <c r="E8" s="81">
+        <v>0.56769999999999998</v>
+      </c>
+      <c r="F8" s="82">
+        <v>0.54900000000000004</v>
+      </c>
+      <c r="G8" s="82">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="H8" s="47"/>
+      <c r="I8" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="79">
+        <v>0.54390000000000005</v>
+      </c>
+      <c r="K8" s="79">
+        <v>0.53800000000000003</v>
+      </c>
+      <c r="L8" s="79">
+        <v>0.99670000000000003</v>
+      </c>
+      <c r="M8" s="79">
+        <v>0.69879999999999998</v>
+      </c>
+      <c r="N8" s="80">
+        <v>0.54800000000000004</v>
+      </c>
+      <c r="O8" s="80">
+        <v>0.03</v>
+      </c>
+      <c r="P8" s="47"/>
+      <c r="Q8" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="R8" s="79">
+        <v>0.54390000000000005</v>
+      </c>
+      <c r="S8" s="79">
+        <v>0.58240000000000003</v>
+      </c>
+      <c r="T8" s="79">
+        <v>0.4975</v>
+      </c>
+      <c r="U8" s="79">
+        <v>0.53659999999999997</v>
+      </c>
+      <c r="V8" s="80">
+        <v>0.56499999999999995</v>
+      </c>
+      <c r="W8" s="80">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="X8" s="47"/>
+      <c r="Y8" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z8" s="79">
+        <v>0.53259999999999996</v>
+      </c>
+      <c r="AA8" s="79">
+        <v>0.53539999999999999</v>
+      </c>
+      <c r="AB8" s="79">
+        <v>0.90339999999999998</v>
+      </c>
+      <c r="AC8" s="79">
+        <v>0.67230000000000001</v>
+      </c>
+      <c r="AD8" s="80">
+        <v>0.52900000000000003</v>
+      </c>
+      <c r="AE8" s="80">
+        <v>1.7000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="81">
+        <v>0.60299999999999998</v>
+      </c>
+      <c r="C9" s="81">
+        <v>0.81559999999999999</v>
+      </c>
+      <c r="D9" s="81">
+        <v>0.32569999999999999</v>
+      </c>
+      <c r="E9" s="81">
+        <v>0.46550000000000002</v>
+      </c>
+      <c r="F9" s="82">
+        <v>0.68899999999999995</v>
+      </c>
+      <c r="G9" s="82">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="H9" s="47"/>
+      <c r="I9" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="J9" s="79">
+        <v>0.65680000000000005</v>
+      </c>
+      <c r="K9" s="79">
+        <v>0.73280000000000001</v>
+      </c>
+      <c r="L9" s="79">
+        <v>0.55649999999999999</v>
+      </c>
+      <c r="M9" s="79">
+        <v>0.63260000000000005</v>
+      </c>
+      <c r="N9" s="80">
+        <v>0.67800000000000005</v>
+      </c>
+      <c r="O9" s="80">
+        <v>0.32200000000000001</v>
+      </c>
+      <c r="P9" s="47"/>
+      <c r="Q9" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="R9" s="79">
+        <v>0.65069999999999995</v>
+      </c>
+      <c r="S9" s="79">
+        <v>0.74590000000000001</v>
+      </c>
+      <c r="T9" s="79">
+        <v>0.51880000000000004</v>
+      </c>
+      <c r="U9" s="79">
+        <v>0.61199999999999999</v>
+      </c>
+      <c r="V9" s="80">
+        <v>0.7</v>
+      </c>
+      <c r="W9" s="80">
+        <v>0.313</v>
+      </c>
+      <c r="X9" s="47"/>
+      <c r="Y9" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z9" s="79">
+        <v>0.59770000000000001</v>
+      </c>
+      <c r="AA9" s="79">
+        <v>0.64449999999999996</v>
+      </c>
+      <c r="AB9" s="79">
+        <v>0.54010000000000002</v>
+      </c>
+      <c r="AC9" s="79">
+        <v>0.5877</v>
+      </c>
+      <c r="AD9" s="80">
+        <v>0.65200000000000002</v>
+      </c>
+      <c r="AE9" s="80">
+        <v>0.20100000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="79">
+        <v>0.7046</v>
+      </c>
+      <c r="C10" s="79">
+        <v>0.79900000000000004</v>
+      </c>
+      <c r="D10" s="79">
+        <v>0.60240000000000005</v>
+      </c>
+      <c r="E10" s="79">
+        <v>0.68210000000000004</v>
+      </c>
+      <c r="F10" s="80">
+        <v>0.79700000000000004</v>
+      </c>
+      <c r="G10" s="80">
+        <v>0.41599999999999998</v>
+      </c>
+      <c r="H10" s="47"/>
+      <c r="I10" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="J10" s="79">
+        <v>0.73409999999999997</v>
+      </c>
+      <c r="K10" s="79">
+        <v>0.80979999999999996</v>
+      </c>
+      <c r="L10" s="79">
+        <v>0.67100000000000004</v>
+      </c>
+      <c r="M10" s="80">
+        <v>72.66</v>
+      </c>
+      <c r="N10" s="80">
+        <v>0.8</v>
+      </c>
+      <c r="O10" s="80">
+        <v>0.47</v>
+      </c>
+      <c r="P10" s="47"/>
+      <c r="Q10" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="R10" s="56"/>
+      <c r="S10" s="56"/>
+      <c r="T10" s="56"/>
+      <c r="U10" s="56"/>
+      <c r="V10" s="56"/>
+      <c r="W10" s="56"/>
+      <c r="X10" s="47"/>
+      <c r="Y10" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z10" s="79">
+        <v>0.69499999999999995</v>
+      </c>
+      <c r="AA10" s="79">
+        <v>0.79090000000000005</v>
+      </c>
+      <c r="AB10" s="79">
+        <v>0.59230000000000005</v>
+      </c>
+      <c r="AC10" s="79">
+        <v>0.66659999999999997</v>
+      </c>
+      <c r="AD10" s="80">
+        <v>0.77600000000000002</v>
+      </c>
+      <c r="AE10" s="80">
+        <v>0.39600000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A11" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="56"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="56"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="J11" s="55"/>
+      <c r="K11" s="55"/>
+      <c r="L11" s="55"/>
+      <c r="M11" s="55"/>
+      <c r="N11" s="55"/>
+      <c r="O11" s="55"/>
+      <c r="P11" s="47"/>
+      <c r="Q11" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="R11" s="56"/>
+      <c r="S11" s="56"/>
+      <c r="T11" s="56"/>
+      <c r="U11" s="56"/>
+      <c r="V11" s="56"/>
+      <c r="W11" s="56"/>
+      <c r="X11" s="47"/>
+      <c r="Y11" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z11" s="56"/>
+      <c r="AA11" s="56"/>
+      <c r="AB11" s="56"/>
+      <c r="AC11" s="56"/>
+      <c r="AD11" s="56"/>
+      <c r="AE11" s="56"/>
+    </row>
+    <row r="12" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="1:31" ht="216.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Y13" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="68" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA13" s="68" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB13" s="68" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC13" s="68" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD13" s="68" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Y14" s="73" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z14" s="69" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA14" s="70">
+        <v>0.61250000000000004</v>
+      </c>
+      <c r="AB14" s="70">
+        <v>0.68200000000000005</v>
+      </c>
+      <c r="AC14" s="70">
+        <v>0.63339999999999996</v>
+      </c>
+      <c r="AD14" s="70">
+        <v>0.67159999999999997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Y15" s="72"/>
+      <c r="Z15" s="69" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA15" s="70">
+        <v>0.64400000000000002</v>
+      </c>
+      <c r="AB15" s="70">
+        <v>0.71599999999999997</v>
+      </c>
+      <c r="AC15" s="70">
+        <v>0.66669999999999996</v>
+      </c>
+      <c r="AD15" s="70">
+        <v>0.69189999999999996</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Y16" s="72"/>
+      <c r="Z16" s="69" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA16" s="70">
+        <v>0.60389999999999999</v>
+      </c>
+      <c r="AB16" s="70">
+        <v>0.66449999999999998</v>
+      </c>
+      <c r="AC16" s="70">
+        <v>0.61870000000000003</v>
+      </c>
+      <c r="AD16" s="70">
+        <v>0.68740000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="25:30" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Y17" s="72"/>
+      <c r="Z17" s="69" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA17" s="70">
+        <v>0.62329999999999997</v>
+      </c>
+      <c r="AB17" s="70">
+        <v>0.68930000000000002</v>
+      </c>
+      <c r="AC17" s="70">
+        <v>0.64180000000000004</v>
+      </c>
+      <c r="AD17" s="70">
+        <v>0.68969999999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="25:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Y18" s="72"/>
+      <c r="Z18" s="69" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA18" s="71">
+        <v>0.5</v>
+      </c>
+      <c r="AB18" s="71">
+        <v>0.5</v>
+      </c>
+      <c r="AC18" s="71">
+        <v>0.5</v>
+      </c>
+      <c r="AD18" s="71">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="19" spans="25:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Y19" s="74"/>
+      <c r="Z19" s="69" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA19" s="71">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="AB19" s="71">
+        <v>0.36499999999999999</v>
+      </c>
+      <c r="AC19" s="71">
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="AD19" s="71">
+        <v>0.34100000000000003</v>
+      </c>
+    </row>
+    <row r="20" spans="25:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Y20" s="75" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z20" s="69" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA20" s="70">
+        <v>0.62290000000000001</v>
+      </c>
+      <c r="AB20" s="70">
+        <v>0.71419999999999995</v>
+      </c>
+      <c r="AC20" s="70">
+        <v>0.64470000000000005</v>
+      </c>
+      <c r="AD20" s="70">
+        <v>0.64639999999999997</v>
+      </c>
+    </row>
+    <row r="21" spans="25:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Y21" s="72"/>
+      <c r="Z21" s="69" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA21" s="70">
+        <v>0.6583</v>
+      </c>
+      <c r="AB21" s="70">
+        <v>0.75090000000000001</v>
+      </c>
+      <c r="AC21" s="70">
+        <v>0.68230000000000002</v>
+      </c>
+      <c r="AD21" s="70">
+        <v>0.67589999999999995</v>
+      </c>
+    </row>
+    <row r="22" spans="25:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Y22" s="72"/>
+      <c r="Z22" s="69" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA22" s="70">
+        <v>0.60229999999999995</v>
+      </c>
+      <c r="AB22" s="70">
+        <v>0.69069999999999998</v>
+      </c>
+      <c r="AC22" s="70">
+        <v>0.61870000000000003</v>
+      </c>
+      <c r="AD22" s="70">
+        <v>0.64159999999999995</v>
+      </c>
+    </row>
+    <row r="23" spans="25:30" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Y23" s="72"/>
+      <c r="Z23" s="69" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA23" s="70">
+        <v>0.62909999999999999</v>
+      </c>
+      <c r="AB23" s="70">
+        <v>0.71950000000000003</v>
+      </c>
+      <c r="AC23" s="70">
+        <v>0.64890000000000003</v>
+      </c>
+      <c r="AD23" s="70">
+        <v>0.6583</v>
+      </c>
+    </row>
+    <row r="24" spans="25:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Y24" s="72"/>
+      <c r="Z24" s="69" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA24" s="71">
+        <v>0.66</v>
+      </c>
+      <c r="AB24" s="71">
+        <v>0.73599999999999999</v>
+      </c>
+      <c r="AC24" s="71">
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="AD24" s="71">
+        <v>0.68400000000000005</v>
+      </c>
+    </row>
+    <row r="25" spans="25:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Y25" s="74"/>
+      <c r="Z25" s="69" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA25" s="71">
+        <v>0.247</v>
+      </c>
+      <c r="AB25" s="71">
+        <v>0.42899999999999999</v>
+      </c>
+      <c r="AC25" s="71">
+        <v>0.29099999999999998</v>
+      </c>
+      <c r="AD25" s="71">
+        <v>0.29199999999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="25:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Y26" s="75" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z26" s="69" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA26" s="70">
+        <v>0.63160000000000005</v>
+      </c>
+      <c r="AB26" s="70">
+        <v>0.72199999999999998</v>
+      </c>
+      <c r="AC26" s="70">
+        <v>0.66200000000000003</v>
+      </c>
+      <c r="AD26" s="70">
+        <v>0.65680000000000005</v>
+      </c>
+    </row>
+    <row r="27" spans="25:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Y27" s="72"/>
+      <c r="Z27" s="69" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA27" s="70">
+        <v>0.66910000000000003</v>
+      </c>
+      <c r="AB27" s="70">
+        <v>0.76890000000000003</v>
+      </c>
+      <c r="AC27" s="70">
+        <v>0.70479999999999998</v>
+      </c>
+      <c r="AD27" s="70">
+        <v>0.69220000000000004</v>
+      </c>
+    </row>
+    <row r="28" spans="25:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Y28" s="72"/>
+      <c r="Z28" s="69" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA28" s="70">
+        <v>0.60560000000000003</v>
+      </c>
+      <c r="AB28" s="70">
+        <v>0.68089999999999995</v>
+      </c>
+      <c r="AC28" s="70">
+        <v>0.62519999999999998</v>
+      </c>
+      <c r="AD28" s="70">
+        <v>0.63670000000000004</v>
+      </c>
+    </row>
+    <row r="29" spans="25:30" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Y29" s="72"/>
+      <c r="Z29" s="69" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA29" s="70">
+        <v>0.63570000000000004</v>
+      </c>
+      <c r="AB29" s="70">
+        <v>0.72219999999999995</v>
+      </c>
+      <c r="AC29" s="70">
+        <v>0.66259999999999997</v>
+      </c>
+      <c r="AD29" s="70">
+        <v>0.6633</v>
+      </c>
+    </row>
+    <row r="30" spans="25:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Y30" s="72"/>
+      <c r="Z30" s="69" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA30" s="71">
+        <v>0.68</v>
+      </c>
+      <c r="AB30" s="71">
+        <v>0.77100000000000002</v>
+      </c>
+      <c r="AC30" s="71">
+        <v>0.70299999999999996</v>
+      </c>
+      <c r="AD30" s="71">
+        <v>0.71299999999999997</v>
+      </c>
+    </row>
+    <row r="31" spans="25:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Y31" s="74"/>
+      <c r="Z31" s="69" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA31" s="71">
+        <v>0.26500000000000001</v>
+      </c>
+      <c r="AB31" s="71">
+        <v>0.44600000000000001</v>
+      </c>
+      <c r="AC31" s="71">
+        <v>0.32600000000000001</v>
+      </c>
+      <c r="AD31" s="71">
+        <v>0.315</v>
+      </c>
+    </row>
+    <row r="32" spans="25:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Y32" s="75" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z32" s="69" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA32" s="70">
+        <v>0.64729999999999999</v>
+      </c>
+      <c r="AB32" s="70">
+        <v>0.70889999999999997</v>
+      </c>
+      <c r="AC32" s="70">
+        <v>0.68030000000000002</v>
+      </c>
+      <c r="AD32" s="70">
+        <v>0.67330000000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="25:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Y33" s="72"/>
+      <c r="Z33" s="69" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA33" s="70">
+        <v>0.68600000000000005</v>
+      </c>
+      <c r="AB33" s="70">
+        <v>0.75749999999999995</v>
+      </c>
+      <c r="AC33" s="70">
+        <v>0.71970000000000001</v>
+      </c>
+      <c r="AD33" s="70">
+        <v>0.71099999999999997</v>
+      </c>
+    </row>
+    <row r="34" spans="25:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Y34" s="72"/>
+      <c r="Z34" s="69" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA34" s="70">
+        <v>0.61870000000000003</v>
+      </c>
+      <c r="AB34" s="70">
+        <v>0.66449999999999998</v>
+      </c>
+      <c r="AC34" s="70">
+        <v>0.65139999999999998</v>
+      </c>
+      <c r="AD34" s="70">
+        <v>0.64810000000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="25:30" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Y35" s="72"/>
+      <c r="Z35" s="69" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA35" s="70">
+        <v>0.65059999999999996</v>
+      </c>
+      <c r="AB35" s="70">
+        <v>0.70789999999999997</v>
+      </c>
+      <c r="AC35" s="70">
+        <v>0.68379999999999996</v>
+      </c>
+      <c r="AD35" s="70">
+        <v>0.67810000000000004</v>
+      </c>
+    </row>
+    <row r="36" spans="25:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Y36" s="72"/>
+      <c r="Z36" s="69" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA36" s="71">
+        <v>0.69399999999999995</v>
+      </c>
+      <c r="AB36" s="71">
+        <v>0.76100000000000001</v>
+      </c>
+      <c r="AC36" s="71">
+        <v>0.71699999999999997</v>
+      </c>
+      <c r="AD36" s="71">
+        <v>0.72499999999999998</v>
+      </c>
+    </row>
+    <row r="37" spans="25:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Y37" s="74"/>
+      <c r="Z37" s="69" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA37" s="71">
+        <v>0.29599999999999999</v>
+      </c>
+      <c r="AB37" s="71">
+        <v>0.42</v>
+      </c>
+      <c r="AC37" s="71">
+        <v>0.36199999999999999</v>
+      </c>
+      <c r="AD37" s="71">
+        <v>0.34799999999999998</v>
+      </c>
+    </row>
+    <row r="38" spans="25:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Y38" s="75" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z38" s="69" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA38" s="70">
+        <v>0.63939999999999997</v>
+      </c>
+      <c r="AB38" s="70">
+        <v>0.70889999999999997</v>
+      </c>
+      <c r="AC38" s="70">
+        <v>0.65939999999999999</v>
+      </c>
+      <c r="AD38" s="70">
+        <v>0.68200000000000005</v>
+      </c>
+    </row>
+    <row r="39" spans="25:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Y39" s="72"/>
+      <c r="Z39" s="69" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA39" s="70">
+        <v>0.67879999999999996</v>
+      </c>
+      <c r="AB39" s="70">
+        <v>0.76849999999999996</v>
+      </c>
+      <c r="AC39" s="70">
+        <v>0.70020000000000004</v>
+      </c>
+      <c r="AD39" s="70">
+        <v>0.72150000000000003</v>
+      </c>
+    </row>
+    <row r="40" spans="25:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Y40" s="72"/>
+      <c r="Z40" s="69" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA40" s="70">
+        <v>0.60880000000000001</v>
+      </c>
+      <c r="AB40" s="70">
+        <v>0.64649999999999996</v>
+      </c>
+      <c r="AC40" s="70">
+        <v>0.62680000000000002</v>
+      </c>
+      <c r="AD40" s="70">
+        <v>0.65200000000000002</v>
+      </c>
+    </row>
+    <row r="41" spans="25:30" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Y41" s="72"/>
+      <c r="Z41" s="69" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA41" s="70">
+        <v>0.64190000000000003</v>
+      </c>
+      <c r="AB41" s="70">
+        <v>0.70220000000000005</v>
+      </c>
+      <c r="AC41" s="70">
+        <v>0.66149999999999998</v>
+      </c>
+      <c r="AD41" s="70">
+        <v>0.68559999999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="25:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Y42" s="72"/>
+      <c r="Z42" s="69" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA42" s="71">
+        <v>0.69599999999999995</v>
+      </c>
+      <c r="AB42" s="71">
+        <v>0.76700000000000002</v>
+      </c>
+      <c r="AC42" s="71">
+        <v>0.70799999999999996</v>
+      </c>
+      <c r="AD42" s="71">
+        <v>0.73099999999999998</v>
+      </c>
+    </row>
+    <row r="43" spans="25:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Y43" s="74"/>
+      <c r="Z43" s="69" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA43" s="71">
+        <v>0.28100000000000003</v>
+      </c>
+      <c r="AB43" s="71">
+        <v>0.42199999999999999</v>
+      </c>
+      <c r="AC43" s="71">
+        <v>0.32100000000000001</v>
+      </c>
+      <c r="AD43" s="71">
+        <v>0.36599999999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="25:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Y44" s="75" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z44" s="69" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA44" s="70">
+        <v>0.53690000000000004</v>
+      </c>
+      <c r="AB44" s="70">
+        <v>0.54390000000000005</v>
+      </c>
+      <c r="AC44" s="70">
+        <v>0.54390000000000005</v>
+      </c>
+      <c r="AD44" s="70">
+        <v>0.53259999999999996</v>
+      </c>
+    </row>
+    <row r="45" spans="25:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Y45" s="72"/>
+      <c r="Z45" s="69" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA45" s="70">
+        <v>0.56269999999999998</v>
+      </c>
+      <c r="AB45" s="70">
+        <v>0.53800000000000003</v>
+      </c>
+      <c r="AC45" s="70">
+        <v>0.58240000000000003</v>
+      </c>
+      <c r="AD45" s="70">
+        <v>0.53539999999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="25:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Y46" s="72"/>
+      <c r="Z46" s="69" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA46" s="70">
+        <v>0.57279999999999998</v>
+      </c>
+      <c r="AB46" s="70">
+        <v>0.99670000000000003</v>
+      </c>
+      <c r="AC46" s="70">
+        <v>0.4975</v>
+      </c>
+      <c r="AD46" s="70">
+        <v>0.90339999999999998</v>
+      </c>
+    </row>
+    <row r="47" spans="25:30" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Y47" s="72"/>
+      <c r="Z47" s="69" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA47" s="70">
+        <v>0.56769999999999998</v>
+      </c>
+      <c r="AB47" s="70">
+        <v>0.69879999999999998</v>
+      </c>
+      <c r="AC47" s="70">
+        <v>0.53659999999999997</v>
+      </c>
+      <c r="AD47" s="70">
+        <v>0.67230000000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="25:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Y48" s="72"/>
+      <c r="Z48" s="69" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA48" s="71">
+        <v>0.54900000000000004</v>
+      </c>
+      <c r="AB48" s="71">
+        <v>0.54800000000000004</v>
+      </c>
+      <c r="AC48" s="71">
+        <v>0.56499999999999995</v>
+      </c>
+      <c r="AD48" s="71">
+        <v>0.52900000000000003</v>
+      </c>
+    </row>
+    <row r="49" spans="25:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Y49" s="74"/>
+      <c r="Z49" s="69" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA49" s="71">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="AB49" s="71">
+        <v>0.03</v>
+      </c>
+      <c r="AC49" s="71">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="AD49" s="71">
+        <v>1.7000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="25:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Y50" s="75" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z50" s="69" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA50" s="70">
+        <v>0.60299999999999998</v>
+      </c>
+      <c r="AB50" s="70">
+        <v>0.65680000000000005</v>
+      </c>
+      <c r="AC50" s="70">
+        <v>0.65069999999999995</v>
+      </c>
+      <c r="AD50" s="70">
+        <v>0.59770000000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="25:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Y51" s="72"/>
+      <c r="Z51" s="69" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA51" s="70">
+        <v>0.81559999999999999</v>
+      </c>
+      <c r="AB51" s="70">
+        <v>0.73280000000000001</v>
+      </c>
+      <c r="AC51" s="70">
+        <v>0.74590000000000001</v>
+      </c>
+      <c r="AD51" s="70">
+        <v>0.64449999999999996</v>
+      </c>
+    </row>
+    <row r="52" spans="25:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Y52" s="72"/>
+      <c r="Z52" s="69" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA52" s="70">
+        <v>0.32569999999999999</v>
+      </c>
+      <c r="AB52" s="70">
+        <v>0.55649999999999999</v>
+      </c>
+      <c r="AC52" s="70">
+        <v>0.51880000000000004</v>
+      </c>
+      <c r="AD52" s="70">
+        <v>0.54010000000000002</v>
+      </c>
+    </row>
+    <row r="53" spans="25:30" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Y53" s="72"/>
+      <c r="Z53" s="69" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA53" s="70">
+        <v>0.46550000000000002</v>
+      </c>
+      <c r="AB53" s="70">
+        <v>0.63260000000000005</v>
+      </c>
+      <c r="AC53" s="70">
+        <v>0.61199999999999999</v>
+      </c>
+      <c r="AD53" s="70">
+        <v>0.5877</v>
+      </c>
+    </row>
+    <row r="54" spans="25:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Y54" s="72"/>
+      <c r="Z54" s="69" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA54" s="71">
+        <v>0.68899999999999995</v>
+      </c>
+      <c r="AB54" s="71">
+        <v>0.67800000000000005</v>
+      </c>
+      <c r="AC54" s="71">
+        <v>0.7</v>
+      </c>
+      <c r="AD54" s="71">
+        <v>0.65200000000000002</v>
+      </c>
+    </row>
+    <row r="55" spans="25:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Y55" s="76"/>
+      <c r="Z55" s="69" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA55" s="71">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="AB55" s="71">
+        <v>0.32200000000000001</v>
+      </c>
+      <c r="AC55" s="71">
+        <v>0.313</v>
+      </c>
+      <c r="AD55" s="71">
+        <v>0.20100000000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="25:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Y56" s="73" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z56" s="69" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA56" s="70">
+        <v>0.7046</v>
+      </c>
+      <c r="AB56" s="70">
+        <v>0.73409999999999997</v>
+      </c>
+      <c r="AC56" s="71"/>
+      <c r="AD56" s="70">
+        <v>0.69499999999999995</v>
+      </c>
+    </row>
+    <row r="57" spans="25:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Y57" s="72"/>
+      <c r="Z57" s="69" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA57" s="70">
+        <v>0.79900000000000004</v>
+      </c>
+      <c r="AB57" s="70">
+        <v>0.80979999999999996</v>
+      </c>
+      <c r="AC57" s="71"/>
+      <c r="AD57" s="70">
+        <v>0.79090000000000005</v>
+      </c>
+    </row>
+    <row r="58" spans="25:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Y58" s="72"/>
+      <c r="Z58" s="69" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA58" s="70">
+        <v>0.60240000000000005</v>
+      </c>
+      <c r="AB58" s="70">
+        <v>0.67100000000000004</v>
+      </c>
+      <c r="AC58" s="71"/>
+      <c r="AD58" s="70">
+        <v>0.59230000000000005</v>
+      </c>
+    </row>
+    <row r="59" spans="25:30" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Y59" s="72"/>
+      <c r="Z59" s="69" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA59" s="70">
+        <v>0.68210000000000004</v>
+      </c>
+      <c r="AB59" s="71">
+        <v>72.66</v>
+      </c>
+      <c r="AC59" s="71"/>
+      <c r="AD59" s="70">
+        <v>0.66659999999999997</v>
+      </c>
+    </row>
+    <row r="60" spans="25:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Y60" s="72"/>
+      <c r="Z60" s="69" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA60" s="71">
+        <v>0.79700000000000004</v>
+      </c>
+      <c r="AB60" s="71">
+        <v>0.8</v>
+      </c>
+      <c r="AC60" s="71"/>
+      <c r="AD60" s="71">
+        <v>0.77600000000000002</v>
+      </c>
+    </row>
+    <row r="61" spans="25:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Y61" s="76"/>
+      <c r="Z61" s="69" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA61" s="71">
+        <v>0.41599999999999998</v>
+      </c>
+      <c r="AB61" s="71">
+        <v>0.47</v>
+      </c>
+      <c r="AC61" s="71"/>
+      <c r="AD61" s="71">
+        <v>0.39600000000000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="Y44:Y49"/>
+    <mergeCell ref="Y50:Y55"/>
+    <mergeCell ref="Y56:Y61"/>
+    <mergeCell ref="Y14:Y19"/>
+    <mergeCell ref="Y20:Y25"/>
+    <mergeCell ref="Y26:Y31"/>
+    <mergeCell ref="Y32:Y37"/>
+    <mergeCell ref="Y38:Y43"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>